--- a/data/financial_statements/socf/BALL.xlsx
+++ b/data/financial_statements/socf/BALL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -40,10 +40,10 @@
     <t>Change in payables and accrued liability</t>
   </si>
   <si>
-    <t>Change in other assets and liabilities</t>
+    <t>Income tax paid</t>
   </si>
   <si>
-    <t>Other operating activities</t>
+    <t>Change in other assets and liabilities</t>
   </si>
   <si>
     <t>Operating Cash Flow</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Net Aquisitions</t>
+  </si>
+  <si>
+    <t>Long-Term Investments Change (Net)</t>
   </si>
   <si>
     <t>Other investing activities</t>
@@ -88,6 +91,9 @@
     <t>Ending Cash</t>
   </si>
   <si>
+    <t>Stock Based Compensation</t>
+  </si>
+  <si>
     <t>Dividends Paid (Common)</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>Assets Liabilities Change (Total)</t>
+  </si>
+  <si>
+    <t>Investments Change (Net)</t>
   </si>
   <si>
     <t>Issuance/Purchase of Shares</t>
@@ -464,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,121 +606,121 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>394000000</v>
+        <v>3863000000</v>
       </c>
       <c r="C2">
-        <v>-165000000</v>
+        <v>82000000</v>
       </c>
       <c r="D2">
-        <v>447000000</v>
+        <v>1303000000</v>
       </c>
       <c r="E2">
-        <v>297000000</v>
+        <v>1340000000</v>
       </c>
       <c r="F2">
-        <v>179000000</v>
+        <v>1437000000</v>
       </c>
       <c r="G2">
-        <v>202000000</v>
+        <v>1525000000</v>
       </c>
       <c r="H2">
-        <v>200000000</v>
+        <v>1627000000</v>
       </c>
       <c r="I2">
-        <v>227000000</v>
+        <v>1406000000</v>
       </c>
       <c r="J2">
-        <v>240000000</v>
+        <v>1434000000</v>
       </c>
       <c r="K2">
-        <v>92000000</v>
+        <v>1303000000</v>
       </c>
       <c r="L2">
-        <v>23000000</v>
+        <v>1310000000</v>
       </c>
       <c r="M2">
-        <v>130000000</v>
+        <v>917000000</v>
       </c>
       <c r="N2">
-        <v>92000000</v>
+        <v>1588000000</v>
       </c>
       <c r="O2">
-        <v>197000000</v>
+        <v>1131000000</v>
       </c>
       <c r="P2">
-        <v>117000000</v>
+        <v>893000000</v>
       </c>
       <c r="Q2">
-        <v>149000000</v>
+        <v>1349000000</v>
       </c>
       <c r="R2">
-        <v>59000000</v>
+        <v>1546000000</v>
       </c>
       <c r="S2">
-        <v>120000000</v>
+        <v>1862000000</v>
       </c>
       <c r="T2">
-        <v>125000000</v>
+        <v>606000000</v>
       </c>
       <c r="U2">
-        <v>159000000</v>
+        <v>525000000</v>
       </c>
       <c r="V2">
-        <v>51000000</v>
+        <v>1433000000</v>
       </c>
       <c r="W2">
-        <v>100000000</v>
+        <v>1585000000</v>
       </c>
       <c r="X2">
-        <v>70000000</v>
+        <v>1326000000</v>
       </c>
       <c r="Y2">
-        <v>53000000</v>
+        <v>1156000000</v>
       </c>
       <c r="Z2">
-        <v>33000000</v>
+        <v>1331000000</v>
       </c>
       <c r="AA2">
-        <v>307000000</v>
+        <v>1293000000</v>
       </c>
       <c r="AB2">
-        <v>-127000000</v>
+        <v>1278000000</v>
       </c>
       <c r="AC2">
-        <v>65000000</v>
+        <v>1039000000</v>
       </c>
       <c r="AD2">
-        <v>50000000</v>
+        <v>1298000000</v>
       </c>
       <c r="AE2">
-        <v>160000000</v>
+        <v>1303000000</v>
       </c>
       <c r="AF2">
-        <v>28000000</v>
+        <v>1201000000</v>
       </c>
       <c r="AG2">
-        <v>88400000</v>
+        <v>1179000000</v>
       </c>
       <c r="AH2">
-        <v>148400000</v>
+        <v>1311000000</v>
       </c>
       <c r="AI2">
-        <v>156300000</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ2">
-        <v>104900000</v>
+        <v>1225000000</v>
       </c>
       <c r="AK2">
-        <v>134600000</v>
+        <v>1116000000</v>
       </c>
       <c r="AL2">
-        <v>121900000</v>
+        <v>1245000000</v>
       </c>
       <c r="AM2">
-        <v>99100000</v>
+        <v>1213000000</v>
       </c>
       <c r="AN2">
-        <v>79400000</v>
+        <v>1147000000</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -719,121 +728,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>157000000</v>
+        <v>450000000</v>
       </c>
       <c r="C3">
-        <v>168000000</v>
+        <v>462000000</v>
       </c>
       <c r="D3">
-        <v>185000000</v>
+        <v>459000000</v>
       </c>
       <c r="E3">
-        <v>185000000</v>
+        <v>507000000</v>
       </c>
       <c r="F3">
-        <v>175000000</v>
+        <v>476000000</v>
       </c>
       <c r="G3">
-        <v>172000000</v>
+        <v>472000000</v>
       </c>
       <c r="H3">
-        <v>168000000</v>
+        <v>460000000</v>
       </c>
       <c r="I3">
-        <v>169000000</v>
+        <v>498000000</v>
       </c>
       <c r="J3">
-        <v>160000000</v>
+        <v>481000000</v>
       </c>
       <c r="K3">
-        <v>170000000</v>
+        <v>492000000</v>
       </c>
       <c r="L3">
-        <v>169000000</v>
+        <v>440000000</v>
       </c>
       <c r="M3">
-        <v>168000000</v>
+        <v>463000000</v>
       </c>
       <c r="N3">
-        <v>169000000</v>
+        <v>379000000</v>
       </c>
       <c r="O3">
-        <v>171000000</v>
+        <v>376000000</v>
       </c>
       <c r="P3">
-        <v>170000000</v>
+        <v>375000000</v>
       </c>
       <c r="Q3">
-        <v>173000000</v>
+        <v>371000000</v>
       </c>
       <c r="R3">
-        <v>171000000</v>
+        <v>355000000</v>
       </c>
       <c r="S3">
-        <v>178000000</v>
+        <v>380000000</v>
       </c>
       <c r="T3">
-        <v>180000000</v>
+        <v>382000000</v>
       </c>
       <c r="U3">
-        <v>190000000</v>
+        <v>349000000</v>
       </c>
       <c r="V3">
-        <v>162000000</v>
+        <v>377000000</v>
       </c>
       <c r="W3">
-        <v>229000000</v>
+        <v>380000000</v>
       </c>
       <c r="X3">
-        <v>148000000</v>
+        <v>438000000</v>
       </c>
       <c r="Y3">
-        <v>154000000</v>
+        <v>384000000</v>
       </c>
       <c r="Z3">
-        <v>146000000</v>
+        <v>368000000</v>
       </c>
       <c r="AA3">
-        <v>78000000</v>
+        <v>366000000</v>
       </c>
       <c r="AB3">
-        <v>75000000</v>
+        <v>356000000</v>
       </c>
       <c r="AC3">
-        <v>74000000</v>
+        <v>397000000</v>
       </c>
       <c r="AD3">
-        <v>73000000</v>
+        <v>355000000</v>
       </c>
       <c r="AE3">
-        <v>71000000</v>
+        <v>344000000</v>
       </c>
       <c r="AF3">
-        <v>68000000</v>
+        <v>339000000</v>
       </c>
       <c r="AG3">
-        <v>71300000</v>
+        <v>350000000</v>
       </c>
       <c r="AH3">
-        <v>71300000</v>
+        <v>350000000</v>
       </c>
       <c r="AI3">
-        <v>69600000</v>
+        <v>358000000</v>
       </c>
       <c r="AJ3">
-        <v>68800000</v>
+        <v>350000000</v>
       </c>
       <c r="AK3">
-        <v>76300000</v>
+        <v>357000000</v>
       </c>
       <c r="AL3">
-        <v>76600000</v>
+        <v>343000000</v>
       </c>
       <c r="AM3">
-        <v>74500000</v>
+        <v>335000000</v>
       </c>
       <c r="AN3">
-        <v>72500000</v>
+        <v>336000000</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -841,273 +850,528 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-228000000</v>
+        <v>-2705000000</v>
       </c>
       <c r="C4">
-        <v>382000000</v>
+        <v>-353000000</v>
       </c>
       <c r="D4">
-        <v>-432000000</v>
+        <v>87000000</v>
       </c>
       <c r="E4">
-        <v>35000000</v>
+        <v>46000000</v>
       </c>
       <c r="F4">
-        <v>106000000</v>
+        <v>-194000000</v>
       </c>
       <c r="G4">
-        <v>64000000</v>
+        <v>135000000</v>
       </c>
       <c r="H4">
-        <v>-142000000</v>
+        <v>147000000</v>
       </c>
       <c r="I4">
-        <v>42000000</v>
+        <v>-6000000</v>
       </c>
       <c r="J4">
-        <v>-36000000</v>
+        <v>-22000000</v>
       </c>
       <c r="K4">
-        <v>118000000</v>
+        <v>-283000000</v>
       </c>
       <c r="L4">
-        <v>137000000</v>
+        <v>185000000</v>
       </c>
       <c r="M4">
-        <v>-61000000</v>
+        <v>-34000000</v>
       </c>
       <c r="N4">
-        <v>150000000</v>
+        <v>-47000000</v>
       </c>
       <c r="O4">
-        <v>-58000000</v>
+        <v>261000000</v>
       </c>
       <c r="P4">
-        <v>71000000</v>
+        <v>92000000</v>
       </c>
       <c r="Q4">
-        <v>42000000</v>
+        <v>82000000</v>
       </c>
       <c r="R4">
-        <v>122000000</v>
+        <v>38000000</v>
       </c>
       <c r="S4">
-        <v>143000000</v>
+        <v>-282000000</v>
       </c>
       <c r="T4">
-        <v>41000000</v>
+        <v>-98000000</v>
       </c>
       <c r="U4">
-        <v>-37000000</v>
+        <v>-388000000</v>
       </c>
       <c r="V4">
-        <v>134000000</v>
+        <v>120000000</v>
       </c>
       <c r="W4">
-        <v>-171000000</v>
+        <v>-387000000</v>
       </c>
       <c r="X4">
-        <v>61000000</v>
+        <v>-133000000</v>
       </c>
       <c r="Y4">
-        <v>-229000000</v>
+        <v>100000000</v>
       </c>
       <c r="Z4">
-        <v>72000000</v>
+        <v>-79000000</v>
       </c>
       <c r="AA4">
-        <v>-84000000</v>
+        <v>-69000000</v>
       </c>
       <c r="AB4">
-        <v>227000000</v>
+        <v>109000000</v>
       </c>
       <c r="AC4">
-        <v>132000000</v>
+        <v>68000000</v>
       </c>
       <c r="AD4">
-        <v>123000000</v>
+        <v>240000000</v>
       </c>
       <c r="AE4">
-        <v>2000000</v>
+        <v>327000000</v>
       </c>
       <c r="AF4">
-        <v>37000000</v>
+        <v>124000000</v>
       </c>
       <c r="AG4">
-        <v>59700000</v>
+        <v>-77000000</v>
       </c>
       <c r="AH4">
-        <v>-11200000</v>
+        <v>60000000</v>
       </c>
       <c r="AI4">
-        <v>26400000</v>
+        <v>116000000</v>
       </c>
       <c r="AJ4">
-        <v>-7900000</v>
+        <v>44000000</v>
       </c>
       <c r="AK4">
-        <v>-56200000</v>
+        <v>-52000000</v>
       </c>
       <c r="AL4">
-        <v>82900000</v>
+        <v>-136000000</v>
       </c>
       <c r="AM4">
-        <v>37800000</v>
+        <v>40000000</v>
       </c>
       <c r="AN4">
-        <v>-26200000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>-10000000</v>
+      </c>
+      <c r="C5">
+        <v>-268000000</v>
+      </c>
+      <c r="D5">
+        <v>-189000000</v>
+      </c>
       <c r="E5">
-        <v>-863000000</v>
+        <v>202000000</v>
+      </c>
+      <c r="F5">
+        <v>13000000</v>
+      </c>
+      <c r="G5">
+        <v>-132000000</v>
+      </c>
+      <c r="H5">
+        <v>-205000000</v>
       </c>
       <c r="I5">
-        <v>-135000000</v>
+        <v>52000000</v>
+      </c>
+      <c r="J5">
+        <v>-128000000</v>
+      </c>
+      <c r="K5">
+        <v>384000000</v>
+      </c>
+      <c r="L5">
+        <v>-143000000</v>
       </c>
       <c r="M5">
-        <v>49000000</v>
+        <v>359000000</v>
+      </c>
+      <c r="N5">
+        <v>244000000</v>
+      </c>
+      <c r="O5">
+        <v>-180000000</v>
+      </c>
+      <c r="P5">
+        <v>-78000000</v>
       </c>
       <c r="Q5">
-        <v>-17000000</v>
+        <v>291000000</v>
+      </c>
+      <c r="R5">
+        <v>10000000</v>
+      </c>
+      <c r="S5">
+        <v>-346000000</v>
+      </c>
+      <c r="T5">
+        <v>-260000000</v>
       </c>
       <c r="U5">
-        <v>-189000000</v>
+        <v>350000000</v>
+      </c>
+      <c r="V5">
+        <v>-183000000</v>
+      </c>
+      <c r="W5">
+        <v>-175000000</v>
+      </c>
+      <c r="X5">
+        <v>-237000000</v>
       </c>
       <c r="Y5">
-        <v>-53000000</v>
+        <v>156000000</v>
+      </c>
+      <c r="Z5">
+        <v>-50000000</v>
+      </c>
+      <c r="AA5">
+        <v>-174000000</v>
+      </c>
+      <c r="AB5">
+        <v>-245000000</v>
       </c>
       <c r="AC5">
-        <v>35000000</v>
+        <v>420000000</v>
+      </c>
+      <c r="AD5">
+        <v>-32000000</v>
+      </c>
+      <c r="AE5">
+        <v>-150000000</v>
+      </c>
+      <c r="AF5">
+        <v>-296000000</v>
       </c>
       <c r="AG5">
-        <v>-152000000</v>
+        <v>319000000</v>
+      </c>
+      <c r="AH5">
+        <v>-103000000</v>
+      </c>
+      <c r="AI5">
+        <v>-137000000</v>
+      </c>
+      <c r="AJ5">
+        <v>-347000000</v>
       </c>
       <c r="AK5">
-        <v>80200000</v>
+        <v>306000000</v>
+      </c>
+      <c r="AL5">
+        <v>-15000000</v>
+      </c>
+      <c r="AM5">
+        <v>-181000000</v>
+      </c>
+      <c r="AN5">
+        <v>-447000000</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>-181000000</v>
+      </c>
+      <c r="C6">
+        <v>-518000000</v>
+      </c>
+      <c r="D6">
+        <v>-319000000</v>
+      </c>
       <c r="E6">
-        <v>-464000000</v>
+        <v>-80000000</v>
+      </c>
+      <c r="F6">
+        <v>-179000000</v>
+      </c>
+      <c r="G6">
+        <v>-340000000</v>
       </c>
       <c r="H6">
-        <v>1399000000</v>
+        <v>-304000000</v>
       </c>
       <c r="I6">
-        <v>-64000000</v>
+        <v>-134000000</v>
       </c>
       <c r="J6">
-        <v>1309000000</v>
+        <v>241000000</v>
       </c>
       <c r="K6">
-        <v>1388000000</v>
+        <v>9000000</v>
       </c>
       <c r="L6">
-        <v>1354000000</v>
+        <v>-207000000</v>
       </c>
       <c r="M6">
-        <v>-45000000</v>
+        <v>115000000</v>
+      </c>
+      <c r="N6">
+        <v>180000000</v>
+      </c>
+      <c r="O6">
+        <v>253000000</v>
+      </c>
+      <c r="P6">
+        <v>-178000000</v>
       </c>
       <c r="Q6">
-        <v>-248000000</v>
+        <v>53000000</v>
+      </c>
+      <c r="R6">
+        <v>-225000000</v>
+      </c>
+      <c r="S6">
+        <v>-128000000</v>
+      </c>
+      <c r="T6">
+        <v>-209000000</v>
       </c>
       <c r="U6">
-        <v>-66000000</v>
+        <v>49000000</v>
+      </c>
+      <c r="V6">
+        <v>-89000000</v>
+      </c>
+      <c r="W6">
+        <v>-198000000</v>
+      </c>
+      <c r="X6">
+        <v>-149000000</v>
       </c>
       <c r="Y6">
-        <v>30000000</v>
+        <v>72000000</v>
+      </c>
+      <c r="Z6">
+        <v>27000000</v>
+      </c>
+      <c r="AA6">
+        <v>-5000000</v>
+      </c>
+      <c r="AB6">
+        <v>-37000000</v>
       </c>
       <c r="AC6">
-        <v>97000000</v>
+        <v>142000000</v>
+      </c>
+      <c r="AD6">
+        <v>130000000</v>
+      </c>
+      <c r="AE6">
+        <v>-138000000</v>
+      </c>
+      <c r="AF6">
+        <v>-131000000</v>
       </c>
       <c r="AG6">
-        <v>-24000000</v>
+        <v>119000000</v>
+      </c>
+      <c r="AH6">
+        <v>10000000</v>
+      </c>
+      <c r="AI6">
+        <v>-111000000</v>
+      </c>
+      <c r="AJ6">
+        <v>-131000000</v>
       </c>
       <c r="AK6">
-        <v>21400000</v>
+        <v>69000000</v>
+      </c>
+      <c r="AL6">
+        <v>12000000</v>
+      </c>
+      <c r="AM6">
+        <v>-139000000</v>
+      </c>
+      <c r="AN6">
+        <v>-28000000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>-226000000</v>
+      </c>
+      <c r="C7">
+        <v>140000000</v>
+      </c>
+      <c r="D7">
+        <v>261000000</v>
+      </c>
       <c r="E7">
-        <v>1312000000</v>
+        <v>178000000</v>
+      </c>
+      <c r="F7">
+        <v>-71000000</v>
+      </c>
+      <c r="G7">
+        <v>256000000</v>
+      </c>
+      <c r="H7">
+        <v>155000000</v>
       </c>
       <c r="I7">
-        <v>66000000</v>
+        <v>300000000</v>
+      </c>
+      <c r="J7">
+        <v>221000000</v>
+      </c>
+      <c r="K7">
+        <v>-281000000</v>
+      </c>
+      <c r="L7">
+        <v>12000000</v>
       </c>
       <c r="M7">
-        <v>72000000</v>
+        <v>105000000</v>
+      </c>
+      <c r="N7">
+        <v>-49000000</v>
+      </c>
+      <c r="O7">
+        <v>-170000000</v>
+      </c>
+      <c r="P7">
+        <v>-3000000</v>
       </c>
       <c r="Q7">
-        <v>592000000</v>
+        <v>260000000</v>
+      </c>
+      <c r="R7">
+        <v>160000000</v>
+      </c>
+      <c r="S7">
+        <v>76000000</v>
+      </c>
+      <c r="T7">
+        <v>-88000000</v>
       </c>
       <c r="U7">
-        <v>639000000</v>
+        <v>49000000</v>
+      </c>
+      <c r="V7">
+        <v>35000000</v>
+      </c>
+      <c r="W7">
+        <v>64000000</v>
+      </c>
+      <c r="X7">
+        <v>-124000000</v>
       </c>
       <c r="Y7">
-        <v>-55000000</v>
+        <v>255000000</v>
+      </c>
+      <c r="Z7">
+        <v>-50000000</v>
+      </c>
+      <c r="AA7">
+        <v>59000000</v>
+      </c>
+      <c r="AB7">
+        <v>-116000000</v>
       </c>
       <c r="AC7">
-        <v>125000000</v>
+        <v>121000000</v>
+      </c>
+      <c r="AD7">
+        <v>-78000000</v>
+      </c>
+      <c r="AE7">
+        <v>-90000000</v>
+      </c>
+      <c r="AF7">
+        <v>56000000</v>
       </c>
       <c r="AG7">
-        <v>355000000</v>
+        <v>20000000</v>
+      </c>
+      <c r="AH7">
+        <v>-2000000</v>
+      </c>
+      <c r="AI7">
+        <v>-27000000</v>
+      </c>
+      <c r="AJ7">
+        <v>84000000</v>
       </c>
       <c r="AK7">
-        <v>50900000</v>
+        <v>42000000</v>
+      </c>
+      <c r="AL7">
+        <v>-225000000</v>
+      </c>
+      <c r="AM7">
+        <v>102000000</v>
+      </c>
+      <c r="AN7">
+        <v>97000000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>-226000000</v>
+      </c>
+      <c r="C8">
+        <v>140000000</v>
+      </c>
+      <c r="D8">
+        <v>261000000</v>
+      </c>
       <c r="E8">
-        <v>-1000000</v>
+        <v>178000000</v>
+      </c>
+      <c r="F8">
+        <v>-71000000</v>
+      </c>
+      <c r="G8">
+        <v>256000000</v>
       </c>
       <c r="H8">
-        <v>3355000000</v>
+        <v>155000000</v>
       </c>
       <c r="I8">
-        <v>84000000</v>
+        <v>300000000</v>
       </c>
       <c r="J8">
-        <v>2832000000</v>
+        <v>221000000</v>
       </c>
       <c r="K8">
-        <v>2699000000</v>
+        <v>-281000000</v>
       </c>
       <c r="L8">
-        <v>2613000000</v>
+        <v>12000000</v>
       </c>
       <c r="M8">
-        <v>-1000000</v>
-      </c>
-      <c r="Q8">
-        <v>-77000000</v>
-      </c>
-      <c r="U8">
-        <v>5000000</v>
-      </c>
-      <c r="Y8">
-        <v>-14000000</v>
-      </c>
-      <c r="AC8">
-        <v>-36000000</v>
-      </c>
-      <c r="AG8">
-        <v>40000000</v>
-      </c>
-      <c r="AK8">
-        <v>-36000000</v>
+        <v>2333000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1115,129 +1379,243 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-149000000</v>
+        <v>-2000000</v>
       </c>
       <c r="C9">
-        <v>21000000</v>
+        <v>-188000000</v>
       </c>
       <c r="D9">
-        <v>-1004000000</v>
+        <v>179000000</v>
       </c>
       <c r="E9">
-        <v>383000000</v>
+        <v>-203000000</v>
       </c>
       <c r="F9">
-        <v>248000000</v>
+        <v>100000000</v>
       </c>
       <c r="G9">
-        <v>207000000</v>
+        <v>-183000000</v>
       </c>
       <c r="H9">
-        <v>-703000000</v>
+        <v>42000000</v>
       </c>
       <c r="I9">
-        <v>698000000</v>
+        <v>-14000000</v>
       </c>
       <c r="J9">
-        <v>213000000</v>
+        <v>-127000000</v>
       </c>
       <c r="K9">
-        <v>96000000</v>
+        <v>205000000</v>
       </c>
       <c r="L9">
-        <v>-1037000000</v>
+        <v>68000000</v>
       </c>
       <c r="M9">
-        <v>580000000</v>
+        <v>258000000</v>
       </c>
       <c r="N9">
+        <v>110000000</v>
+      </c>
+      <c r="O9">
+        <v>-163000000</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12000000</v>
+      </c>
+      <c r="R9">
+        <v>-112000000</v>
+      </c>
+      <c r="S9">
+        <v>22000000</v>
+      </c>
+      <c r="T9">
+        <v>212000000</v>
+      </c>
+      <c r="U9">
+        <v>718000000</v>
+      </c>
+      <c r="V9">
         <v>-8000000</v>
       </c>
-      <c r="O9">
-        <v>72000000</v>
-      </c>
-      <c r="P9">
-        <v>-487000000</v>
-      </c>
-      <c r="Q9">
-        <v>-75000000</v>
-      </c>
-      <c r="R9">
-        <v>241000000</v>
-      </c>
-      <c r="S9">
+      <c r="W9">
+        <v>32000000</v>
+      </c>
+      <c r="X9">
+        <v>225000000</v>
+      </c>
+      <c r="Y9">
+        <v>-54000000</v>
+      </c>
+      <c r="Z9">
+        <v>257000000</v>
+      </c>
+      <c r="AA9">
+        <v>-436000000</v>
+      </c>
+      <c r="AB9">
+        <v>334000000</v>
+      </c>
+      <c r="AC9">
+        <v>-156000000</v>
+      </c>
+      <c r="AD9">
+        <v>-167000000</v>
+      </c>
+      <c r="AE9">
+        <v>-521000000</v>
+      </c>
+      <c r="AF9">
+        <v>100000000</v>
+      </c>
+      <c r="AG9">
+        <v>170000000</v>
+      </c>
+      <c r="AH9">
+        <v>20000000</v>
+      </c>
+      <c r="AI9">
+        <v>-119000000</v>
+      </c>
+      <c r="AJ9">
+        <v>135000000</v>
+      </c>
+      <c r="AK9">
+        <v>181000000</v>
+      </c>
+      <c r="AL9">
+        <v>-141000000</v>
+      </c>
+      <c r="AM9">
         <v>67000000</v>
       </c>
-      <c r="T9">
-        <v>-420000000</v>
-      </c>
-      <c r="U9">
-        <v>33000000</v>
-      </c>
-      <c r="V9">
-        <v>136000000</v>
-      </c>
-      <c r="W9">
-        <v>504000000</v>
-      </c>
-      <c r="X9">
-        <v>-680000000</v>
-      </c>
-      <c r="Y9">
-        <v>740000000</v>
-      </c>
-      <c r="Z9">
-        <v>-720000000</v>
-      </c>
-      <c r="AA9">
-        <v>121000000</v>
-      </c>
-      <c r="AB9">
-        <v>-561000000</v>
-      </c>
-      <c r="AC9">
-        <v>-82000000</v>
-      </c>
-      <c r="AD9">
-        <v>140000000</v>
-      </c>
-      <c r="AE9">
-        <v>159000000</v>
-      </c>
-      <c r="AF9">
-        <v>-314000000</v>
-      </c>
-      <c r="AG9">
-        <v>-76400000</v>
-      </c>
-      <c r="AH9">
-        <v>231500000</v>
-      </c>
-      <c r="AI9">
-        <v>93900000</v>
-      </c>
-      <c r="AJ9">
-        <v>-302000000</v>
-      </c>
-      <c r="AK9">
-        <v>156500000</v>
-      </c>
-      <c r="AL9">
-        <v>216500000</v>
-      </c>
-      <c r="AM9">
-        <v>26600000</v>
-      </c>
       <c r="AN9">
-        <v>-450300000</v>
+        <v>99000000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>342000000</v>
+      </c>
+      <c r="C10">
+        <v>1770000000</v>
+      </c>
+      <c r="D10">
+        <v>-770000000</v>
+      </c>
+      <c r="E10">
+        <v>15000000</v>
+      </c>
+      <c r="F10">
+        <v>292000000</v>
+      </c>
+      <c r="G10">
+        <v>154000000</v>
+      </c>
+      <c r="H10">
+        <v>-234000000</v>
+      </c>
+      <c r="I10">
+        <v>413000000</v>
+      </c>
+      <c r="J10">
+        <v>380000000</v>
+      </c>
+      <c r="K10">
+        <v>76000000</v>
+      </c>
+      <c r="L10">
+        <v>-452000000</v>
+      </c>
+      <c r="M10">
+        <v>155000000</v>
+      </c>
+      <c r="N10">
+        <v>-383000000</v>
+      </c>
+      <c r="O10">
+        <v>154000000</v>
+      </c>
+      <c r="P10">
+        <v>-53000000</v>
+      </c>
+      <c r="Q10">
+        <v>-160000000</v>
+      </c>
+      <c r="R10">
+        <v>367000000</v>
+      </c>
+      <c r="S10">
+        <v>315000000</v>
+      </c>
+      <c r="T10">
+        <v>-402000000</v>
+      </c>
+      <c r="U10">
+        <v>208000000</v>
+      </c>
+      <c r="V10">
+        <v>65000000</v>
+      </c>
+      <c r="W10">
+        <v>341000000</v>
+      </c>
+      <c r="X10">
+        <v>-358000000</v>
+      </c>
+      <c r="Y10">
+        <v>140000000</v>
+      </c>
+      <c r="Z10">
+        <v>104000000</v>
+      </c>
+      <c r="AA10">
+        <v>251000000</v>
+      </c>
+      <c r="AB10">
+        <v>-419000000</v>
+      </c>
+      <c r="AC10">
+        <v>307000000</v>
+      </c>
+      <c r="AD10">
+        <v>-82000000</v>
+      </c>
+      <c r="AE10">
+        <v>263000000</v>
+      </c>
+      <c r="AF10">
+        <v>-313000000</v>
+      </c>
+      <c r="AG10">
+        <v>103000000</v>
+      </c>
+      <c r="AH10">
+        <v>65000000</v>
+      </c>
+      <c r="AI10">
+        <v>277000000</v>
+      </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>-268000000</v>
+      </c>
+      <c r="AK10">
+        <v>-26000000</v>
+      </c>
+      <c r="AL10">
+        <v>68000000</v>
+      </c>
+      <c r="AM10">
+        <v>242000000</v>
+      </c>
+      <c r="AN10">
+        <v>-410000000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1245,121 +1623,121 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>174000000</v>
+        <v>1531000000</v>
       </c>
       <c r="C11">
-        <v>406000000</v>
+        <v>1127000000</v>
       </c>
       <c r="D11">
-        <v>-804000000</v>
+        <v>1011000000</v>
       </c>
       <c r="E11">
-        <v>884000000</v>
+        <v>2005000000</v>
       </c>
       <c r="F11">
-        <v>708000000</v>
+        <v>1874000000</v>
       </c>
       <c r="G11">
-        <v>645000000</v>
+        <v>1887000000</v>
       </c>
       <c r="H11">
-        <v>-477000000</v>
+        <v>1688000000</v>
       </c>
       <c r="I11">
-        <v>1087000000</v>
+        <v>2515000000</v>
       </c>
       <c r="J11">
-        <v>577000000</v>
+        <v>2480000000</v>
       </c>
       <c r="K11">
-        <v>476000000</v>
+        <v>1905000000</v>
       </c>
       <c r="L11">
-        <v>-708000000</v>
+        <v>1213000000</v>
       </c>
       <c r="M11">
-        <v>892000000</v>
+        <v>2338000000</v>
       </c>
       <c r="N11">
-        <v>403000000</v>
+        <v>2022000000</v>
       </c>
       <c r="O11">
-        <v>382000000</v>
+        <v>1662000000</v>
       </c>
       <c r="P11">
-        <v>-129000000</v>
+        <v>1048000000</v>
       </c>
       <c r="Q11">
-        <v>539000000</v>
+        <v>2258000000</v>
       </c>
       <c r="R11">
-        <v>593000000</v>
+        <v>2139000000</v>
       </c>
       <c r="S11">
-        <v>508000000</v>
+        <v>1899000000</v>
       </c>
       <c r="T11">
-        <v>-74000000</v>
+        <v>143000000</v>
       </c>
       <c r="U11">
-        <v>734000000</v>
+        <v>1860000000</v>
       </c>
       <c r="V11">
-        <v>483000000</v>
+        <v>1750000000</v>
       </c>
       <c r="W11">
-        <v>662000000</v>
+        <v>1642000000</v>
       </c>
       <c r="X11">
-        <v>-401000000</v>
+        <v>988000000</v>
       </c>
       <c r="Y11">
-        <v>626000000</v>
+        <v>2209000000</v>
       </c>
       <c r="Z11">
-        <v>-469000000</v>
+        <v>1908000000</v>
       </c>
       <c r="AA11">
-        <v>422000000</v>
+        <v>1285000000</v>
       </c>
       <c r="AB11">
-        <v>-386000000</v>
+        <v>1260000000</v>
       </c>
       <c r="AC11">
-        <v>410000000</v>
+        <v>2338000000</v>
       </c>
       <c r="AD11">
-        <v>386000000</v>
+        <v>1664000000</v>
       </c>
       <c r="AE11">
-        <v>392000000</v>
+        <v>1338000000</v>
       </c>
       <c r="AF11">
-        <v>-181000000</v>
+        <v>1080000000</v>
       </c>
       <c r="AG11">
-        <v>362000000</v>
+        <v>2183000000</v>
       </c>
       <c r="AH11">
-        <v>440000000</v>
+        <v>1711000000</v>
       </c>
       <c r="AI11">
-        <v>346200000</v>
+        <v>1640000000</v>
       </c>
       <c r="AJ11">
-        <v>-136200000</v>
+        <v>1092000000</v>
       </c>
       <c r="AK11">
-        <v>427700000</v>
+        <v>1993000000</v>
       </c>
       <c r="AL11">
-        <v>497900000</v>
+        <v>1151000000</v>
       </c>
       <c r="AM11">
-        <v>238000000</v>
+        <v>1679000000</v>
       </c>
       <c r="AN11">
-        <v>-324600000</v>
+        <v>994000000</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1367,121 +1745,121 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-443000000</v>
+        <v>-426000000</v>
       </c>
       <c r="C12">
-        <v>-457000000</v>
+        <v>-384000000</v>
       </c>
       <c r="D12">
-        <v>-362000000</v>
+        <v>-368000000</v>
       </c>
       <c r="E12">
-        <v>-522000000</v>
+        <v>-549000000</v>
       </c>
       <c r="F12">
-        <v>-447000000</v>
+        <v>-342000000</v>
       </c>
       <c r="G12">
-        <v>-394000000</v>
+        <v>-383000000</v>
       </c>
       <c r="H12">
-        <v>-363000000</v>
+        <v>-278000000</v>
       </c>
       <c r="I12">
+        <v>-323000000</v>
+      </c>
+      <c r="J12">
+        <v>-355000000</v>
+      </c>
+      <c r="K12">
+        <v>-370000000</v>
+      </c>
+      <c r="L12">
+        <v>-325000000</v>
+      </c>
+      <c r="M12">
+        <v>-506000000</v>
+      </c>
+      <c r="N12">
+        <v>-261000000</v>
+      </c>
+      <c r="O12">
+        <v>-419000000</v>
+      </c>
+      <c r="P12">
+        <v>-390000000</v>
+      </c>
+      <c r="Q12">
+        <v>-412000000</v>
+      </c>
+      <c r="R12">
+        <v>-330000000</v>
+      </c>
+      <c r="S12">
+        <v>-352000000</v>
+      </c>
+      <c r="T12">
+        <v>-221000000</v>
+      </c>
+      <c r="U12">
+        <v>-428000000</v>
+      </c>
+      <c r="V12">
+        <v>-320000000</v>
+      </c>
+      <c r="W12">
+        <v>-290000000</v>
+      </c>
+      <c r="X12">
+        <v>-286000000</v>
+      </c>
+      <c r="Y12">
+        <v>-396000000</v>
+      </c>
+      <c r="Z12">
+        <v>-347000000</v>
+      </c>
+      <c r="AA12">
+        <v>-323000000</v>
+      </c>
+      <c r="AB12">
+        <v>-296000000</v>
+      </c>
+      <c r="AC12">
         <v>-430000000</v>
       </c>
-      <c r="J12">
-        <v>-236000000</v>
-      </c>
-      <c r="K12">
-        <v>-234000000</v>
-      </c>
-      <c r="L12">
-        <v>-213000000</v>
-      </c>
-      <c r="M12">
-        <v>-173000000</v>
-      </c>
-      <c r="N12">
-        <v>-150000000</v>
-      </c>
-      <c r="O12">
-        <v>-121000000</v>
-      </c>
-      <c r="P12">
-        <v>-154000000</v>
-      </c>
-      <c r="Q12">
-        <v>-200000000</v>
-      </c>
-      <c r="R12">
-        <v>-172000000</v>
-      </c>
-      <c r="S12">
-        <v>-202000000</v>
-      </c>
-      <c r="T12">
-        <v>-242000000</v>
-      </c>
-      <c r="U12">
-        <v>-152000000</v>
-      </c>
-      <c r="V12">
-        <v>-164000000</v>
-      </c>
-      <c r="W12">
-        <v>-115000000</v>
-      </c>
-      <c r="X12">
-        <v>-125000000</v>
-      </c>
-      <c r="Y12">
-        <v>-208000000</v>
-      </c>
-      <c r="Z12">
-        <v>-125000000</v>
-      </c>
-      <c r="AA12">
-        <v>-135000000</v>
-      </c>
-      <c r="AB12">
-        <v>-138000000</v>
-      </c>
-      <c r="AC12">
-        <v>-171000000</v>
-      </c>
       <c r="AD12">
-        <v>-129000000</v>
+        <v>-351000000</v>
       </c>
       <c r="AE12">
-        <v>-123000000</v>
+        <v>-360000000</v>
       </c>
       <c r="AF12">
-        <v>-105000000</v>
+        <v>-287000000</v>
       </c>
       <c r="AG12">
-        <v>-141000000</v>
+        <v>-471000000</v>
       </c>
       <c r="AH12">
-        <v>-114700000</v>
+        <v>-291000000</v>
       </c>
       <c r="AI12">
-        <v>-73900000</v>
+        <v>-306000000</v>
       </c>
       <c r="AJ12">
-        <v>-61400000</v>
+        <v>-290000000</v>
       </c>
       <c r="AK12">
-        <v>-68700000</v>
+        <v>-501000000</v>
       </c>
       <c r="AL12">
-        <v>-108500000</v>
+        <v>-336000000</v>
       </c>
       <c r="AM12">
-        <v>-112400000</v>
+        <v>-386000000</v>
       </c>
       <c r="AN12">
-        <v>-88700000</v>
+        <v>-314000000</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1489,106 +1867,103 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>450000000</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>298000000</v>
-      </c>
-      <c r="E13">
-        <v>1000000</v>
-      </c>
-      <c r="F13">
-        <v>110000000</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>-69000000</v>
+        <v>3000000</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>487000000</v>
       </c>
       <c r="L13">
-        <v>-17000000</v>
+        <v>61000000</v>
       </c>
       <c r="M13">
-        <v>210000000</v>
+        <v>-4280000000</v>
       </c>
       <c r="N13">
-        <v>-50000000</v>
+        <v>236000000</v>
+      </c>
+      <c r="O13">
+        <v>-6000000</v>
+      </c>
+      <c r="P13">
+        <v>-698000000</v>
       </c>
       <c r="Q13">
+        <v>40000000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>779000000</v>
+      </c>
+      <c r="T13">
+        <v>40000000</v>
+      </c>
+      <c r="U13">
+        <v>-1808000000</v>
+      </c>
+      <c r="V13">
         <v>-12000000</v>
       </c>
-      <c r="R13">
-        <v>596000000</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>-45000000</v>
-      </c>
-      <c r="U13">
-        <v>-33000000</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
-        <v>0</v>
+        <v>809000000</v>
       </c>
       <c r="X13">
-        <v>31000000</v>
+        <v>53000000</v>
       </c>
       <c r="Y13">
+        <v>87000000</v>
+      </c>
+      <c r="Z13">
+        <v>-13000000</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>52000000</v>
+      </c>
+      <c r="AC13">
+        <v>100000000</v>
+      </c>
+      <c r="AD13">
+        <v>-2757000000</v>
+      </c>
+      <c r="AE13">
+        <v>-3000000</v>
+      </c>
+      <c r="AF13">
+        <v>-131000000</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>-94000000</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>8000000</v>
-      </c>
-      <c r="Z13">
-        <v>-3918000000</v>
-      </c>
-      <c r="AA13">
-        <v>3264000000</v>
-      </c>
-      <c r="AB13">
-        <v>-36000000</v>
-      </c>
-      <c r="AC13">
-        <v>1000000</v>
-      </c>
-      <c r="AD13">
-        <v>-16000000</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>-29000000</v>
-      </c>
-      <c r="AG13">
-        <v>6000000</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>-1600000</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>-12600000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -1596,121 +1971,121 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>37000000</v>
+        <v>90000000</v>
       </c>
       <c r="C14">
-        <v>7000000</v>
+        <v>-154000000</v>
       </c>
       <c r="D14">
-        <v>18000000</v>
+        <v>92000000</v>
       </c>
       <c r="E14">
-        <v>-14000000</v>
+        <v>651000000</v>
       </c>
       <c r="F14">
-        <v>-31000000</v>
+        <v>-45000000</v>
       </c>
       <c r="G14">
-        <v>6000000</v>
+        <v>-292000000</v>
       </c>
       <c r="H14">
-        <v>14000000</v>
+        <v>-110000000</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>62000000</v>
       </c>
       <c r="J14">
-        <v>-5000000</v>
+        <v>-172000000</v>
       </c>
       <c r="K14">
-        <v>27000000</v>
+        <v>453000000</v>
       </c>
       <c r="L14">
-        <v>-4000000</v>
+        <v>-111000000</v>
       </c>
       <c r="M14">
-        <v>-10000000</v>
+        <v>-540000000</v>
       </c>
       <c r="N14">
-        <v>15000000</v>
+        <v>88000000</v>
       </c>
       <c r="O14">
-        <v>20000000</v>
+        <v>402000000</v>
       </c>
       <c r="P14">
-        <v>-9000000</v>
+        <v>-142000000</v>
       </c>
       <c r="Q14">
-        <v>21000000</v>
+        <v>-45000000</v>
       </c>
       <c r="R14">
-        <v>11000000</v>
+        <v>42000000</v>
       </c>
       <c r="S14">
-        <v>36000000</v>
+        <v>199000000</v>
       </c>
       <c r="T14">
-        <v>3000000</v>
+        <v>473000000</v>
       </c>
       <c r="U14">
-        <v>10000000</v>
+        <v>-488000000</v>
       </c>
       <c r="V14">
-        <v>1000000</v>
+        <v>-446000000</v>
       </c>
       <c r="W14">
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
       <c r="X14">
-        <v>3000000</v>
+        <v>138000000</v>
       </c>
       <c r="Y14">
-        <v>-1963000000</v>
+        <v>79000000</v>
       </c>
       <c r="Z14">
-        <v>2054000000</v>
+        <v>-181000000</v>
       </c>
       <c r="AA14">
-        <v>-75000000</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>-11000000</v>
+        <v>-61000000</v>
       </c>
       <c r="AC14">
-        <v>-2183000000</v>
+        <v>44000000</v>
       </c>
       <c r="AD14">
-        <v>12000000</v>
+        <v>328000000</v>
       </c>
       <c r="AE14">
-        <v>8000000</v>
+        <v>514000000</v>
       </c>
       <c r="AF14">
-        <v>14000000</v>
+        <v>414000000</v>
       </c>
       <c r="AG14">
-        <v>-17100000</v>
+        <v>371000000</v>
       </c>
       <c r="AH14">
-        <v>-100000</v>
+        <v>250000000</v>
       </c>
       <c r="AI14">
-        <v>4900000</v>
+        <v>135000000</v>
       </c>
       <c r="AJ14">
-        <v>6300000</v>
+        <v>-2000000</v>
       </c>
       <c r="AK14">
-        <v>11200000</v>
+        <v>314000000</v>
       </c>
       <c r="AL14">
-        <v>6700000</v>
+        <v>365000000</v>
       </c>
       <c r="AM14">
-        <v>3500000</v>
+        <v>44000000</v>
       </c>
       <c r="AN14">
-        <v>-8000000</v>
+        <v>-96000000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -1718,121 +2093,121 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>44000000</v>
+        <v>492000000</v>
       </c>
       <c r="C15">
-        <v>-450000000</v>
+        <v>-13000000</v>
       </c>
       <c r="D15">
-        <v>-46000000</v>
+        <v>-9000000</v>
       </c>
       <c r="E15">
-        <v>-535000000</v>
+        <v>13000000</v>
       </c>
       <c r="F15">
-        <v>-368000000</v>
+        <v>-2000000</v>
       </c>
       <c r="G15">
-        <v>-388000000</v>
+        <v>1000000</v>
       </c>
       <c r="H15">
-        <v>-348000000</v>
+        <v>19000000</v>
       </c>
       <c r="I15">
-        <v>-430000000</v>
+        <v>2000000</v>
       </c>
       <c r="J15">
-        <v>-310000000</v>
+        <v>1000000</v>
       </c>
       <c r="K15">
-        <v>-207000000</v>
+        <v>7000000</v>
       </c>
       <c r="L15">
-        <v>-234000000</v>
+        <v>-36000000</v>
       </c>
       <c r="M15">
         <v>27000000</v>
       </c>
       <c r="N15">
-        <v>-185000000</v>
+        <v>27000000</v>
       </c>
       <c r="O15">
-        <v>-101000000</v>
+        <v>13000000</v>
       </c>
       <c r="P15">
-        <v>-163000000</v>
+        <v>5000000</v>
       </c>
       <c r="Q15">
-        <v>-191000000</v>
+        <v>1000000</v>
       </c>
       <c r="R15">
-        <v>435000000</v>
+        <v>19000000</v>
       </c>
       <c r="S15">
-        <v>-166000000</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>-284000000</v>
+        <v>-11000000</v>
       </c>
       <c r="U15">
-        <v>-175000000</v>
+        <v>-8000000</v>
       </c>
       <c r="V15">
-        <v>-163000000</v>
+        <v>-3000000</v>
       </c>
       <c r="W15">
-        <v>-116000000</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-91000000</v>
+        <v>5000000</v>
       </c>
       <c r="Y15">
-        <v>-2163000000</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1989000000</v>
+        <v>-2000000</v>
       </c>
       <c r="AA15">
-        <v>3054000000</v>
+        <v>-27000000</v>
       </c>
       <c r="AB15">
-        <v>-185000000</v>
+        <v>25000000</v>
       </c>
       <c r="AC15">
-        <v>-2353000000</v>
+        <v>80000000</v>
       </c>
       <c r="AD15">
-        <v>-133000000</v>
+        <v>3000000</v>
       </c>
       <c r="AE15">
-        <v>-115000000</v>
+        <v>15000000</v>
       </c>
       <c r="AF15">
-        <v>-120000000</v>
+        <v>4000000</v>
       </c>
       <c r="AG15">
-        <v>-152100000</v>
+        <v>82000000</v>
       </c>
       <c r="AH15">
-        <v>-114800000</v>
+        <v>42000000</v>
       </c>
       <c r="AI15">
-        <v>-69000000</v>
+        <v>-27000000</v>
       </c>
       <c r="AJ15">
-        <v>-55100000</v>
+        <v>5000000</v>
       </c>
       <c r="AK15">
-        <v>-57500000</v>
+        <v>33000000</v>
       </c>
       <c r="AL15">
-        <v>-103400000</v>
+        <v>9000000</v>
       </c>
       <c r="AM15">
-        <v>-108900000</v>
+        <v>-1000000</v>
       </c>
       <c r="AN15">
-        <v>-109300000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -1840,121 +2215,118 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-123000000</v>
+        <v>156000000</v>
       </c>
       <c r="C16">
-        <v>664000000</v>
+        <v>-551000000</v>
       </c>
       <c r="D16">
-        <v>877000000</v>
+        <v>-263000000</v>
       </c>
       <c r="E16">
-        <v>-748000000</v>
+        <v>115000000</v>
       </c>
       <c r="F16">
-        <v>841000000</v>
+        <v>-389000000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>-674000000</v>
       </c>
       <c r="H16">
+        <v>-369000000</v>
+      </c>
+      <c r="I16">
+        <v>-259000000</v>
+      </c>
+      <c r="J16">
+        <v>-523000000</v>
+      </c>
+      <c r="K16">
+        <v>577000000</v>
+      </c>
+      <c r="L16">
+        <v>-375000000</v>
+      </c>
+      <c r="M16">
+        <v>-5299000000</v>
+      </c>
+      <c r="N16">
+        <v>90000000</v>
+      </c>
+      <c r="O16">
+        <v>-10000000</v>
+      </c>
+      <c r="P16">
+        <v>-1225000000</v>
+      </c>
+      <c r="Q16">
+        <v>-416000000</v>
+      </c>
+      <c r="R16">
+        <v>-269000000</v>
+      </c>
+      <c r="S16">
+        <v>626000000</v>
+      </c>
+      <c r="T16">
+        <v>281000000</v>
+      </c>
+      <c r="U16">
+        <v>-2732000000</v>
+      </c>
+      <c r="V16">
+        <v>-781000000</v>
+      </c>
+      <c r="W16">
+        <v>517000000</v>
+      </c>
+      <c r="X16">
+        <v>-90000000</v>
+      </c>
+      <c r="Y16">
+        <v>-230000000</v>
+      </c>
+      <c r="Z16">
+        <v>-543000000</v>
+      </c>
+      <c r="AA16">
+        <v>-350000000</v>
+      </c>
+      <c r="AB16">
+        <v>-280000000</v>
+      </c>
+      <c r="AC16">
+        <v>-206000000</v>
+      </c>
+      <c r="AD16">
+        <v>-2777000000</v>
+      </c>
+      <c r="AE16">
+        <v>166000000</v>
+      </c>
+      <c r="AG16">
+        <v>-18000000</v>
+      </c>
+      <c r="AH16">
         <v>1000000</v>
       </c>
-      <c r="I16">
-        <v>-19000000</v>
-      </c>
-      <c r="J16">
-        <v>-71000000</v>
-      </c>
-      <c r="K16">
-        <v>-370000000</v>
-      </c>
-      <c r="L16">
-        <v>198000000</v>
-      </c>
-      <c r="M16">
-        <v>789000000</v>
-      </c>
-      <c r="N16">
-        <v>-267000000</v>
-      </c>
-      <c r="O16">
-        <v>171000000</v>
-      </c>
-      <c r="P16">
-        <v>419000000</v>
-      </c>
-      <c r="Q16">
-        <v>67000000</v>
-      </c>
-      <c r="R16">
-        <v>-666000000</v>
-      </c>
-      <c r="S16">
-        <v>-44000000</v>
-      </c>
-      <c r="T16">
-        <v>465000000</v>
-      </c>
-      <c r="U16">
-        <v>-612000000</v>
-      </c>
-      <c r="V16">
-        <v>-69000000</v>
-      </c>
-      <c r="W16">
-        <v>-588000000</v>
-      </c>
-      <c r="X16">
-        <v>408000000</v>
-      </c>
-      <c r="Y16">
-        <v>-409000000</v>
-      </c>
-      <c r="Z16">
-        <v>-3275000000</v>
-      </c>
-      <c r="AA16">
-        <v>2749000000</v>
-      </c>
-      <c r="AB16">
-        <v>704000000</v>
-      </c>
-      <c r="AC16">
-        <v>1983000000</v>
-      </c>
-      <c r="AD16">
-        <v>-94000000</v>
-      </c>
-      <c r="AE16">
-        <v>-246000000</v>
-      </c>
-      <c r="AF16">
-        <v>358000000</v>
-      </c>
-      <c r="AG16">
-        <v>-139600000</v>
-      </c>
-      <c r="AH16">
-        <v>-206200000</v>
-      </c>
       <c r="AI16">
-        <v>-233400000</v>
+        <v>-292000000</v>
       </c>
       <c r="AJ16">
-        <v>161200000</v>
+        <v>-287000000</v>
       </c>
       <c r="AK16">
-        <v>36299900</v>
+        <v>-154000000</v>
       </c>
       <c r="AL16">
-        <v>-308100000</v>
+        <v>38000000</v>
       </c>
       <c r="AM16">
-        <v>16800000</v>
+        <v>-335000000</v>
       </c>
       <c r="AN16">
-        <v>545600000</v>
+        <v>-405000000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -1962,121 +2334,121 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-26000000</v>
+        <v>-4000000</v>
       </c>
       <c r="C17">
-        <v>-469000000</v>
+        <v>-250000000</v>
       </c>
       <c r="D17">
-        <v>-97000000</v>
+        <v>-584000000</v>
       </c>
       <c r="E17">
-        <v>-394000000</v>
+        <v>-700000000</v>
       </c>
       <c r="F17">
-        <v>-197000000</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>-123000000</v>
+        <v>-1000000</v>
       </c>
       <c r="H17">
-        <v>-5000000</v>
+        <v>-444000000</v>
       </c>
       <c r="I17">
-        <v>-6000000</v>
+        <v>-1005000000</v>
       </c>
       <c r="J17">
-        <v>13000000</v>
+        <v>-1337000000</v>
       </c>
       <c r="K17">
-        <v>6000000</v>
+        <v>-1740000000</v>
       </c>
       <c r="L17">
-        <v>-88000000</v>
+        <v>2207000000</v>
       </c>
       <c r="M17">
-        <v>-347000000</v>
+        <v>-1530000000</v>
       </c>
       <c r="N17">
-        <v>-210000000</v>
+        <v>3826000000</v>
       </c>
       <c r="O17">
-        <v>-238000000</v>
+        <v>-638000000</v>
       </c>
       <c r="P17">
-        <v>-150000000</v>
+        <v>1591000000</v>
       </c>
       <c r="Q17">
-        <v>-272000000</v>
+        <v>-160000000</v>
       </c>
       <c r="R17">
-        <v>-264000000</v>
+        <v>319000000</v>
       </c>
       <c r="S17">
-        <v>-140000000</v>
+        <v>-807000000</v>
       </c>
       <c r="T17">
-        <v>-35000000</v>
+        <v>1581000000</v>
       </c>
       <c r="U17">
-        <v>9000000</v>
+        <v>2193000000</v>
       </c>
       <c r="V17">
-        <v>-96000000</v>
+        <v>173000000</v>
       </c>
       <c r="W17">
-        <v>15000000</v>
+        <v>-695000000</v>
       </c>
       <c r="X17">
+        <v>-68000000</v>
+      </c>
+      <c r="Y17">
+        <v>-299000000</v>
+      </c>
+      <c r="Z17">
+        <v>567000000</v>
+      </c>
+      <c r="AA17">
+        <v>637000000</v>
+      </c>
+      <c r="AB17">
+        <v>138000000</v>
+      </c>
+      <c r="AC17">
+        <v>-305000000</v>
+      </c>
+      <c r="AD17">
+        <v>1911000000</v>
+      </c>
+      <c r="AE17">
+        <v>1880000000</v>
+      </c>
+      <c r="AF17">
         <v>-4000000</v>
       </c>
-      <c r="Y17">
-        <v>1000000</v>
-      </c>
-      <c r="Z17">
-        <v>15000000</v>
-      </c>
-      <c r="AA17">
-        <v>16000000</v>
-      </c>
-      <c r="AB17">
-        <v>-91000000</v>
-      </c>
-      <c r="AC17">
-        <v>10000000</v>
-      </c>
-      <c r="AD17">
-        <v>-126000000</v>
-      </c>
-      <c r="AE17">
-        <v>10000000</v>
-      </c>
-      <c r="AF17">
-        <v>6000000</v>
-      </c>
       <c r="AG17">
-        <v>-52200000</v>
+        <v>-438000000</v>
       </c>
       <c r="AH17">
-        <v>-69300000</v>
+        <v>427000000</v>
       </c>
       <c r="AI17">
-        <v>-45000000</v>
+        <v>447000000</v>
       </c>
       <c r="AJ17">
-        <v>-193500000</v>
+        <v>574000000</v>
       </c>
       <c r="AK17">
-        <v>-130900000</v>
+        <v>197000000</v>
       </c>
       <c r="AL17">
-        <v>-65600000</v>
+        <v>-221000000</v>
       </c>
       <c r="AM17">
-        <v>-136500000</v>
+        <v>-4000000</v>
       </c>
       <c r="AN17">
-        <v>-65800000</v>
+        <v>-9000000</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -2084,121 +2456,121 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-63000000</v>
+        <v>-72000000</v>
       </c>
       <c r="C18">
-        <v>-63000000</v>
+        <v>63000000</v>
       </c>
       <c r="D18">
-        <v>-65000000</v>
+        <v>-609000000</v>
       </c>
       <c r="E18">
-        <v>-65000000</v>
+        <v>-865000000</v>
       </c>
       <c r="F18">
-        <v>-65000000</v>
+        <v>-441000000</v>
       </c>
       <c r="G18">
-        <v>-49000000</v>
+        <v>-316000000</v>
       </c>
       <c r="H18">
-        <v>-50000000</v>
+        <v>62000000</v>
       </c>
       <c r="I18">
-        <v>-49000000</v>
+        <v>102000000</v>
       </c>
       <c r="J18">
-        <v>-49000000</v>
+        <v>89000000</v>
       </c>
       <c r="K18">
-        <v>-49000000</v>
+        <v>86000000</v>
       </c>
       <c r="L18">
-        <v>-51000000</v>
+        <v>-216000000</v>
       </c>
       <c r="M18">
-        <v>-49000000</v>
+        <v>-54000000</v>
       </c>
       <c r="N18">
-        <v>-50000000</v>
+        <v>-70000000</v>
       </c>
       <c r="O18">
-        <v>-49000000</v>
+        <v>-250000000</v>
       </c>
       <c r="P18">
-        <v>-34000000</v>
+        <v>-486000000</v>
       </c>
       <c r="Q18">
-        <v>-33000000</v>
+        <v>-1185000000</v>
       </c>
       <c r="R18">
-        <v>-34000000</v>
+        <v>-968000000</v>
       </c>
       <c r="S18">
-        <v>-35000000</v>
+        <v>-1514000000</v>
       </c>
       <c r="T18">
-        <v>-35000000</v>
+        <v>-718000000</v>
       </c>
       <c r="U18">
-        <v>-36000000</v>
+        <v>-352000000</v>
       </c>
       <c r="V18">
-        <v>-35000000</v>
+        <v>-294000000</v>
       </c>
       <c r="W18">
-        <v>-35000000</v>
+        <v>-313000000</v>
       </c>
       <c r="X18">
-        <v>-23000000</v>
+        <v>-375000000</v>
       </c>
       <c r="Y18">
-        <v>-23000000</v>
+        <v>-861000000</v>
       </c>
       <c r="Z18">
-        <v>-23000000</v>
+        <v>-645000000</v>
       </c>
       <c r="AA18">
-        <v>-18000000</v>
+        <v>-573000000</v>
       </c>
       <c r="AB18">
-        <v>-19000000</v>
+        <v>-870000000</v>
       </c>
       <c r="AC18">
-        <v>-18000000</v>
+        <v>-1017000000</v>
       </c>
       <c r="AD18">
-        <v>-18000000</v>
+        <v>-1455000000</v>
       </c>
       <c r="AE18">
-        <v>-18000000</v>
+        <v>-1554000000</v>
       </c>
       <c r="AF18">
-        <v>-18000000</v>
+        <v>-577000000</v>
       </c>
       <c r="AG18">
-        <v>-18200000</v>
+        <v>-1050000000</v>
       </c>
       <c r="AH18">
-        <v>-18000000</v>
+        <v>-1085000000</v>
       </c>
       <c r="AI18">
-        <v>-18200000</v>
+        <v>-1108000000</v>
       </c>
       <c r="AJ18">
-        <v>-18600000</v>
+        <v>-1441000000</v>
       </c>
       <c r="AK18">
-        <v>-18400000</v>
+        <v>-1437000000</v>
       </c>
       <c r="AL18">
-        <v>-18800000</v>
+        <v>-1274000000</v>
       </c>
       <c r="AM18">
-        <v>-18700000</v>
+        <v>-825000000</v>
       </c>
       <c r="AN18">
-        <v>-19300000</v>
+        <v>-67000000</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -2206,121 +2578,121 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1000000</v>
+        <v>-850000000</v>
       </c>
       <c r="C19">
-        <v>-13000000</v>
+        <v>-848000000</v>
       </c>
       <c r="D19">
-        <v>-480000000</v>
+        <v>-852000000</v>
       </c>
       <c r="E19">
-        <v>-14000000</v>
+        <v>-848000000</v>
       </c>
       <c r="F19">
-        <v>-30000000</v>
+        <v>-856000000</v>
       </c>
       <c r="G19">
-        <v>-11000000</v>
+        <v>-858000000</v>
       </c>
       <c r="H19">
-        <v>-140000000</v>
+        <v>-858000000</v>
       </c>
       <c r="I19">
-        <v>-7000000</v>
+        <v>-848000000</v>
       </c>
       <c r="J19">
-        <v>-26000000</v>
+        <v>-847000000</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-846000000</v>
       </c>
       <c r="L19">
-        <v>-34000000</v>
+        <v>-847000000</v>
       </c>
       <c r="M19">
-        <v>-21000000</v>
+        <v>-828000000</v>
       </c>
       <c r="N19">
-        <v>2000000</v>
+        <v>-828000000</v>
       </c>
       <c r="O19">
-        <v>-2000000</v>
+        <v>-830000000</v>
       </c>
       <c r="P19">
-        <v>-10000000</v>
+        <v>-830000000</v>
       </c>
       <c r="Q19">
-        <v>-1000000</v>
+        <v>-787000000</v>
       </c>
       <c r="R19">
-        <v>-1000000</v>
+        <v>-794000000</v>
       </c>
       <c r="S19">
-        <v>-1000000</v>
+        <v>-802000000</v>
       </c>
       <c r="T19">
-        <v>-11000000</v>
+        <v>-810000000</v>
       </c>
       <c r="U19">
-        <v>-5000000</v>
+        <v>-699000000</v>
       </c>
       <c r="V19">
-        <v>-1000000</v>
+        <v>-701000000</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-701000000</v>
       </c>
       <c r="X19">
-        <v>-1000000</v>
+        <v>-702000000</v>
       </c>
       <c r="Y19">
-        <v>1000000</v>
+        <v>-664000000</v>
       </c>
       <c r="Z19">
-        <v>6000000</v>
+        <v>-670000000</v>
       </c>
       <c r="AA19">
-        <v>1000000</v>
+        <v>-672000000</v>
       </c>
       <c r="AB19">
-        <v>-22000000</v>
+        <v>-672000000</v>
       </c>
       <c r="AC19">
-        <v>-53000000</v>
+        <v>-628000000</v>
       </c>
       <c r="AD19">
-        <v>2000000</v>
+        <v>-635000000</v>
       </c>
       <c r="AE19">
-        <v>-23000000</v>
+        <v>-646000000</v>
       </c>
       <c r="AF19">
-        <v>-18000000</v>
+        <v>-652000000</v>
       </c>
       <c r="AG19">
-        <v>-2700000</v>
+        <v>-544000000</v>
       </c>
       <c r="AH19">
-        <v>4200000</v>
+        <v>-550000000</v>
       </c>
       <c r="AI19">
-        <v>-2300000</v>
+        <v>-556000000</v>
       </c>
       <c r="AJ19">
-        <v>5800000</v>
+        <v>-566000000</v>
       </c>
       <c r="AK19">
-        <v>-5000000</v>
+        <v>-423000000</v>
       </c>
       <c r="AL19">
-        <v>900000</v>
+        <v>-431000000</v>
       </c>
       <c r="AM19">
-        <v>-25000000</v>
+        <v>-436000000</v>
       </c>
       <c r="AN19">
-        <v>8500000</v>
+        <v>-440000000</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2328,121 +2700,121 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-211000000</v>
+        <v>-7000000</v>
       </c>
       <c r="C20">
-        <v>119000000</v>
+        <v>-13000000</v>
       </c>
       <c r="D20">
-        <v>715000000</v>
+        <v>-9000000</v>
       </c>
       <c r="E20">
-        <v>-1221000000</v>
+        <v>1000000</v>
       </c>
       <c r="F20">
-        <v>549000000</v>
+        <v>-2000000</v>
       </c>
       <c r="G20">
-        <v>-168000000</v>
+        <v>-8000000</v>
       </c>
       <c r="H20">
-        <v>-54000000</v>
+        <v>-11000000</v>
       </c>
       <c r="I20">
-        <v>-81000000</v>
+        <v>-51000000</v>
       </c>
       <c r="J20">
-        <v>-133000000</v>
+        <v>-2000000</v>
       </c>
       <c r="K20">
-        <v>-413000000</v>
+        <v>-9000000</v>
       </c>
       <c r="L20">
-        <v>25000000</v>
+        <v>-36000000</v>
       </c>
       <c r="M20">
-        <v>372000000</v>
+        <v>-39000000</v>
       </c>
       <c r="N20">
-        <v>-525000000</v>
+        <v>-124000000</v>
       </c>
       <c r="O20">
-        <v>-118000000</v>
+        <v>-17000000</v>
       </c>
       <c r="P20">
-        <v>225000000</v>
+        <v>-17000000</v>
       </c>
       <c r="Q20">
-        <v>-239000000</v>
+        <v>-20000000</v>
       </c>
       <c r="R20">
-        <v>-965000000</v>
+        <v>-10000000</v>
       </c>
       <c r="S20">
-        <v>-220000000</v>
+        <v>-19000000</v>
       </c>
       <c r="T20">
-        <v>384000000</v>
+        <v>-7000000</v>
       </c>
       <c r="U20">
-        <v>-644000000</v>
+        <v>-98000000</v>
       </c>
       <c r="V20">
-        <v>-201000000</v>
+        <v>-21000000</v>
       </c>
       <c r="W20">
-        <v>-608000000</v>
+        <v>4000000</v>
       </c>
       <c r="X20">
-        <v>380000000</v>
+        <v>-6000000</v>
       </c>
       <c r="Y20">
-        <v>-430000000</v>
+        <v>-22000000</v>
       </c>
       <c r="Z20">
-        <v>-3277000000</v>
+        <v>-4000000</v>
       </c>
       <c r="AA20">
-        <v>2748000000</v>
+        <v>6000000</v>
       </c>
       <c r="AB20">
-        <v>572000000</v>
+        <v>-22000000</v>
       </c>
       <c r="AC20">
-        <v>1922000000</v>
+        <v>-4000000</v>
       </c>
       <c r="AD20">
-        <v>-236000000</v>
+        <v>-41000000</v>
       </c>
       <c r="AE20">
-        <v>-277000000</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>328000000</v>
+        <v>79000000</v>
       </c>
       <c r="AG20">
-        <v>-212700000</v>
+        <v>-98000000</v>
       </c>
       <c r="AH20">
-        <v>-289300000</v>
+        <v>-681000000</v>
       </c>
       <c r="AI20">
-        <v>-298900000</v>
+        <v>32000000</v>
       </c>
       <c r="AJ20">
-        <v>-45100000</v>
+        <v>34000000</v>
       </c>
       <c r="AK20">
-        <v>-118000000</v>
+        <v>60000000</v>
       </c>
       <c r="AL20">
-        <v>-391600000</v>
+        <v>10000000</v>
       </c>
       <c r="AM20">
-        <v>-163400000</v>
+        <v>24000000</v>
       </c>
       <c r="AN20">
-        <v>469000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -2450,118 +2822,121 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-17000000</v>
+        <v>-933000000</v>
       </c>
       <c r="C21">
-        <v>-15000000</v>
+        <v>-1048000000</v>
       </c>
       <c r="D21">
-        <v>2000000</v>
+        <v>-2054000000</v>
       </c>
       <c r="E21">
-        <v>-7000000</v>
+        <v>-2412000000</v>
       </c>
       <c r="F21">
-        <v>-17000000</v>
+        <v>-1299000000</v>
       </c>
       <c r="G21">
-        <v>26000000</v>
+        <v>-1183000000</v>
       </c>
       <c r="H21">
-        <v>-31000000</v>
+        <v>-1251000000</v>
       </c>
       <c r="I21">
-        <v>22000000</v>
+        <v>-1802000000</v>
       </c>
       <c r="J21">
-        <v>-4000000</v>
+        <v>-2097000000</v>
       </c>
       <c r="K21">
-        <v>-14000000</v>
+        <v>-2509000000</v>
       </c>
       <c r="L21">
-        <v>-78000000</v>
+        <v>1108000000</v>
       </c>
       <c r="M21">
-        <v>18000000</v>
+        <v>-2451000000</v>
       </c>
       <c r="N21">
-        <v>-32000000</v>
+        <v>2804000000</v>
       </c>
       <c r="O21">
-        <v>1000000</v>
+        <v>-1735000000</v>
       </c>
       <c r="P21">
-        <v>11000000</v>
+        <v>258000000</v>
       </c>
       <c r="Q21">
-        <v>8000000</v>
+        <v>-2152000000</v>
       </c>
       <c r="R21">
-        <v>-9000000</v>
+        <v>-1453000000</v>
       </c>
       <c r="S21">
-        <v>-51000000</v>
+        <v>-3142000000</v>
       </c>
       <c r="T21">
-        <v>1000000</v>
+        <v>46000000</v>
       </c>
       <c r="U21">
-        <v>-19000000</v>
+        <v>1044000000</v>
       </c>
       <c r="V21">
-        <v>3000000</v>
+        <v>-843000000</v>
       </c>
       <c r="W21">
-        <v>38000000</v>
+        <v>-1705000000</v>
       </c>
       <c r="X21">
-        <v>-30000000</v>
+        <v>-1151000000</v>
       </c>
       <c r="Y21">
-        <v>-230000000</v>
+        <v>-1846000000</v>
       </c>
       <c r="Z21">
-        <v>-19000000</v>
+        <v>-752000000</v>
       </c>
       <c r="AA21">
-        <v>-30000000</v>
+        <v>-602000000</v>
       </c>
       <c r="AB21">
-        <v>-20000000</v>
+        <v>-1426000000</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>-1954000000</v>
       </c>
       <c r="AD21">
-        <v>1000000</v>
+        <v>-220000000</v>
       </c>
       <c r="AE21">
-        <v>-2000000</v>
+        <v>-320000000</v>
       </c>
       <c r="AF21">
-        <v>11000000</v>
+        <v>-1154000000</v>
+      </c>
+      <c r="AG21">
+        <v>-2130000000</v>
       </c>
       <c r="AH21">
-        <v>-1700000</v>
+        <v>-1889000000</v>
       </c>
       <c r="AI21">
-        <v>1600000</v>
+        <v>-1185000000</v>
       </c>
       <c r="AJ21">
-        <v>-4200000</v>
+        <v>-1399000000</v>
       </c>
       <c r="AK21">
-        <v>-4400000</v>
+        <v>-1603000000</v>
       </c>
       <c r="AL21">
-        <v>-4200000</v>
+        <v>-1916000000</v>
       </c>
       <c r="AM21">
-        <v>-4200000</v>
+        <v>-1241000000</v>
       </c>
       <c r="AN21">
-        <v>-1200000</v>
+        <v>-486000000</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -2569,121 +2944,121 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10000000</v>
+        <v>-72000000</v>
       </c>
       <c r="C22">
-        <v>60000000</v>
+        <v>-53000000</v>
       </c>
       <c r="D22">
-        <v>-133000000</v>
+        <v>-11000000</v>
       </c>
       <c r="E22">
-        <v>-879000000</v>
+        <v>-22000000</v>
       </c>
       <c r="F22">
-        <v>872000000</v>
+        <v>-3000000</v>
       </c>
       <c r="G22">
-        <v>115000000</v>
+        <v>29000000</v>
       </c>
       <c r="H22">
-        <v>-910000000</v>
+        <v>-66000000</v>
       </c>
       <c r="I22">
-        <v>598000000</v>
+        <v>59000000</v>
       </c>
       <c r="J22">
-        <v>130000000</v>
+        <v>42000000</v>
       </c>
       <c r="K22">
-        <v>-158000000</v>
+        <v>-7000000</v>
       </c>
       <c r="L22">
-        <v>-995000000</v>
+        <v>-46000000</v>
       </c>
       <c r="M22">
-        <v>1309000000</v>
+        <v>34000000</v>
       </c>
       <c r="N22">
-        <v>-339000000</v>
+        <v>-34000000</v>
       </c>
       <c r="O22">
-        <v>164000000</v>
+        <v>-6000000</v>
       </c>
       <c r="P22">
-        <v>-56000000</v>
+        <v>4000000</v>
       </c>
       <c r="Q22">
-        <v>117000000</v>
+        <v>-22000000</v>
       </c>
       <c r="R22">
-        <v>54000000</v>
+        <v>-33000000</v>
       </c>
       <c r="S22">
-        <v>71000000</v>
+        <v>-73000000</v>
       </c>
       <c r="T22">
+        <v>-32000000</v>
+      </c>
+      <c r="U22">
+        <v>50000000</v>
+      </c>
+      <c r="V22">
+        <v>51000000</v>
+      </c>
+      <c r="W22">
         <v>27000000</v>
       </c>
-      <c r="U22">
-        <v>-104000000</v>
-      </c>
-      <c r="V22">
-        <v>122000000</v>
-      </c>
-      <c r="W22">
-        <v>-24000000</v>
-      </c>
       <c r="X22">
-        <v>-142000000</v>
+        <v>28000000</v>
       </c>
       <c r="Y22">
-        <v>-2197000000</v>
+        <v>-43000000</v>
       </c>
       <c r="Z22">
-        <v>-5754000000</v>
+        <v>7000000</v>
       </c>
       <c r="AA22">
-        <v>6194000000</v>
+        <v>18000000</v>
       </c>
       <c r="AB22">
+        <v>-15000000</v>
+      </c>
+      <c r="AC22">
+        <v>15000000</v>
+      </c>
+      <c r="AD22">
+        <v>-45000000</v>
+      </c>
+      <c r="AE22">
+        <v>8000000</v>
+      </c>
+      <c r="AF22">
+        <v>-32000000</v>
+      </c>
+      <c r="AG22">
+        <v>-67000000</v>
+      </c>
+      <c r="AH22">
         <v>-19000000</v>
       </c>
-      <c r="AC22">
-        <v>-21000000</v>
-      </c>
-      <c r="AD22">
-        <v>18000000</v>
-      </c>
-      <c r="AE22">
-        <v>-2000000</v>
-      </c>
-      <c r="AF22">
-        <v>38000000</v>
-      </c>
-      <c r="AG22">
-        <v>1500000</v>
-      </c>
-      <c r="AH22">
-        <v>34200000</v>
-      </c>
       <c r="AI22">
-        <v>-20100000</v>
+        <v>8000000</v>
       </c>
       <c r="AJ22">
-        <v>-240600000</v>
+        <v>-33000000</v>
       </c>
       <c r="AK22">
-        <v>247800000</v>
+        <v>5000000</v>
       </c>
       <c r="AL22">
-        <v>-1300000</v>
+        <v>125000000</v>
       </c>
       <c r="AM22">
-        <v>-38500000</v>
+        <v>-89000000</v>
       </c>
       <c r="AN22">
-        <v>33900000</v>
+        <v>-58000000</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -2691,121 +3066,121 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>682000000</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-525000000</v>
       </c>
       <c r="D23">
-        <v>579000000</v>
+        <v>-1317000000</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-314000000</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>183000000</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>59000000</v>
       </c>
       <c r="H23">
-        <v>1381000000</v>
+        <v>2000000</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>513000000</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-98000000</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-34000000</v>
       </c>
       <c r="L23">
-        <v>1806000000</v>
+        <v>1900000000</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-5378000000</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>4882000000</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-89000000</v>
       </c>
       <c r="P23">
-        <v>728000000</v>
+        <v>85000000</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-332000000</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>384000000</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>-690000000</v>
       </c>
       <c r="T23">
-        <v>459000000</v>
+        <v>438000000</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>222000000</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>177000000</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>481000000</v>
       </c>
       <c r="X23">
-        <v>607000000</v>
+        <v>-225000000</v>
       </c>
       <c r="Y23">
-        <v>2159000000</v>
+        <v>90000000</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>620000000</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>351000000</v>
       </c>
       <c r="AB23">
-        <v>224000000</v>
+        <v>-461000000</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>193000000</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>-1378000000</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1192000000</v>
       </c>
       <c r="AF23">
-        <v>191000000</v>
+        <v>-106000000</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>-32000000</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>-196000000</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>171000000</v>
       </c>
       <c r="AJ23">
-        <v>416000000</v>
+        <v>-627000000</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>241000000</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>-602000000</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="AN23">
-        <v>174100000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -2813,121 +3188,121 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-10000000</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>446000000</v>
+        <v>4564000000</v>
       </c>
       <c r="E24">
-        <v>-879000000</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>872000000</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>115000000</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>471000000</v>
+        <v>4634000000</v>
       </c>
       <c r="I24">
-        <v>598000000</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>130000000</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-158000000</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>811000000</v>
+        <v>2353000000</v>
       </c>
       <c r="M24">
-        <v>1309000000</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>-339000000</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>164000000</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>672000000</v>
+        <v>2853000000</v>
       </c>
       <c r="Q24">
-        <v>117000000</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>54000000</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>71000000</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>486000000</v>
+        <v>3053000000</v>
       </c>
       <c r="U24">
-        <v>-104000000</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>122000000</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-24000000</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>465000000</v>
+        <v>2398000000</v>
       </c>
       <c r="Y24">
-        <v>-38000000</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-5754000000</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>6194000000</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>205000000</v>
+        <v>1798000000</v>
       </c>
       <c r="AC24">
-        <v>-21000000</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>-2000000</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>229000000</v>
+        <v>1897000000</v>
       </c>
       <c r="AG24">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>34200000</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>-20100000</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>175400000</v>
+        <v>2581000000</v>
       </c>
       <c r="AK24">
-        <v>247800000</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>-1300000</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>-38500000</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>208000000</v>
+        <v>2883000000</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -2935,240 +3310,243 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-63000000</v>
+        <v>682000000</v>
       </c>
       <c r="C25">
-        <v>-63000000</v>
+        <v>-525000000</v>
       </c>
       <c r="D25">
-        <v>-65000000</v>
+        <v>3247000000</v>
       </c>
       <c r="E25">
-        <v>-65000000</v>
+        <v>-314000000</v>
       </c>
       <c r="F25">
-        <v>-65000000</v>
+        <v>183000000</v>
       </c>
       <c r="G25">
-        <v>-49000000</v>
+        <v>59000000</v>
       </c>
       <c r="H25">
-        <v>-50000000</v>
+        <v>4636000000</v>
       </c>
       <c r="I25">
-        <v>-49000000</v>
+        <v>513000000</v>
       </c>
       <c r="J25">
-        <v>-49000000</v>
+        <v>-98000000</v>
       </c>
       <c r="K25">
-        <v>-49000000</v>
+        <v>-34000000</v>
       </c>
       <c r="L25">
-        <v>-51000000</v>
+        <v>4253000000</v>
       </c>
       <c r="M25">
-        <v>-49000000</v>
+        <v>-5378000000</v>
       </c>
       <c r="N25">
-        <v>-50000000</v>
+        <v>4882000000</v>
       </c>
       <c r="O25">
-        <v>-49000000</v>
+        <v>-89000000</v>
       </c>
       <c r="P25">
-        <v>-34000000</v>
+        <v>2938000000</v>
       </c>
       <c r="Q25">
-        <v>-33000000</v>
+        <v>-332000000</v>
       </c>
       <c r="R25">
-        <v>-34000000</v>
+        <v>384000000</v>
       </c>
       <c r="S25">
-        <v>-35000000</v>
+        <v>-690000000</v>
       </c>
       <c r="T25">
-        <v>-35000000</v>
+        <v>3491000000</v>
       </c>
       <c r="U25">
-        <v>-36000000</v>
+        <v>222000000</v>
       </c>
       <c r="V25">
-        <v>-35000000</v>
+        <v>177000000</v>
       </c>
       <c r="W25">
-        <v>-35000000</v>
+        <v>481000000</v>
       </c>
       <c r="X25">
-        <v>-23000000</v>
+        <v>2173000000</v>
       </c>
       <c r="Y25">
-        <v>-23000000</v>
+        <v>90000000</v>
       </c>
       <c r="Z25">
-        <v>-23000000</v>
+        <v>620000000</v>
       </c>
       <c r="AA25">
-        <v>-18000000</v>
+        <v>351000000</v>
       </c>
       <c r="AB25">
-        <v>-19000000</v>
+        <v>1337000000</v>
       </c>
       <c r="AC25">
-        <v>-18000000</v>
+        <v>193000000</v>
       </c>
       <c r="AD25">
-        <v>-18000000</v>
+        <v>-1378000000</v>
       </c>
       <c r="AE25">
-        <v>-18000000</v>
+        <v>1192000000</v>
       </c>
       <c r="AF25">
-        <v>-18000000</v>
+        <v>1791000000</v>
       </c>
       <c r="AG25">
-        <v>-18200000</v>
+        <v>-32000000</v>
       </c>
       <c r="AH25">
-        <v>-18000000</v>
+        <v>-196000000</v>
       </c>
       <c r="AI25">
-        <v>-18200000</v>
+        <v>171000000</v>
       </c>
       <c r="AJ25">
-        <v>-18600000</v>
+        <v>1954000000</v>
       </c>
       <c r="AK25">
-        <v>-18400000</v>
+        <v>241000000</v>
       </c>
       <c r="AL25">
-        <v>-18800000</v>
+        <v>-602000000</v>
       </c>
       <c r="AM25">
-        <v>-18700000</v>
+        <v>14000000</v>
       </c>
       <c r="AN25">
-        <v>-19300000</v>
+        <v>2928000000</v>
       </c>
     </row>
     <row r="26" spans="1:40">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>44000000</v>
+      </c>
       <c r="C26">
-        <v>0.3953</v>
+        <v>47000000</v>
       </c>
       <c r="D26">
-        <v>0.2812</v>
+        <v>135000000</v>
       </c>
       <c r="E26">
-        <v>0.2286</v>
+        <v>47000000</v>
       </c>
       <c r="F26">
-        <v>0.2412</v>
+        <v>43000000</v>
       </c>
       <c r="G26">
-        <v>0.2701</v>
+        <v>53000000</v>
       </c>
       <c r="H26">
-        <v>0.2608</v>
+        <v>131000000</v>
       </c>
       <c r="I26">
-        <v>0.2116</v>
+        <v>46000000</v>
       </c>
       <c r="J26">
-        <v>0.2556</v>
+        <v>44000000</v>
       </c>
       <c r="K26">
-        <v>0.3107</v>
+        <v>52000000</v>
       </c>
       <c r="L26">
-        <v>0.3421</v>
+        <v>120000000</v>
       </c>
       <c r="M26">
-        <v>0.2811</v>
+        <v>48000000</v>
       </c>
       <c r="N26">
-        <v>0.2696</v>
+        <v>48000000</v>
       </c>
       <c r="O26">
-        <v>0.2798</v>
+        <v>52000000</v>
       </c>
       <c r="P26">
-        <v>0.3338</v>
+        <v>130000000</v>
       </c>
       <c r="Q26">
-        <v>0.379</v>
+        <v>44000000</v>
       </c>
       <c r="R26">
-        <v>0.4037</v>
+        <v>50000000</v>
       </c>
       <c r="S26">
-        <v>0.5459000000000001</v>
+        <v>49000000</v>
       </c>
       <c r="T26">
-        <v>0.5133</v>
+        <v>159000000</v>
       </c>
       <c r="U26">
-        <v>0.4821</v>
+        <v>58000000</v>
       </c>
       <c r="V26">
-        <v>0.4831</v>
+        <v>60000000</v>
       </c>
       <c r="W26">
-        <v>0.4801</v>
+        <v>59000000</v>
       </c>
       <c r="X26">
-        <v>0.5782</v>
+        <v>147000000</v>
       </c>
       <c r="Y26">
-        <v>0.5784</v>
+        <v>54000000</v>
       </c>
       <c r="Z26">
-        <v>0.5209</v>
+        <v>51000000</v>
       </c>
       <c r="AA26">
-        <v>0.483</v>
+        <v>49000000</v>
       </c>
       <c r="AB26">
-        <v>0.5533</v>
+        <v>144000000</v>
       </c>
       <c r="AC26">
-        <v>0.4833</v>
+        <v>43000000</v>
       </c>
       <c r="AD26">
-        <v>0.3416</v>
+        <v>46000000</v>
       </c>
       <c r="AE26">
-        <v>0.3137</v>
+        <v>49000000</v>
       </c>
       <c r="AF26">
-        <v>0.3375</v>
+        <v>138000000</v>
       </c>
       <c r="AG26">
-        <v>0.3153</v>
+        <v>59000000</v>
       </c>
       <c r="AH26">
-        <v>0.3579</v>
+        <v>47000000</v>
       </c>
       <c r="AI26">
-        <v>0.3881</v>
+        <v>52000000</v>
       </c>
       <c r="AJ26">
-        <v>0.4671</v>
+        <v>122000000</v>
       </c>
       <c r="AK26">
-        <v>0.423</v>
+        <v>43000000</v>
       </c>
       <c r="AL26">
-        <v>0.5164</v>
+        <v>47000000</v>
       </c>
       <c r="AM26">
-        <v>0.5947</v>
+        <v>47000000</v>
       </c>
       <c r="AN26">
-        <v>0.5141</v>
+        <v>103000000</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -3176,121 +3554,121 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-149000000</v>
+        <v>-850000000</v>
       </c>
       <c r="C27">
-        <v>21000000</v>
+        <v>-848000000</v>
       </c>
       <c r="D27">
-        <v>-1004000000</v>
+        <v>-852000000</v>
       </c>
       <c r="E27">
-        <v>367000000</v>
+        <v>-848000000</v>
       </c>
       <c r="F27">
-        <v>248000000</v>
+        <v>-856000000</v>
       </c>
       <c r="G27">
-        <v>207000000</v>
+        <v>-858000000</v>
       </c>
       <c r="H27">
-        <v>-703000000</v>
+        <v>-858000000</v>
       </c>
       <c r="I27">
-        <v>649000000</v>
+        <v>-848000000</v>
       </c>
       <c r="J27">
-        <v>213000000</v>
+        <v>-847000000</v>
       </c>
       <c r="K27">
-        <v>96000000</v>
+        <v>-846000000</v>
       </c>
       <c r="L27">
-        <v>-1037000000</v>
+        <v>-847000000</v>
       </c>
       <c r="M27">
-        <v>655000000</v>
+        <v>-828000000</v>
       </c>
       <c r="N27">
-        <v>-8000000</v>
+        <v>-828000000</v>
       </c>
       <c r="O27">
-        <v>72000000</v>
+        <v>-830000000</v>
       </c>
       <c r="P27">
-        <v>-487000000</v>
+        <v>-830000000</v>
       </c>
       <c r="Q27">
-        <v>175000000</v>
+        <v>-787000000</v>
       </c>
       <c r="R27">
-        <v>241000000</v>
+        <v>-794000000</v>
       </c>
       <c r="S27">
-        <v>67000000</v>
+        <v>-802000000</v>
       </c>
       <c r="T27">
-        <v>-420000000</v>
+        <v>-810000000</v>
       </c>
       <c r="U27">
-        <v>422000000</v>
+        <v>-699000000</v>
       </c>
       <c r="V27">
-        <v>136000000</v>
+        <v>-701000000</v>
       </c>
       <c r="W27">
-        <v>504000000</v>
+        <v>-701000000</v>
       </c>
       <c r="X27">
-        <v>-680000000</v>
+        <v>-702000000</v>
       </c>
       <c r="Y27">
-        <v>648000000</v>
+        <v>-664000000</v>
       </c>
       <c r="Z27">
-        <v>-720000000</v>
+        <v>-670000000</v>
       </c>
       <c r="AA27">
-        <v>121000000</v>
+        <v>-672000000</v>
       </c>
       <c r="AB27">
-        <v>-561000000</v>
+        <v>-672000000</v>
       </c>
       <c r="AC27">
-        <v>139000000</v>
+        <v>-628000000</v>
       </c>
       <c r="AD27">
-        <v>140000000</v>
+        <v>-635000000</v>
       </c>
       <c r="AE27">
-        <v>159000000</v>
+        <v>-646000000</v>
       </c>
       <c r="AF27">
-        <v>-314000000</v>
+        <v>-652000000</v>
       </c>
       <c r="AG27">
-        <v>142600000</v>
+        <v>-544000000</v>
       </c>
       <c r="AH27">
-        <v>231500000</v>
+        <v>-550000000</v>
       </c>
       <c r="AI27">
-        <v>93900000</v>
+        <v>-556000000</v>
       </c>
       <c r="AJ27">
-        <v>-302000000</v>
+        <v>-566000000</v>
       </c>
       <c r="AK27">
-        <v>273000000</v>
+        <v>-423000000</v>
       </c>
       <c r="AL27">
-        <v>216500000</v>
+        <v>-431000000</v>
       </c>
       <c r="AM27">
-        <v>26600000</v>
+        <v>-436000000</v>
       </c>
       <c r="AN27">
-        <v>-450300000</v>
+        <v>-440000000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -3298,121 +3676,121 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-26000000</v>
+        <v>0.2057</v>
       </c>
       <c r="C28">
-        <v>-469000000</v>
+        <v>0.1912</v>
       </c>
       <c r="D28">
-        <v>-97000000</v>
+        <v>0.1665</v>
       </c>
       <c r="E28">
-        <v>-394000000</v>
+        <v>0.1318</v>
       </c>
       <c r="F28">
-        <v>-197000000</v>
+        <v>0.1306</v>
       </c>
       <c r="G28">
-        <v>-123000000</v>
+        <v>0.1105</v>
       </c>
       <c r="H28">
-        <v>-5000000</v>
+        <v>0.1167</v>
       </c>
       <c r="I28">
-        <v>-6000000</v>
+        <v>0.1363</v>
       </c>
       <c r="J28">
-        <v>13000000</v>
+        <v>0.1625</v>
       </c>
       <c r="K28">
-        <v>6000000</v>
+        <v>0.1811</v>
       </c>
       <c r="L28">
-        <v>-88000000</v>
+        <v>0.2288</v>
       </c>
       <c r="M28">
-        <v>-347000000</v>
+        <v>0.1755</v>
       </c>
       <c r="N28">
-        <v>-210000000</v>
+        <v>0.1232</v>
       </c>
       <c r="O28">
-        <v>-238000000</v>
+        <v>0.1271</v>
       </c>
       <c r="P28">
-        <v>-150000000</v>
+        <v>0.1053</v>
       </c>
       <c r="Q28">
-        <v>-272000000</v>
+        <v>0.1016</v>
       </c>
       <c r="R28">
-        <v>-264000000</v>
+        <v>0.0911</v>
       </c>
       <c r="S28">
-        <v>-140000000</v>
+        <v>0.098</v>
       </c>
       <c r="T28">
-        <v>-35000000</v>
+        <v>0.0912</v>
       </c>
       <c r="U28">
-        <v>9000000</v>
+        <v>0.0697</v>
       </c>
       <c r="V28">
-        <v>-96000000</v>
+        <v>0.0649</v>
       </c>
       <c r="W28">
-        <v>15000000</v>
+        <v>0.0683</v>
       </c>
       <c r="X28">
-        <v>-4000000</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="Y28">
-        <v>1000000</v>
+        <v>0.0833</v>
       </c>
       <c r="Z28">
-        <v>15000000</v>
+        <v>0.091</v>
       </c>
       <c r="AA28">
-        <v>16000000</v>
+        <v>0.093</v>
       </c>
       <c r="AB28">
-        <v>-91000000</v>
+        <v>0.0951</v>
       </c>
       <c r="AC28">
-        <v>10000000</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="AD28">
-        <v>-126000000</v>
+        <v>0.1079</v>
       </c>
       <c r="AE28">
-        <v>10000000</v>
+        <v>0.0517</v>
       </c>
       <c r="AF28">
-        <v>6000000</v>
+        <v>0.036</v>
       </c>
       <c r="AG28">
-        <v>-52200000</v>
+        <v>0.0326</v>
       </c>
       <c r="AH28">
-        <v>-69300000</v>
+        <v>0.0508</v>
       </c>
       <c r="AI28">
-        <v>-45000000</v>
+        <v>0.0424</v>
       </c>
       <c r="AJ28">
-        <v>-193500000</v>
+        <v>0.0419</v>
       </c>
       <c r="AK28">
-        <v>-130900000</v>
+        <v>0.0279</v>
       </c>
       <c r="AL28">
-        <v>-65600000</v>
+        <v>0.0304</v>
       </c>
       <c r="AM28">
-        <v>-136500000</v>
+        <v>0.0225</v>
       </c>
       <c r="AN28">
-        <v>-65800000</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -3420,121 +3798,487 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-26000000</v>
+        <v>-77000000</v>
       </c>
       <c r="C29">
-        <v>-469000000</v>
+        <v>936000000</v>
       </c>
       <c r="D29">
-        <v>-97000000</v>
+        <v>-838000000</v>
       </c>
       <c r="E29">
-        <v>-394000000</v>
+        <v>112000000</v>
       </c>
       <c r="F29">
-        <v>-197000000</v>
+        <v>155000000</v>
       </c>
       <c r="G29">
-        <v>-123000000</v>
+        <v>-245000000</v>
       </c>
       <c r="H29">
-        <v>-5000000</v>
+        <v>-546000000</v>
       </c>
       <c r="I29">
-        <v>-6000000</v>
+        <v>617000000</v>
       </c>
       <c r="J29">
-        <v>13000000</v>
+        <v>587000000</v>
       </c>
       <c r="K29">
-        <v>6000000</v>
+        <v>393000000</v>
       </c>
       <c r="L29">
-        <v>-88000000</v>
+        <v>-722000000</v>
       </c>
       <c r="M29">
-        <v>-347000000</v>
+        <v>992000000</v>
       </c>
       <c r="N29">
-        <v>-210000000</v>
+        <v>102000000</v>
       </c>
       <c r="O29">
-        <v>-238000000</v>
+        <v>-106000000</v>
       </c>
       <c r="P29">
-        <v>-150000000</v>
+        <v>-312000000</v>
       </c>
       <c r="Q29">
-        <v>-272000000</v>
+        <v>456000000</v>
       </c>
       <c r="R29">
-        <v>-264000000</v>
+        <v>200000000</v>
       </c>
       <c r="S29">
-        <v>-140000000</v>
+        <v>-61000000</v>
       </c>
       <c r="T29">
-        <v>-35000000</v>
+        <v>-747000000</v>
       </c>
       <c r="U29">
-        <v>9000000</v>
+        <v>1374000000</v>
       </c>
       <c r="V29">
+        <v>-180000000</v>
+      </c>
+      <c r="W29">
+        <v>64000000</v>
+      </c>
+      <c r="X29">
+        <v>-643000000</v>
+      </c>
+      <c r="Y29">
+        <v>569000000</v>
+      </c>
+      <c r="Z29">
+        <v>288000000</v>
+      </c>
+      <c r="AA29">
+        <v>-305000000</v>
+      </c>
+      <c r="AB29">
+        <v>-483000000</v>
+      </c>
+      <c r="AC29">
+        <v>834000000</v>
+      </c>
+      <c r="AD29">
+        <v>-229000000</v>
+      </c>
+      <c r="AE29">
+        <v>-636000000</v>
+      </c>
+      <c r="AF29">
+        <v>-584000000</v>
+      </c>
+      <c r="AG29">
+        <v>731000000</v>
+      </c>
+      <c r="AH29">
+        <v>-10000000</v>
+      </c>
+      <c r="AI29">
+        <v>-117000000</v>
+      </c>
+      <c r="AJ29">
+        <v>-527000000</v>
+      </c>
+      <c r="AK29">
+        <v>572000000</v>
+      </c>
+      <c r="AL29">
+        <v>-301000000</v>
+      </c>
+      <c r="AM29">
+        <v>91000000</v>
+      </c>
+      <c r="AN29">
+        <v>-689000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>90000000</v>
+      </c>
+      <c r="C30">
+        <v>-154000000</v>
+      </c>
+      <c r="D30">
+        <v>92000000</v>
+      </c>
+      <c r="E30">
+        <v>651000000</v>
+      </c>
+      <c r="F30">
+        <v>-45000000</v>
+      </c>
+      <c r="G30">
+        <v>-292000000</v>
+      </c>
+      <c r="H30">
+        <v>-110000000</v>
+      </c>
+      <c r="I30">
+        <v>62000000</v>
+      </c>
+      <c r="J30">
+        <v>-172000000</v>
+      </c>
+      <c r="K30">
+        <v>453000000</v>
+      </c>
+      <c r="L30">
+        <v>-111000000</v>
+      </c>
+      <c r="M30">
+        <v>-540000000</v>
+      </c>
+      <c r="N30">
+        <v>88000000</v>
+      </c>
+      <c r="O30">
+        <v>402000000</v>
+      </c>
+      <c r="P30">
+        <v>-142000000</v>
+      </c>
+      <c r="Q30">
+        <v>-45000000</v>
+      </c>
+      <c r="R30">
+        <v>42000000</v>
+      </c>
+      <c r="S30">
+        <v>199000000</v>
+      </c>
+      <c r="T30">
+        <v>473000000</v>
+      </c>
+      <c r="U30">
+        <v>-488000000</v>
+      </c>
+      <c r="V30">
+        <v>-446000000</v>
+      </c>
+      <c r="W30">
+        <v>-2000000</v>
+      </c>
+      <c r="X30">
+        <v>138000000</v>
+      </c>
+      <c r="Y30">
+        <v>79000000</v>
+      </c>
+      <c r="Z30">
+        <v>-181000000</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>-61000000</v>
+      </c>
+      <c r="AC30">
+        <v>44000000</v>
+      </c>
+      <c r="AD30">
+        <v>328000000</v>
+      </c>
+      <c r="AE30">
+        <v>514000000</v>
+      </c>
+      <c r="AF30">
+        <v>414000000</v>
+      </c>
+      <c r="AG30">
+        <v>371000000</v>
+      </c>
+      <c r="AH30">
+        <v>250000000</v>
+      </c>
+      <c r="AI30">
+        <v>135000000</v>
+      </c>
+      <c r="AJ30">
+        <v>-2000000</v>
+      </c>
+      <c r="AK30">
+        <v>314000000</v>
+      </c>
+      <c r="AL30">
+        <v>365000000</v>
+      </c>
+      <c r="AM30">
+        <v>44000000</v>
+      </c>
+      <c r="AN30">
         <v>-96000000</v>
       </c>
-      <c r="W29">
-        <v>15000000</v>
-      </c>
-      <c r="X29">
-        <v>-4000000</v>
-      </c>
-      <c r="Y29">
-        <v>1000000</v>
-      </c>
-      <c r="Z29">
-        <v>15000000</v>
-      </c>
-      <c r="AA29">
-        <v>16000000</v>
-      </c>
-      <c r="AB29">
-        <v>-91000000</v>
-      </c>
-      <c r="AC29">
-        <v>10000000</v>
-      </c>
-      <c r="AD29">
-        <v>-126000000</v>
-      </c>
-      <c r="AE29">
-        <v>10000000</v>
-      </c>
-      <c r="AF29">
-        <v>6000000</v>
-      </c>
-      <c r="AG29">
-        <v>-52200000</v>
-      </c>
-      <c r="AH29">
-        <v>-69300000</v>
-      </c>
-      <c r="AI29">
-        <v>-45000000</v>
-      </c>
-      <c r="AJ29">
-        <v>-193500000</v>
-      </c>
-      <c r="AK29">
-        <v>-130900000</v>
-      </c>
-      <c r="AL29">
-        <v>-65600000</v>
-      </c>
-      <c r="AM29">
-        <v>-136500000</v>
-      </c>
-      <c r="AN29">
-        <v>-65800000</v>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>-72000000</v>
+      </c>
+      <c r="C31">
+        <v>63000000</v>
+      </c>
+      <c r="D31">
+        <v>-609000000</v>
+      </c>
+      <c r="E31">
+        <v>-865000000</v>
+      </c>
+      <c r="F31">
+        <v>-441000000</v>
+      </c>
+      <c r="G31">
+        <v>-316000000</v>
+      </c>
+      <c r="H31">
+        <v>62000000</v>
+      </c>
+      <c r="I31">
+        <v>102000000</v>
+      </c>
+      <c r="J31">
+        <v>89000000</v>
+      </c>
+      <c r="K31">
+        <v>86000000</v>
+      </c>
+      <c r="L31">
+        <v>-216000000</v>
+      </c>
+      <c r="M31">
+        <v>-54000000</v>
+      </c>
+      <c r="N31">
+        <v>-70000000</v>
+      </c>
+      <c r="O31">
+        <v>-250000000</v>
+      </c>
+      <c r="P31">
+        <v>-486000000</v>
+      </c>
+      <c r="Q31">
+        <v>-1185000000</v>
+      </c>
+      <c r="R31">
+        <v>-968000000</v>
+      </c>
+      <c r="S31">
+        <v>-1514000000</v>
+      </c>
+      <c r="T31">
+        <v>-718000000</v>
+      </c>
+      <c r="U31">
+        <v>-352000000</v>
+      </c>
+      <c r="V31">
+        <v>-294000000</v>
+      </c>
+      <c r="W31">
+        <v>-313000000</v>
+      </c>
+      <c r="X31">
+        <v>-375000000</v>
+      </c>
+      <c r="Y31">
+        <v>-861000000</v>
+      </c>
+      <c r="Z31">
+        <v>-645000000</v>
+      </c>
+      <c r="AA31">
+        <v>-573000000</v>
+      </c>
+      <c r="AB31">
+        <v>-870000000</v>
+      </c>
+      <c r="AC31">
+        <v>-1017000000</v>
+      </c>
+      <c r="AD31">
+        <v>-1455000000</v>
+      </c>
+      <c r="AE31">
+        <v>-1554000000</v>
+      </c>
+      <c r="AF31">
+        <v>-577000000</v>
+      </c>
+      <c r="AG31">
+        <v>-1050000000</v>
+      </c>
+      <c r="AH31">
+        <v>-1085000000</v>
+      </c>
+      <c r="AI31">
+        <v>-1108000000</v>
+      </c>
+      <c r="AJ31">
+        <v>-1441000000</v>
+      </c>
+      <c r="AK31">
+        <v>-1437000000</v>
+      </c>
+      <c r="AL31">
+        <v>-1274000000</v>
+      </c>
+      <c r="AM31">
+        <v>-825000000</v>
+      </c>
+      <c r="AN31">
+        <v>-67000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>-72000000</v>
+      </c>
+      <c r="C32">
+        <v>63000000</v>
+      </c>
+      <c r="D32">
+        <v>-609000000</v>
+      </c>
+      <c r="E32">
+        <v>-865000000</v>
+      </c>
+      <c r="F32">
+        <v>-441000000</v>
+      </c>
+      <c r="G32">
+        <v>-316000000</v>
+      </c>
+      <c r="H32">
+        <v>62000000</v>
+      </c>
+      <c r="I32">
+        <v>102000000</v>
+      </c>
+      <c r="J32">
+        <v>89000000</v>
+      </c>
+      <c r="K32">
+        <v>86000000</v>
+      </c>
+      <c r="L32">
+        <v>-216000000</v>
+      </c>
+      <c r="M32">
+        <v>-54000000</v>
+      </c>
+      <c r="N32">
+        <v>-70000000</v>
+      </c>
+      <c r="O32">
+        <v>-250000000</v>
+      </c>
+      <c r="P32">
+        <v>-486000000</v>
+      </c>
+      <c r="Q32">
+        <v>-1185000000</v>
+      </c>
+      <c r="R32">
+        <v>-968000000</v>
+      </c>
+      <c r="S32">
+        <v>-1514000000</v>
+      </c>
+      <c r="T32">
+        <v>-718000000</v>
+      </c>
+      <c r="U32">
+        <v>-352000000</v>
+      </c>
+      <c r="V32">
+        <v>-294000000</v>
+      </c>
+      <c r="W32">
+        <v>-313000000</v>
+      </c>
+      <c r="X32">
+        <v>-375000000</v>
+      </c>
+      <c r="Y32">
+        <v>-861000000</v>
+      </c>
+      <c r="Z32">
+        <v>-645000000</v>
+      </c>
+      <c r="AA32">
+        <v>-573000000</v>
+      </c>
+      <c r="AB32">
+        <v>-870000000</v>
+      </c>
+      <c r="AC32">
+        <v>-1017000000</v>
+      </c>
+      <c r="AD32">
+        <v>-1455000000</v>
+      </c>
+      <c r="AE32">
+        <v>-1554000000</v>
+      </c>
+      <c r="AF32">
+        <v>-577000000</v>
+      </c>
+      <c r="AG32">
+        <v>-1050000000</v>
+      </c>
+      <c r="AH32">
+        <v>-1085000000</v>
+      </c>
+      <c r="AI32">
+        <v>-1108000000</v>
+      </c>
+      <c r="AJ32">
+        <v>-1441000000</v>
+      </c>
+      <c r="AK32">
+        <v>-1437000000</v>
+      </c>
+      <c r="AL32">
+        <v>-1274000000</v>
+      </c>
+      <c r="AM32">
+        <v>-825000000</v>
+      </c>
+      <c r="AN32">
+        <v>-67000000</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_statements/socf/BALL.xlsx
+++ b/data/financial_statements/socf/BALL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -40,12 +157,12 @@
     <t>Change in payables and accrued liability</t>
   </si>
   <si>
-    <t>Income tax paid</t>
-  </si>
-  <si>
     <t>Change in other assets and liabilities</t>
   </si>
   <si>
+    <t>Other operating activities</t>
+  </si>
+  <si>
     <t>Operating Cash Flow</t>
   </si>
   <si>
@@ -55,9 +172,6 @@
     <t>Net Aquisitions</t>
   </si>
   <si>
-    <t>Long-Term Investments Change (Net)</t>
-  </si>
-  <si>
     <t>Other investing activities</t>
   </si>
   <si>
@@ -91,9 +205,6 @@
     <t>Ending Cash</t>
   </si>
   <si>
-    <t>Stock Based Compensation</t>
-  </si>
-  <si>
     <t>Dividends Paid (Common)</t>
   </si>
   <si>
@@ -101,9 +212,6 @@
   </si>
   <si>
     <t>Assets Liabilities Change (Total)</t>
-  </si>
-  <si>
-    <t>Investments Change (Net)</t>
   </si>
   <si>
     <t>Issuance/Purchase of Shares</t>
@@ -116,9 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,3804 +583,3069 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>3863000000</v>
+        <v>394000000</v>
       </c>
       <c r="C2">
-        <v>82000000</v>
+        <v>-165000000</v>
       </c>
       <c r="D2">
-        <v>1303000000</v>
+        <v>447000000</v>
       </c>
       <c r="E2">
-        <v>1340000000</v>
+        <v>297000000</v>
       </c>
       <c r="F2">
-        <v>1437000000</v>
+        <v>179000000</v>
       </c>
       <c r="G2">
-        <v>1525000000</v>
+        <v>202000000</v>
       </c>
       <c r="H2">
-        <v>1627000000</v>
+        <v>200000000</v>
       </c>
       <c r="I2">
-        <v>1406000000</v>
+        <v>227000000</v>
       </c>
       <c r="J2">
-        <v>1434000000</v>
+        <v>240000000</v>
       </c>
       <c r="K2">
-        <v>1303000000</v>
+        <v>92000000</v>
       </c>
       <c r="L2">
-        <v>1310000000</v>
+        <v>23000000</v>
       </c>
       <c r="M2">
-        <v>917000000</v>
+        <v>130000000</v>
       </c>
       <c r="N2">
-        <v>1588000000</v>
+        <v>92000000</v>
       </c>
       <c r="O2">
-        <v>1131000000</v>
+        <v>197000000</v>
       </c>
       <c r="P2">
-        <v>893000000</v>
+        <v>117000000</v>
       </c>
       <c r="Q2">
-        <v>1349000000</v>
+        <v>149000000</v>
       </c>
       <c r="R2">
-        <v>1546000000</v>
+        <v>59000000</v>
       </c>
       <c r="S2">
-        <v>1862000000</v>
+        <v>120000000</v>
       </c>
       <c r="T2">
-        <v>606000000</v>
+        <v>125000000</v>
       </c>
       <c r="U2">
-        <v>525000000</v>
+        <v>159000000</v>
       </c>
       <c r="V2">
-        <v>1433000000</v>
+        <v>51000000</v>
       </c>
       <c r="W2">
-        <v>1585000000</v>
+        <v>100000000</v>
       </c>
       <c r="X2">
-        <v>1326000000</v>
+        <v>70000000</v>
       </c>
       <c r="Y2">
-        <v>1156000000</v>
+        <v>53000000</v>
       </c>
       <c r="Z2">
-        <v>1331000000</v>
+        <v>33000000</v>
       </c>
       <c r="AA2">
-        <v>1293000000</v>
+        <v>307000000</v>
       </c>
       <c r="AB2">
-        <v>1278000000</v>
+        <v>-127000000</v>
       </c>
       <c r="AC2">
-        <v>1039000000</v>
+        <v>65000000</v>
       </c>
       <c r="AD2">
-        <v>1298000000</v>
+        <v>50000000</v>
       </c>
       <c r="AE2">
-        <v>1303000000</v>
+        <v>160000000</v>
       </c>
       <c r="AF2">
-        <v>1201000000</v>
+        <v>28000000</v>
       </c>
       <c r="AG2">
-        <v>1179000000</v>
+        <v>88400000</v>
       </c>
       <c r="AH2">
-        <v>1311000000</v>
+        <v>148400000</v>
       </c>
       <c r="AI2">
-        <v>1283000000</v>
+        <v>156300000</v>
       </c>
       <c r="AJ2">
-        <v>1225000000</v>
+        <v>104900000</v>
       </c>
       <c r="AK2">
-        <v>1116000000</v>
+        <v>134600000</v>
       </c>
       <c r="AL2">
-        <v>1245000000</v>
+        <v>121900000</v>
       </c>
       <c r="AM2">
-        <v>1213000000</v>
+        <v>99100000</v>
       </c>
       <c r="AN2">
-        <v>1147000000</v>
+        <v>79400000</v>
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>450000000</v>
+        <v>157000000</v>
       </c>
       <c r="C3">
-        <v>462000000</v>
+        <v>168000000</v>
       </c>
       <c r="D3">
-        <v>459000000</v>
+        <v>185000000</v>
       </c>
       <c r="E3">
-        <v>507000000</v>
+        <v>185000000</v>
       </c>
       <c r="F3">
-        <v>476000000</v>
+        <v>175000000</v>
       </c>
       <c r="G3">
-        <v>472000000</v>
+        <v>172000000</v>
       </c>
       <c r="H3">
-        <v>460000000</v>
+        <v>168000000</v>
       </c>
       <c r="I3">
-        <v>498000000</v>
+        <v>169000000</v>
       </c>
       <c r="J3">
-        <v>481000000</v>
+        <v>160000000</v>
       </c>
       <c r="K3">
-        <v>492000000</v>
+        <v>170000000</v>
       </c>
       <c r="L3">
-        <v>440000000</v>
+        <v>169000000</v>
       </c>
       <c r="M3">
-        <v>463000000</v>
+        <v>168000000</v>
       </c>
       <c r="N3">
-        <v>379000000</v>
+        <v>169000000</v>
       </c>
       <c r="O3">
-        <v>376000000</v>
+        <v>171000000</v>
       </c>
       <c r="P3">
-        <v>375000000</v>
+        <v>170000000</v>
       </c>
       <c r="Q3">
-        <v>371000000</v>
+        <v>173000000</v>
       </c>
       <c r="R3">
-        <v>355000000</v>
+        <v>171000000</v>
       </c>
       <c r="S3">
-        <v>380000000</v>
+        <v>178000000</v>
       </c>
       <c r="T3">
-        <v>382000000</v>
+        <v>180000000</v>
       </c>
       <c r="U3">
-        <v>349000000</v>
+        <v>190000000</v>
       </c>
       <c r="V3">
-        <v>377000000</v>
+        <v>162000000</v>
       </c>
       <c r="W3">
-        <v>380000000</v>
+        <v>229000000</v>
       </c>
       <c r="X3">
-        <v>438000000</v>
+        <v>148000000</v>
       </c>
       <c r="Y3">
-        <v>384000000</v>
+        <v>154000000</v>
       </c>
       <c r="Z3">
-        <v>368000000</v>
+        <v>146000000</v>
       </c>
       <c r="AA3">
-        <v>366000000</v>
+        <v>78000000</v>
       </c>
       <c r="AB3">
-        <v>356000000</v>
+        <v>75000000</v>
       </c>
       <c r="AC3">
-        <v>397000000</v>
+        <v>74000000</v>
       </c>
       <c r="AD3">
-        <v>355000000</v>
+        <v>73000000</v>
       </c>
       <c r="AE3">
-        <v>344000000</v>
+        <v>71000000</v>
       </c>
       <c r="AF3">
-        <v>339000000</v>
+        <v>68000000</v>
       </c>
       <c r="AG3">
-        <v>350000000</v>
+        <v>71300000</v>
       </c>
       <c r="AH3">
-        <v>350000000</v>
+        <v>71300000</v>
       </c>
       <c r="AI3">
-        <v>358000000</v>
+        <v>69600000</v>
       </c>
       <c r="AJ3">
-        <v>350000000</v>
+        <v>68800000</v>
       </c>
       <c r="AK3">
-        <v>357000000</v>
+        <v>76300000</v>
       </c>
       <c r="AL3">
-        <v>343000000</v>
+        <v>76600000</v>
       </c>
       <c r="AM3">
-        <v>335000000</v>
+        <v>74500000</v>
       </c>
       <c r="AN3">
-        <v>336000000</v>
+        <v>72500000</v>
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>-2705000000</v>
+        <v>-228000000</v>
       </c>
       <c r="C4">
-        <v>-353000000</v>
+        <v>382000000</v>
       </c>
       <c r="D4">
-        <v>87000000</v>
+        <v>-432000000</v>
       </c>
       <c r="E4">
-        <v>46000000</v>
+        <v>35000000</v>
       </c>
       <c r="F4">
-        <v>-194000000</v>
+        <v>106000000</v>
       </c>
       <c r="G4">
-        <v>135000000</v>
+        <v>64000000</v>
       </c>
       <c r="H4">
-        <v>147000000</v>
+        <v>-142000000</v>
       </c>
       <c r="I4">
-        <v>-6000000</v>
+        <v>42000000</v>
       </c>
       <c r="J4">
-        <v>-22000000</v>
+        <v>-36000000</v>
       </c>
       <c r="K4">
-        <v>-283000000</v>
+        <v>118000000</v>
       </c>
       <c r="L4">
-        <v>185000000</v>
+        <v>137000000</v>
       </c>
       <c r="M4">
-        <v>-34000000</v>
+        <v>-61000000</v>
       </c>
       <c r="N4">
-        <v>-47000000</v>
+        <v>150000000</v>
       </c>
       <c r="O4">
-        <v>261000000</v>
+        <v>-58000000</v>
       </c>
       <c r="P4">
-        <v>92000000</v>
+        <v>71000000</v>
       </c>
       <c r="Q4">
-        <v>82000000</v>
+        <v>42000000</v>
       </c>
       <c r="R4">
-        <v>38000000</v>
+        <v>122000000</v>
       </c>
       <c r="S4">
-        <v>-282000000</v>
+        <v>143000000</v>
       </c>
       <c r="T4">
-        <v>-98000000</v>
+        <v>41000000</v>
       </c>
       <c r="U4">
-        <v>-388000000</v>
+        <v>-37000000</v>
       </c>
       <c r="V4">
-        <v>120000000</v>
+        <v>134000000</v>
       </c>
       <c r="W4">
-        <v>-387000000</v>
+        <v>-171000000</v>
       </c>
       <c r="X4">
-        <v>-133000000</v>
+        <v>61000000</v>
       </c>
       <c r="Y4">
-        <v>100000000</v>
+        <v>-229000000</v>
       </c>
       <c r="Z4">
-        <v>-79000000</v>
+        <v>72000000</v>
       </c>
       <c r="AA4">
-        <v>-69000000</v>
+        <v>-84000000</v>
       </c>
       <c r="AB4">
-        <v>109000000</v>
+        <v>227000000</v>
       </c>
       <c r="AC4">
-        <v>68000000</v>
+        <v>132000000</v>
       </c>
       <c r="AD4">
-        <v>240000000</v>
+        <v>123000000</v>
       </c>
       <c r="AE4">
-        <v>327000000</v>
+        <v>2000000</v>
       </c>
       <c r="AF4">
-        <v>124000000</v>
+        <v>37000000</v>
       </c>
       <c r="AG4">
-        <v>-77000000</v>
+        <v>59700000</v>
       </c>
       <c r="AH4">
-        <v>60000000</v>
+        <v>-11200000</v>
       </c>
       <c r="AI4">
-        <v>116000000</v>
+        <v>26400000</v>
       </c>
       <c r="AJ4">
-        <v>44000000</v>
+        <v>-7900000</v>
       </c>
       <c r="AK4">
-        <v>-52000000</v>
+        <v>-56200000</v>
       </c>
       <c r="AL4">
-        <v>-136000000</v>
+        <v>82900000</v>
       </c>
       <c r="AM4">
-        <v>40000000</v>
+        <v>37800000</v>
       </c>
       <c r="AN4">
-        <v>200000000</v>
+        <v>-26200000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-10000000</v>
-      </c>
-      <c r="C5">
-        <v>-268000000</v>
-      </c>
-      <c r="D5">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>-863000000</v>
+      </c>
+      <c r="I5">
+        <v>-135000000</v>
+      </c>
+      <c r="M5">
+        <v>49000000</v>
+      </c>
+      <c r="Q5">
+        <v>-17000000</v>
+      </c>
+      <c r="U5">
         <v>-189000000</v>
       </c>
-      <c r="E5">
-        <v>202000000</v>
-      </c>
-      <c r="F5">
-        <v>13000000</v>
-      </c>
-      <c r="G5">
-        <v>-132000000</v>
-      </c>
-      <c r="H5">
-        <v>-205000000</v>
-      </c>
-      <c r="I5">
-        <v>52000000</v>
-      </c>
-      <c r="J5">
-        <v>-128000000</v>
-      </c>
-      <c r="K5">
-        <v>384000000</v>
-      </c>
-      <c r="L5">
-        <v>-143000000</v>
-      </c>
-      <c r="M5">
-        <v>359000000</v>
-      </c>
-      <c r="N5">
-        <v>244000000</v>
-      </c>
-      <c r="O5">
-        <v>-180000000</v>
-      </c>
-      <c r="P5">
-        <v>-78000000</v>
-      </c>
-      <c r="Q5">
-        <v>291000000</v>
-      </c>
-      <c r="R5">
-        <v>10000000</v>
-      </c>
-      <c r="S5">
-        <v>-346000000</v>
-      </c>
-      <c r="T5">
-        <v>-260000000</v>
-      </c>
-      <c r="U5">
-        <v>350000000</v>
-      </c>
-      <c r="V5">
-        <v>-183000000</v>
-      </c>
-      <c r="W5">
-        <v>-175000000</v>
-      </c>
-      <c r="X5">
-        <v>-237000000</v>
-      </c>
       <c r="Y5">
-        <v>156000000</v>
-      </c>
-      <c r="Z5">
-        <v>-50000000</v>
-      </c>
-      <c r="AA5">
-        <v>-174000000</v>
-      </c>
-      <c r="AB5">
-        <v>-245000000</v>
+        <v>-53000000</v>
       </c>
       <c r="AC5">
-        <v>420000000</v>
-      </c>
-      <c r="AD5">
-        <v>-32000000</v>
-      </c>
-      <c r="AE5">
-        <v>-150000000</v>
-      </c>
-      <c r="AF5">
-        <v>-296000000</v>
+        <v>35000000</v>
       </c>
       <c r="AG5">
-        <v>319000000</v>
-      </c>
-      <c r="AH5">
-        <v>-103000000</v>
-      </c>
-      <c r="AI5">
-        <v>-137000000</v>
-      </c>
-      <c r="AJ5">
-        <v>-347000000</v>
+        <v>-152000000</v>
       </c>
       <c r="AK5">
-        <v>306000000</v>
-      </c>
-      <c r="AL5">
-        <v>-15000000</v>
-      </c>
-      <c r="AM5">
-        <v>-181000000</v>
-      </c>
-      <c r="AN5">
-        <v>-447000000</v>
+        <v>80200000</v>
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-181000000</v>
-      </c>
-      <c r="C6">
-        <v>-518000000</v>
-      </c>
-      <c r="D6">
-        <v>-319000000</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>-80000000</v>
-      </c>
-      <c r="F6">
-        <v>-179000000</v>
-      </c>
-      <c r="G6">
-        <v>-340000000</v>
+        <v>-464000000</v>
       </c>
       <c r="H6">
-        <v>-304000000</v>
+        <v>1399000000</v>
       </c>
       <c r="I6">
-        <v>-134000000</v>
+        <v>-64000000</v>
       </c>
       <c r="J6">
-        <v>241000000</v>
+        <v>1309000000</v>
       </c>
       <c r="K6">
-        <v>9000000</v>
+        <v>1388000000</v>
       </c>
       <c r="L6">
-        <v>-207000000</v>
+        <v>1354000000</v>
       </c>
       <c r="M6">
-        <v>115000000</v>
-      </c>
-      <c r="N6">
-        <v>180000000</v>
-      </c>
-      <c r="O6">
-        <v>253000000</v>
-      </c>
-      <c r="P6">
-        <v>-178000000</v>
+        <v>-45000000</v>
       </c>
       <c r="Q6">
-        <v>53000000</v>
-      </c>
-      <c r="R6">
-        <v>-225000000</v>
-      </c>
-      <c r="S6">
-        <v>-128000000</v>
-      </c>
-      <c r="T6">
-        <v>-209000000</v>
+        <v>-248000000</v>
       </c>
       <c r="U6">
-        <v>49000000</v>
-      </c>
-      <c r="V6">
-        <v>-89000000</v>
-      </c>
-      <c r="W6">
-        <v>-198000000</v>
-      </c>
-      <c r="X6">
-        <v>-149000000</v>
+        <v>-66000000</v>
       </c>
       <c r="Y6">
-        <v>72000000</v>
-      </c>
-      <c r="Z6">
-        <v>27000000</v>
-      </c>
-      <c r="AA6">
-        <v>-5000000</v>
-      </c>
-      <c r="AB6">
-        <v>-37000000</v>
+        <v>30000000</v>
       </c>
       <c r="AC6">
-        <v>142000000</v>
-      </c>
-      <c r="AD6">
-        <v>130000000</v>
-      </c>
-      <c r="AE6">
-        <v>-138000000</v>
-      </c>
-      <c r="AF6">
-        <v>-131000000</v>
+        <v>97000000</v>
       </c>
       <c r="AG6">
-        <v>119000000</v>
-      </c>
-      <c r="AH6">
-        <v>10000000</v>
-      </c>
-      <c r="AI6">
-        <v>-111000000</v>
-      </c>
-      <c r="AJ6">
-        <v>-131000000</v>
+        <v>-24000000</v>
       </c>
       <c r="AK6">
-        <v>69000000</v>
-      </c>
-      <c r="AL6">
-        <v>12000000</v>
-      </c>
-      <c r="AM6">
-        <v>-139000000</v>
-      </c>
-      <c r="AN6">
-        <v>-28000000</v>
+        <v>21400000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-226000000</v>
-      </c>
-      <c r="C7">
-        <v>140000000</v>
-      </c>
-      <c r="D7">
-        <v>261000000</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>178000000</v>
-      </c>
-      <c r="F7">
-        <v>-71000000</v>
-      </c>
-      <c r="G7">
-        <v>256000000</v>
-      </c>
-      <c r="H7">
-        <v>155000000</v>
+        <v>1312000000</v>
       </c>
       <c r="I7">
-        <v>300000000</v>
-      </c>
-      <c r="J7">
-        <v>221000000</v>
-      </c>
-      <c r="K7">
-        <v>-281000000</v>
-      </c>
-      <c r="L7">
-        <v>12000000</v>
+        <v>66000000</v>
       </c>
       <c r="M7">
-        <v>105000000</v>
-      </c>
-      <c r="N7">
-        <v>-49000000</v>
-      </c>
-      <c r="O7">
-        <v>-170000000</v>
-      </c>
-      <c r="P7">
-        <v>-3000000</v>
+        <v>72000000</v>
       </c>
       <c r="Q7">
-        <v>260000000</v>
-      </c>
-      <c r="R7">
-        <v>160000000</v>
-      </c>
-      <c r="S7">
-        <v>76000000</v>
-      </c>
-      <c r="T7">
-        <v>-88000000</v>
+        <v>592000000</v>
       </c>
       <c r="U7">
-        <v>49000000</v>
-      </c>
-      <c r="V7">
-        <v>35000000</v>
-      </c>
-      <c r="W7">
-        <v>64000000</v>
-      </c>
-      <c r="X7">
-        <v>-124000000</v>
+        <v>639000000</v>
       </c>
       <c r="Y7">
-        <v>255000000</v>
-      </c>
-      <c r="Z7">
-        <v>-50000000</v>
-      </c>
-      <c r="AA7">
-        <v>59000000</v>
-      </c>
-      <c r="AB7">
-        <v>-116000000</v>
+        <v>-55000000</v>
       </c>
       <c r="AC7">
-        <v>121000000</v>
-      </c>
-      <c r="AD7">
-        <v>-78000000</v>
-      </c>
-      <c r="AE7">
-        <v>-90000000</v>
-      </c>
-      <c r="AF7">
-        <v>56000000</v>
+        <v>125000000</v>
       </c>
       <c r="AG7">
-        <v>20000000</v>
-      </c>
-      <c r="AH7">
-        <v>-2000000</v>
-      </c>
-      <c r="AI7">
-        <v>-27000000</v>
-      </c>
-      <c r="AJ7">
-        <v>84000000</v>
+        <v>355000000</v>
       </c>
       <c r="AK7">
-        <v>42000000</v>
-      </c>
-      <c r="AL7">
-        <v>-225000000</v>
-      </c>
-      <c r="AM7">
-        <v>102000000</v>
-      </c>
-      <c r="AN7">
-        <v>97000000</v>
+        <v>50900000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-226000000</v>
-      </c>
-      <c r="C8">
-        <v>140000000</v>
-      </c>
-      <c r="D8">
-        <v>261000000</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>178000000</v>
-      </c>
-      <c r="F8">
-        <v>-71000000</v>
-      </c>
-      <c r="G8">
-        <v>256000000</v>
+        <v>-1000000</v>
       </c>
       <c r="H8">
-        <v>155000000</v>
+        <v>3355000000</v>
       </c>
       <c r="I8">
-        <v>300000000</v>
+        <v>84000000</v>
       </c>
       <c r="J8">
-        <v>221000000</v>
+        <v>2832000000</v>
       </c>
       <c r="K8">
-        <v>-281000000</v>
+        <v>2699000000</v>
       </c>
       <c r="L8">
-        <v>12000000</v>
+        <v>2613000000</v>
       </c>
       <c r="M8">
-        <v>2333000000</v>
+        <v>-1000000</v>
+      </c>
+      <c r="Q8">
+        <v>-77000000</v>
+      </c>
+      <c r="U8">
+        <v>5000000</v>
+      </c>
+      <c r="Y8">
+        <v>-14000000</v>
+      </c>
+      <c r="AC8">
+        <v>-36000000</v>
+      </c>
+      <c r="AG8">
+        <v>40000000</v>
+      </c>
+      <c r="AK8">
+        <v>-36000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>-2000000</v>
+        <v>-149000000</v>
       </c>
       <c r="C9">
-        <v>-188000000</v>
+        <v>21000000</v>
       </c>
       <c r="D9">
-        <v>179000000</v>
+        <v>-1004000000</v>
       </c>
       <c r="E9">
-        <v>-203000000</v>
+        <v>383000000</v>
       </c>
       <c r="F9">
-        <v>100000000</v>
+        <v>248000000</v>
       </c>
       <c r="G9">
-        <v>-183000000</v>
+        <v>207000000</v>
       </c>
       <c r="H9">
-        <v>42000000</v>
+        <v>-703000000</v>
       </c>
       <c r="I9">
-        <v>-14000000</v>
+        <v>698000000</v>
       </c>
       <c r="J9">
-        <v>-127000000</v>
+        <v>213000000</v>
       </c>
       <c r="K9">
-        <v>205000000</v>
+        <v>96000000</v>
       </c>
       <c r="L9">
-        <v>68000000</v>
+        <v>-1037000000</v>
       </c>
       <c r="M9">
-        <v>258000000</v>
+        <v>580000000</v>
       </c>
       <c r="N9">
-        <v>110000000</v>
+        <v>-8000000</v>
       </c>
       <c r="O9">
-        <v>-163000000</v>
+        <v>72000000</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-487000000</v>
       </c>
       <c r="Q9">
-        <v>12000000</v>
+        <v>-75000000</v>
       </c>
       <c r="R9">
-        <v>-112000000</v>
+        <v>241000000</v>
       </c>
       <c r="S9">
-        <v>22000000</v>
+        <v>67000000</v>
       </c>
       <c r="T9">
-        <v>212000000</v>
+        <v>-420000000</v>
       </c>
       <c r="U9">
-        <v>718000000</v>
+        <v>33000000</v>
       </c>
       <c r="V9">
-        <v>-8000000</v>
+        <v>136000000</v>
       </c>
       <c r="W9">
-        <v>32000000</v>
+        <v>504000000</v>
       </c>
       <c r="X9">
-        <v>225000000</v>
+        <v>-680000000</v>
       </c>
       <c r="Y9">
-        <v>-54000000</v>
+        <v>740000000</v>
       </c>
       <c r="Z9">
-        <v>257000000</v>
+        <v>-720000000</v>
       </c>
       <c r="AA9">
-        <v>-436000000</v>
+        <v>121000000</v>
       </c>
       <c r="AB9">
-        <v>334000000</v>
+        <v>-561000000</v>
       </c>
       <c r="AC9">
-        <v>-156000000</v>
+        <v>-82000000</v>
       </c>
       <c r="AD9">
-        <v>-167000000</v>
+        <v>140000000</v>
       </c>
       <c r="AE9">
-        <v>-521000000</v>
+        <v>159000000</v>
       </c>
       <c r="AF9">
-        <v>100000000</v>
+        <v>-314000000</v>
       </c>
       <c r="AG9">
-        <v>170000000</v>
+        <v>-76400000</v>
       </c>
       <c r="AH9">
-        <v>20000000</v>
+        <v>231500000</v>
       </c>
       <c r="AI9">
-        <v>-119000000</v>
+        <v>93900000</v>
       </c>
       <c r="AJ9">
-        <v>135000000</v>
+        <v>-302000000</v>
       </c>
       <c r="AK9">
-        <v>181000000</v>
+        <v>156500000</v>
       </c>
       <c r="AL9">
-        <v>-141000000</v>
+        <v>216500000</v>
       </c>
       <c r="AM9">
-        <v>67000000</v>
+        <v>26600000</v>
       </c>
       <c r="AN9">
-        <v>99000000</v>
+        <v>-450300000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>342000000</v>
-      </c>
-      <c r="C10">
-        <v>1770000000</v>
-      </c>
-      <c r="D10">
-        <v>-770000000</v>
-      </c>
-      <c r="E10">
-        <v>15000000</v>
-      </c>
-      <c r="F10">
-        <v>292000000</v>
-      </c>
-      <c r="G10">
-        <v>154000000</v>
-      </c>
-      <c r="H10">
-        <v>-234000000</v>
-      </c>
-      <c r="I10">
-        <v>413000000</v>
-      </c>
-      <c r="J10">
-        <v>380000000</v>
-      </c>
-      <c r="K10">
-        <v>76000000</v>
-      </c>
-      <c r="L10">
-        <v>-452000000</v>
-      </c>
-      <c r="M10">
-        <v>155000000</v>
-      </c>
-      <c r="N10">
-        <v>-383000000</v>
-      </c>
-      <c r="O10">
-        <v>154000000</v>
-      </c>
-      <c r="P10">
-        <v>-53000000</v>
-      </c>
-      <c r="Q10">
-        <v>-160000000</v>
-      </c>
-      <c r="R10">
-        <v>367000000</v>
-      </c>
-      <c r="S10">
-        <v>315000000</v>
-      </c>
-      <c r="T10">
-        <v>-402000000</v>
-      </c>
-      <c r="U10">
-        <v>208000000</v>
-      </c>
-      <c r="V10">
-        <v>65000000</v>
-      </c>
-      <c r="W10">
-        <v>341000000</v>
-      </c>
-      <c r="X10">
-        <v>-358000000</v>
-      </c>
-      <c r="Y10">
-        <v>140000000</v>
-      </c>
-      <c r="Z10">
-        <v>104000000</v>
-      </c>
-      <c r="AA10">
-        <v>251000000</v>
-      </c>
-      <c r="AB10">
-        <v>-419000000</v>
-      </c>
-      <c r="AC10">
-        <v>307000000</v>
-      </c>
-      <c r="AD10">
-        <v>-82000000</v>
-      </c>
-      <c r="AE10">
-        <v>263000000</v>
-      </c>
-      <c r="AF10">
-        <v>-313000000</v>
-      </c>
-      <c r="AG10">
-        <v>103000000</v>
-      </c>
-      <c r="AH10">
-        <v>65000000</v>
-      </c>
-      <c r="AI10">
-        <v>277000000</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AJ10">
-        <v>-268000000</v>
-      </c>
-      <c r="AK10">
-        <v>-26000000</v>
-      </c>
-      <c r="AL10">
-        <v>68000000</v>
-      </c>
-      <c r="AM10">
-        <v>242000000</v>
-      </c>
-      <c r="AN10">
-        <v>-410000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>1531000000</v>
+        <v>174000000</v>
       </c>
       <c r="C11">
-        <v>1127000000</v>
+        <v>406000000</v>
       </c>
       <c r="D11">
-        <v>1011000000</v>
+        <v>-804000000</v>
       </c>
       <c r="E11">
-        <v>2005000000</v>
+        <v>884000000</v>
       </c>
       <c r="F11">
-        <v>1874000000</v>
+        <v>708000000</v>
       </c>
       <c r="G11">
-        <v>1887000000</v>
+        <v>645000000</v>
       </c>
       <c r="H11">
-        <v>1688000000</v>
+        <v>-477000000</v>
       </c>
       <c r="I11">
-        <v>2515000000</v>
+        <v>1087000000</v>
       </c>
       <c r="J11">
-        <v>2480000000</v>
+        <v>577000000</v>
       </c>
       <c r="K11">
-        <v>1905000000</v>
+        <v>476000000</v>
       </c>
       <c r="L11">
-        <v>1213000000</v>
+        <v>-708000000</v>
       </c>
       <c r="M11">
-        <v>2338000000</v>
+        <v>892000000</v>
       </c>
       <c r="N11">
-        <v>2022000000</v>
+        <v>403000000</v>
       </c>
       <c r="O11">
-        <v>1662000000</v>
+        <v>382000000</v>
       </c>
       <c r="P11">
-        <v>1048000000</v>
+        <v>-129000000</v>
       </c>
       <c r="Q11">
-        <v>2258000000</v>
+        <v>539000000</v>
       </c>
       <c r="R11">
-        <v>2139000000</v>
+        <v>593000000</v>
       </c>
       <c r="S11">
-        <v>1899000000</v>
+        <v>508000000</v>
       </c>
       <c r="T11">
-        <v>143000000</v>
+        <v>-74000000</v>
       </c>
       <c r="U11">
-        <v>1860000000</v>
+        <v>734000000</v>
       </c>
       <c r="V11">
-        <v>1750000000</v>
+        <v>483000000</v>
       </c>
       <c r="W11">
-        <v>1642000000</v>
+        <v>662000000</v>
       </c>
       <c r="X11">
-        <v>988000000</v>
+        <v>-401000000</v>
       </c>
       <c r="Y11">
-        <v>2209000000</v>
+        <v>626000000</v>
       </c>
       <c r="Z11">
-        <v>1908000000</v>
+        <v>-469000000</v>
       </c>
       <c r="AA11">
-        <v>1285000000</v>
+        <v>422000000</v>
       </c>
       <c r="AB11">
-        <v>1260000000</v>
+        <v>-386000000</v>
       </c>
       <c r="AC11">
-        <v>2338000000</v>
+        <v>410000000</v>
       </c>
       <c r="AD11">
-        <v>1664000000</v>
+        <v>386000000</v>
       </c>
       <c r="AE11">
-        <v>1338000000</v>
+        <v>392000000</v>
       </c>
       <c r="AF11">
-        <v>1080000000</v>
+        <v>-181000000</v>
       </c>
       <c r="AG11">
-        <v>2183000000</v>
+        <v>362000000</v>
       </c>
       <c r="AH11">
-        <v>1711000000</v>
+        <v>440000000</v>
       </c>
       <c r="AI11">
-        <v>1640000000</v>
+        <v>346200000</v>
       </c>
       <c r="AJ11">
-        <v>1092000000</v>
+        <v>-136200000</v>
       </c>
       <c r="AK11">
-        <v>1993000000</v>
+        <v>427700000</v>
       </c>
       <c r="AL11">
-        <v>1151000000</v>
+        <v>497900000</v>
       </c>
       <c r="AM11">
-        <v>1679000000</v>
+        <v>238000000</v>
       </c>
       <c r="AN11">
-        <v>994000000</v>
+        <v>-324600000</v>
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>-426000000</v>
+        <v>-443000000</v>
       </c>
       <c r="C12">
-        <v>-384000000</v>
+        <v>-457000000</v>
       </c>
       <c r="D12">
-        <v>-368000000</v>
+        <v>-362000000</v>
       </c>
       <c r="E12">
-        <v>-549000000</v>
+        <v>-522000000</v>
       </c>
       <c r="F12">
-        <v>-342000000</v>
+        <v>-447000000</v>
       </c>
       <c r="G12">
-        <v>-383000000</v>
+        <v>-394000000</v>
       </c>
       <c r="H12">
-        <v>-278000000</v>
+        <v>-363000000</v>
       </c>
       <c r="I12">
-        <v>-323000000</v>
+        <v>-430000000</v>
       </c>
       <c r="J12">
-        <v>-355000000</v>
+        <v>-236000000</v>
       </c>
       <c r="K12">
-        <v>-370000000</v>
+        <v>-234000000</v>
       </c>
       <c r="L12">
-        <v>-325000000</v>
+        <v>-213000000</v>
       </c>
       <c r="M12">
-        <v>-506000000</v>
+        <v>-173000000</v>
       </c>
       <c r="N12">
-        <v>-261000000</v>
+        <v>-150000000</v>
       </c>
       <c r="O12">
-        <v>-419000000</v>
+        <v>-121000000</v>
       </c>
       <c r="P12">
-        <v>-390000000</v>
+        <v>-154000000</v>
       </c>
       <c r="Q12">
-        <v>-412000000</v>
+        <v>-200000000</v>
       </c>
       <c r="R12">
-        <v>-330000000</v>
+        <v>-172000000</v>
       </c>
       <c r="S12">
-        <v>-352000000</v>
+        <v>-202000000</v>
       </c>
       <c r="T12">
-        <v>-221000000</v>
+        <v>-242000000</v>
       </c>
       <c r="U12">
-        <v>-428000000</v>
+        <v>-152000000</v>
       </c>
       <c r="V12">
-        <v>-320000000</v>
+        <v>-164000000</v>
       </c>
       <c r="W12">
-        <v>-290000000</v>
+        <v>-115000000</v>
       </c>
       <c r="X12">
-        <v>-286000000</v>
+        <v>-125000000</v>
       </c>
       <c r="Y12">
-        <v>-396000000</v>
+        <v>-208000000</v>
       </c>
       <c r="Z12">
-        <v>-347000000</v>
+        <v>-125000000</v>
       </c>
       <c r="AA12">
-        <v>-323000000</v>
+        <v>-135000000</v>
       </c>
       <c r="AB12">
-        <v>-296000000</v>
+        <v>-138000000</v>
       </c>
       <c r="AC12">
-        <v>-430000000</v>
+        <v>-171000000</v>
       </c>
       <c r="AD12">
-        <v>-351000000</v>
+        <v>-129000000</v>
       </c>
       <c r="AE12">
-        <v>-360000000</v>
+        <v>-123000000</v>
       </c>
       <c r="AF12">
-        <v>-287000000</v>
+        <v>-105000000</v>
       </c>
       <c r="AG12">
-        <v>-471000000</v>
+        <v>-141000000</v>
       </c>
       <c r="AH12">
-        <v>-291000000</v>
+        <v>-114700000</v>
       </c>
       <c r="AI12">
-        <v>-306000000</v>
+        <v>-73900000</v>
       </c>
       <c r="AJ12">
-        <v>-290000000</v>
+        <v>-61400000</v>
       </c>
       <c r="AK12">
-        <v>-501000000</v>
+        <v>-68700000</v>
       </c>
       <c r="AL12">
-        <v>-336000000</v>
+        <v>-108500000</v>
       </c>
       <c r="AM12">
-        <v>-386000000</v>
+        <v>-112400000</v>
       </c>
       <c r="AN12">
-        <v>-314000000</v>
+        <v>-88700000</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>450000000</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13000000</v>
+        <v>298000000</v>
+      </c>
+      <c r="E13">
+        <v>1000000</v>
+      </c>
+      <c r="F13">
+        <v>110000000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1000000</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3000000</v>
+        <v>-69000000</v>
       </c>
       <c r="K13">
-        <v>487000000</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>61000000</v>
+        <v>-17000000</v>
       </c>
       <c r="M13">
-        <v>-4280000000</v>
+        <v>210000000</v>
       </c>
       <c r="N13">
-        <v>236000000</v>
-      </c>
-      <c r="O13">
-        <v>-6000000</v>
-      </c>
-      <c r="P13">
-        <v>-698000000</v>
+        <v>-50000000</v>
       </c>
       <c r="Q13">
-        <v>40000000</v>
+        <v>-12000000</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>596000000</v>
       </c>
       <c r="S13">
-        <v>779000000</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>40000000</v>
+        <v>-45000000</v>
       </c>
       <c r="U13">
-        <v>-1808000000</v>
+        <v>-33000000</v>
       </c>
       <c r="V13">
-        <v>-12000000</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>809000000</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>53000000</v>
+        <v>31000000</v>
       </c>
       <c r="Y13">
-        <v>87000000</v>
+        <v>8000000</v>
       </c>
       <c r="Z13">
-        <v>-13000000</v>
+        <v>-3918000000</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3264000000</v>
       </c>
       <c r="AB13">
-        <v>52000000</v>
+        <v>-36000000</v>
       </c>
       <c r="AC13">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
       <c r="AD13">
-        <v>-2757000000</v>
+        <v>-16000000</v>
       </c>
       <c r="AE13">
-        <v>-3000000</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>-131000000</v>
+        <v>-29000000</v>
       </c>
       <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>-94000000</v>
+        <v>6000000</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>-1600000</v>
       </c>
       <c r="AM13">
-        <v>8000000</v>
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>-12600000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>90000000</v>
+        <v>37000000</v>
       </c>
       <c r="C14">
-        <v>-154000000</v>
+        <v>7000000</v>
       </c>
       <c r="D14">
-        <v>92000000</v>
+        <v>18000000</v>
       </c>
       <c r="E14">
-        <v>651000000</v>
+        <v>-14000000</v>
       </c>
       <c r="F14">
-        <v>-45000000</v>
+        <v>-31000000</v>
       </c>
       <c r="G14">
-        <v>-292000000</v>
+        <v>6000000</v>
       </c>
       <c r="H14">
-        <v>-110000000</v>
+        <v>14000000</v>
       </c>
       <c r="I14">
-        <v>62000000</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-172000000</v>
+        <v>-5000000</v>
       </c>
       <c r="K14">
-        <v>453000000</v>
+        <v>27000000</v>
       </c>
       <c r="L14">
-        <v>-111000000</v>
+        <v>-4000000</v>
       </c>
       <c r="M14">
-        <v>-540000000</v>
+        <v>-10000000</v>
       </c>
       <c r="N14">
-        <v>88000000</v>
+        <v>15000000</v>
       </c>
       <c r="O14">
-        <v>402000000</v>
+        <v>20000000</v>
       </c>
       <c r="P14">
-        <v>-142000000</v>
+        <v>-9000000</v>
       </c>
       <c r="Q14">
-        <v>-45000000</v>
+        <v>21000000</v>
       </c>
       <c r="R14">
-        <v>42000000</v>
+        <v>11000000</v>
       </c>
       <c r="S14">
-        <v>199000000</v>
+        <v>36000000</v>
       </c>
       <c r="T14">
-        <v>473000000</v>
+        <v>3000000</v>
       </c>
       <c r="U14">
-        <v>-488000000</v>
+        <v>10000000</v>
       </c>
       <c r="V14">
-        <v>-446000000</v>
+        <v>1000000</v>
       </c>
       <c r="W14">
-        <v>-2000000</v>
+        <v>-1000000</v>
       </c>
       <c r="X14">
-        <v>138000000</v>
+        <v>3000000</v>
       </c>
       <c r="Y14">
-        <v>79000000</v>
+        <v>-1963000000</v>
       </c>
       <c r="Z14">
-        <v>-181000000</v>
+        <v>2054000000</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>-75000000</v>
       </c>
       <c r="AB14">
-        <v>-61000000</v>
+        <v>-11000000</v>
       </c>
       <c r="AC14">
-        <v>44000000</v>
+        <v>-2183000000</v>
       </c>
       <c r="AD14">
-        <v>328000000</v>
+        <v>12000000</v>
       </c>
       <c r="AE14">
-        <v>514000000</v>
+        <v>8000000</v>
       </c>
       <c r="AF14">
-        <v>414000000</v>
+        <v>14000000</v>
       </c>
       <c r="AG14">
-        <v>371000000</v>
+        <v>-17100000</v>
       </c>
       <c r="AH14">
-        <v>250000000</v>
+        <v>-100000</v>
       </c>
       <c r="AI14">
-        <v>135000000</v>
+        <v>4900000</v>
       </c>
       <c r="AJ14">
-        <v>-2000000</v>
+        <v>6300000</v>
       </c>
       <c r="AK14">
-        <v>314000000</v>
+        <v>11200000</v>
       </c>
       <c r="AL14">
-        <v>365000000</v>
+        <v>6700000</v>
       </c>
       <c r="AM14">
-        <v>44000000</v>
+        <v>3500000</v>
       </c>
       <c r="AN14">
-        <v>-96000000</v>
+        <v>-8000000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>492000000</v>
+        <v>44000000</v>
       </c>
       <c r="C15">
-        <v>-13000000</v>
+        <v>-450000000</v>
       </c>
       <c r="D15">
-        <v>-9000000</v>
+        <v>-46000000</v>
       </c>
       <c r="E15">
-        <v>13000000</v>
+        <v>-535000000</v>
       </c>
       <c r="F15">
-        <v>-2000000</v>
+        <v>-368000000</v>
       </c>
       <c r="G15">
-        <v>1000000</v>
+        <v>-388000000</v>
       </c>
       <c r="H15">
-        <v>19000000</v>
+        <v>-348000000</v>
       </c>
       <c r="I15">
-        <v>2000000</v>
+        <v>-430000000</v>
       </c>
       <c r="J15">
-        <v>1000000</v>
+        <v>-310000000</v>
       </c>
       <c r="K15">
-        <v>7000000</v>
+        <v>-207000000</v>
       </c>
       <c r="L15">
-        <v>-36000000</v>
+        <v>-234000000</v>
       </c>
       <c r="M15">
         <v>27000000</v>
       </c>
       <c r="N15">
-        <v>27000000</v>
+        <v>-185000000</v>
       </c>
       <c r="O15">
-        <v>13000000</v>
+        <v>-101000000</v>
       </c>
       <c r="P15">
-        <v>5000000</v>
+        <v>-163000000</v>
       </c>
       <c r="Q15">
-        <v>1000000</v>
+        <v>-191000000</v>
       </c>
       <c r="R15">
-        <v>19000000</v>
+        <v>435000000</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-166000000</v>
       </c>
       <c r="T15">
-        <v>-11000000</v>
+        <v>-284000000</v>
       </c>
       <c r="U15">
-        <v>-8000000</v>
+        <v>-175000000</v>
       </c>
       <c r="V15">
-        <v>-3000000</v>
+        <v>-163000000</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-116000000</v>
       </c>
       <c r="X15">
-        <v>5000000</v>
+        <v>-91000000</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>-2163000000</v>
       </c>
       <c r="Z15">
-        <v>-2000000</v>
+        <v>-1989000000</v>
       </c>
       <c r="AA15">
-        <v>-27000000</v>
+        <v>3054000000</v>
       </c>
       <c r="AB15">
-        <v>25000000</v>
+        <v>-185000000</v>
       </c>
       <c r="AC15">
-        <v>80000000</v>
+        <v>-2353000000</v>
       </c>
       <c r="AD15">
-        <v>3000000</v>
+        <v>-133000000</v>
       </c>
       <c r="AE15">
-        <v>15000000</v>
+        <v>-115000000</v>
       </c>
       <c r="AF15">
-        <v>4000000</v>
+        <v>-120000000</v>
       </c>
       <c r="AG15">
-        <v>82000000</v>
+        <v>-152100000</v>
       </c>
       <c r="AH15">
-        <v>42000000</v>
+        <v>-114800000</v>
       </c>
       <c r="AI15">
-        <v>-27000000</v>
+        <v>-69000000</v>
       </c>
       <c r="AJ15">
-        <v>5000000</v>
+        <v>-55100000</v>
       </c>
       <c r="AK15">
-        <v>33000000</v>
+        <v>-57500000</v>
       </c>
       <c r="AL15">
-        <v>9000000</v>
+        <v>-103400000</v>
       </c>
       <c r="AM15">
-        <v>-1000000</v>
+        <v>-108900000</v>
       </c>
       <c r="AN15">
-        <v>5000000</v>
+        <v>-109300000</v>
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>156000000</v>
+        <v>-123000000</v>
       </c>
       <c r="C16">
-        <v>-551000000</v>
+        <v>664000000</v>
       </c>
       <c r="D16">
-        <v>-263000000</v>
+        <v>877000000</v>
       </c>
       <c r="E16">
-        <v>115000000</v>
+        <v>-748000000</v>
       </c>
       <c r="F16">
-        <v>-389000000</v>
+        <v>841000000</v>
       </c>
       <c r="G16">
-        <v>-674000000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
-        <v>-369000000</v>
+        <v>1000000</v>
       </c>
       <c r="I16">
-        <v>-259000000</v>
+        <v>-19000000</v>
       </c>
       <c r="J16">
-        <v>-523000000</v>
+        <v>-71000000</v>
       </c>
       <c r="K16">
-        <v>577000000</v>
+        <v>-370000000</v>
       </c>
       <c r="L16">
-        <v>-375000000</v>
+        <v>198000000</v>
       </c>
       <c r="M16">
-        <v>-5299000000</v>
+        <v>789000000</v>
       </c>
       <c r="N16">
-        <v>90000000</v>
+        <v>-267000000</v>
       </c>
       <c r="O16">
-        <v>-10000000</v>
+        <v>171000000</v>
       </c>
       <c r="P16">
-        <v>-1225000000</v>
+        <v>419000000</v>
       </c>
       <c r="Q16">
-        <v>-416000000</v>
+        <v>67000000</v>
       </c>
       <c r="R16">
-        <v>-269000000</v>
+        <v>-666000000</v>
       </c>
       <c r="S16">
-        <v>626000000</v>
+        <v>-44000000</v>
       </c>
       <c r="T16">
-        <v>281000000</v>
+        <v>465000000</v>
       </c>
       <c r="U16">
-        <v>-2732000000</v>
+        <v>-612000000</v>
       </c>
       <c r="V16">
-        <v>-781000000</v>
+        <v>-69000000</v>
       </c>
       <c r="W16">
-        <v>517000000</v>
+        <v>-588000000</v>
       </c>
       <c r="X16">
-        <v>-90000000</v>
+        <v>408000000</v>
       </c>
       <c r="Y16">
-        <v>-230000000</v>
+        <v>-409000000</v>
       </c>
       <c r="Z16">
-        <v>-543000000</v>
+        <v>-3275000000</v>
       </c>
       <c r="AA16">
-        <v>-350000000</v>
+        <v>2749000000</v>
       </c>
       <c r="AB16">
-        <v>-280000000</v>
+        <v>704000000</v>
       </c>
       <c r="AC16">
-        <v>-206000000</v>
+        <v>1983000000</v>
       </c>
       <c r="AD16">
-        <v>-2777000000</v>
+        <v>-94000000</v>
       </c>
       <c r="AE16">
-        <v>166000000</v>
+        <v>-246000000</v>
+      </c>
+      <c r="AF16">
+        <v>358000000</v>
       </c>
       <c r="AG16">
-        <v>-18000000</v>
+        <v>-139600000</v>
       </c>
       <c r="AH16">
-        <v>1000000</v>
+        <v>-206200000</v>
       </c>
       <c r="AI16">
-        <v>-292000000</v>
+        <v>-233400000</v>
       </c>
       <c r="AJ16">
-        <v>-287000000</v>
+        <v>161200000</v>
       </c>
       <c r="AK16">
-        <v>-154000000</v>
+        <v>36299900</v>
       </c>
       <c r="AL16">
-        <v>38000000</v>
+        <v>-308100000</v>
       </c>
       <c r="AM16">
-        <v>-335000000</v>
+        <v>16800000</v>
       </c>
       <c r="AN16">
-        <v>-405000000</v>
+        <v>545600000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
+        <v>-26000000</v>
+      </c>
+      <c r="C17">
+        <v>-469000000</v>
+      </c>
+      <c r="D17">
+        <v>-97000000</v>
+      </c>
+      <c r="E17">
+        <v>-394000000</v>
+      </c>
+      <c r="F17">
+        <v>-197000000</v>
+      </c>
+      <c r="G17">
+        <v>-123000000</v>
+      </c>
+      <c r="H17">
+        <v>-5000000</v>
+      </c>
+      <c r="I17">
+        <v>-6000000</v>
+      </c>
+      <c r="J17">
+        <v>13000000</v>
+      </c>
+      <c r="K17">
+        <v>6000000</v>
+      </c>
+      <c r="L17">
+        <v>-88000000</v>
+      </c>
+      <c r="M17">
+        <v>-347000000</v>
+      </c>
+      <c r="N17">
+        <v>-210000000</v>
+      </c>
+      <c r="O17">
+        <v>-238000000</v>
+      </c>
+      <c r="P17">
+        <v>-150000000</v>
+      </c>
+      <c r="Q17">
+        <v>-272000000</v>
+      </c>
+      <c r="R17">
+        <v>-264000000</v>
+      </c>
+      <c r="S17">
+        <v>-140000000</v>
+      </c>
+      <c r="T17">
+        <v>-35000000</v>
+      </c>
+      <c r="U17">
+        <v>9000000</v>
+      </c>
+      <c r="V17">
+        <v>-96000000</v>
+      </c>
+      <c r="W17">
+        <v>15000000</v>
+      </c>
+      <c r="X17">
         <v>-4000000</v>
       </c>
-      <c r="C17">
-        <v>-250000000</v>
-      </c>
-      <c r="D17">
-        <v>-584000000</v>
-      </c>
-      <c r="E17">
-        <v>-700000000</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>-1000000</v>
-      </c>
-      <c r="H17">
-        <v>-444000000</v>
-      </c>
-      <c r="I17">
-        <v>-1005000000</v>
-      </c>
-      <c r="J17">
-        <v>-1337000000</v>
-      </c>
-      <c r="K17">
-        <v>-1740000000</v>
-      </c>
-      <c r="L17">
-        <v>2207000000</v>
-      </c>
-      <c r="M17">
-        <v>-1530000000</v>
-      </c>
-      <c r="N17">
-        <v>3826000000</v>
-      </c>
-      <c r="O17">
-        <v>-638000000</v>
-      </c>
-      <c r="P17">
-        <v>1591000000</v>
-      </c>
-      <c r="Q17">
-        <v>-160000000</v>
-      </c>
-      <c r="R17">
-        <v>319000000</v>
-      </c>
-      <c r="S17">
-        <v>-807000000</v>
-      </c>
-      <c r="T17">
-        <v>1581000000</v>
-      </c>
-      <c r="U17">
-        <v>2193000000</v>
-      </c>
-      <c r="V17">
-        <v>173000000</v>
-      </c>
-      <c r="W17">
-        <v>-695000000</v>
-      </c>
-      <c r="X17">
-        <v>-68000000</v>
-      </c>
       <c r="Y17">
-        <v>-299000000</v>
+        <v>1000000</v>
       </c>
       <c r="Z17">
-        <v>567000000</v>
+        <v>15000000</v>
       </c>
       <c r="AA17">
-        <v>637000000</v>
+        <v>16000000</v>
       </c>
       <c r="AB17">
-        <v>138000000</v>
+        <v>-91000000</v>
       </c>
       <c r="AC17">
-        <v>-305000000</v>
+        <v>10000000</v>
       </c>
       <c r="AD17">
-        <v>1911000000</v>
+        <v>-126000000</v>
       </c>
       <c r="AE17">
-        <v>1880000000</v>
+        <v>10000000</v>
       </c>
       <c r="AF17">
-        <v>-4000000</v>
+        <v>6000000</v>
       </c>
       <c r="AG17">
-        <v>-438000000</v>
+        <v>-52200000</v>
       </c>
       <c r="AH17">
-        <v>427000000</v>
+        <v>-69300000</v>
       </c>
       <c r="AI17">
-        <v>447000000</v>
+        <v>-45000000</v>
       </c>
       <c r="AJ17">
-        <v>574000000</v>
+        <v>-193500000</v>
       </c>
       <c r="AK17">
-        <v>197000000</v>
+        <v>-130900000</v>
       </c>
       <c r="AL17">
-        <v>-221000000</v>
+        <v>-65600000</v>
       </c>
       <c r="AM17">
-        <v>-4000000</v>
+        <v>-136500000</v>
       </c>
       <c r="AN17">
-        <v>-9000000</v>
+        <v>-65800000</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>-72000000</v>
+        <v>-63000000</v>
       </c>
       <c r="C18">
-        <v>63000000</v>
+        <v>-63000000</v>
       </c>
       <c r="D18">
-        <v>-609000000</v>
+        <v>-65000000</v>
       </c>
       <c r="E18">
-        <v>-865000000</v>
+        <v>-65000000</v>
       </c>
       <c r="F18">
-        <v>-441000000</v>
+        <v>-65000000</v>
       </c>
       <c r="G18">
-        <v>-316000000</v>
+        <v>-49000000</v>
       </c>
       <c r="H18">
-        <v>62000000</v>
+        <v>-50000000</v>
       </c>
       <c r="I18">
-        <v>102000000</v>
+        <v>-49000000</v>
       </c>
       <c r="J18">
-        <v>89000000</v>
+        <v>-49000000</v>
       </c>
       <c r="K18">
-        <v>86000000</v>
+        <v>-49000000</v>
       </c>
       <c r="L18">
-        <v>-216000000</v>
+        <v>-51000000</v>
       </c>
       <c r="M18">
-        <v>-54000000</v>
+        <v>-49000000</v>
       </c>
       <c r="N18">
-        <v>-70000000</v>
+        <v>-50000000</v>
       </c>
       <c r="O18">
-        <v>-250000000</v>
+        <v>-49000000</v>
       </c>
       <c r="P18">
-        <v>-486000000</v>
+        <v>-34000000</v>
       </c>
       <c r="Q18">
-        <v>-1185000000</v>
+        <v>-33000000</v>
       </c>
       <c r="R18">
-        <v>-968000000</v>
+        <v>-34000000</v>
       </c>
       <c r="S18">
-        <v>-1514000000</v>
+        <v>-35000000</v>
       </c>
       <c r="T18">
-        <v>-718000000</v>
+        <v>-35000000</v>
       </c>
       <c r="U18">
-        <v>-352000000</v>
+        <v>-36000000</v>
       </c>
       <c r="V18">
-        <v>-294000000</v>
+        <v>-35000000</v>
       </c>
       <c r="W18">
-        <v>-313000000</v>
+        <v>-35000000</v>
       </c>
       <c r="X18">
-        <v>-375000000</v>
+        <v>-23000000</v>
       </c>
       <c r="Y18">
-        <v>-861000000</v>
+        <v>-23000000</v>
       </c>
       <c r="Z18">
-        <v>-645000000</v>
+        <v>-23000000</v>
       </c>
       <c r="AA18">
-        <v>-573000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AB18">
-        <v>-870000000</v>
+        <v>-19000000</v>
       </c>
       <c r="AC18">
-        <v>-1017000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AD18">
-        <v>-1455000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AE18">
-        <v>-1554000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AF18">
-        <v>-577000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AG18">
-        <v>-1050000000</v>
+        <v>-18200000</v>
       </c>
       <c r="AH18">
-        <v>-1085000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AI18">
-        <v>-1108000000</v>
+        <v>-18200000</v>
       </c>
       <c r="AJ18">
-        <v>-1441000000</v>
+        <v>-18600000</v>
       </c>
       <c r="AK18">
-        <v>-1437000000</v>
+        <v>-18400000</v>
       </c>
       <c r="AL18">
-        <v>-1274000000</v>
+        <v>-18800000</v>
       </c>
       <c r="AM18">
-        <v>-825000000</v>
+        <v>-18700000</v>
       </c>
       <c r="AN18">
-        <v>-67000000</v>
+        <v>-19300000</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>-850000000</v>
+        <v>1000000</v>
       </c>
       <c r="C19">
-        <v>-848000000</v>
+        <v>-13000000</v>
       </c>
       <c r="D19">
-        <v>-852000000</v>
+        <v>-480000000</v>
       </c>
       <c r="E19">
-        <v>-848000000</v>
+        <v>-14000000</v>
       </c>
       <c r="F19">
-        <v>-856000000</v>
+        <v>-30000000</v>
       </c>
       <c r="G19">
-        <v>-858000000</v>
+        <v>-11000000</v>
       </c>
       <c r="H19">
-        <v>-858000000</v>
+        <v>-140000000</v>
       </c>
       <c r="I19">
-        <v>-848000000</v>
+        <v>-7000000</v>
       </c>
       <c r="J19">
-        <v>-847000000</v>
+        <v>-26000000</v>
       </c>
       <c r="K19">
-        <v>-846000000</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-847000000</v>
+        <v>-34000000</v>
       </c>
       <c r="M19">
-        <v>-828000000</v>
+        <v>-21000000</v>
       </c>
       <c r="N19">
-        <v>-828000000</v>
+        <v>2000000</v>
       </c>
       <c r="O19">
-        <v>-830000000</v>
+        <v>-2000000</v>
       </c>
       <c r="P19">
-        <v>-830000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Q19">
-        <v>-787000000</v>
+        <v>-1000000</v>
       </c>
       <c r="R19">
-        <v>-794000000</v>
+        <v>-1000000</v>
       </c>
       <c r="S19">
-        <v>-802000000</v>
+        <v>-1000000</v>
       </c>
       <c r="T19">
-        <v>-810000000</v>
+        <v>-11000000</v>
       </c>
       <c r="U19">
-        <v>-699000000</v>
+        <v>-5000000</v>
       </c>
       <c r="V19">
-        <v>-701000000</v>
+        <v>-1000000</v>
       </c>
       <c r="W19">
-        <v>-701000000</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-702000000</v>
+        <v>-1000000</v>
       </c>
       <c r="Y19">
-        <v>-664000000</v>
+        <v>1000000</v>
       </c>
       <c r="Z19">
-        <v>-670000000</v>
+        <v>6000000</v>
       </c>
       <c r="AA19">
-        <v>-672000000</v>
+        <v>1000000</v>
       </c>
       <c r="AB19">
-        <v>-672000000</v>
+        <v>-22000000</v>
       </c>
       <c r="AC19">
-        <v>-628000000</v>
+        <v>-53000000</v>
       </c>
       <c r="AD19">
-        <v>-635000000</v>
+        <v>2000000</v>
       </c>
       <c r="AE19">
-        <v>-646000000</v>
+        <v>-23000000</v>
       </c>
       <c r="AF19">
-        <v>-652000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AG19">
-        <v>-544000000</v>
+        <v>-2700000</v>
       </c>
       <c r="AH19">
-        <v>-550000000</v>
+        <v>4200000</v>
       </c>
       <c r="AI19">
-        <v>-556000000</v>
+        <v>-2300000</v>
       </c>
       <c r="AJ19">
-        <v>-566000000</v>
+        <v>5800000</v>
       </c>
       <c r="AK19">
-        <v>-423000000</v>
+        <v>-5000000</v>
       </c>
       <c r="AL19">
-        <v>-431000000</v>
+        <v>900000</v>
       </c>
       <c r="AM19">
-        <v>-436000000</v>
+        <v>-25000000</v>
       </c>
       <c r="AN19">
-        <v>-440000000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>-7000000</v>
+        <v>-211000000</v>
       </c>
       <c r="C20">
-        <v>-13000000</v>
+        <v>119000000</v>
       </c>
       <c r="D20">
-        <v>-9000000</v>
+        <v>715000000</v>
       </c>
       <c r="E20">
-        <v>1000000</v>
+        <v>-1221000000</v>
       </c>
       <c r="F20">
-        <v>-2000000</v>
+        <v>549000000</v>
       </c>
       <c r="G20">
-        <v>-8000000</v>
+        <v>-168000000</v>
       </c>
       <c r="H20">
-        <v>-11000000</v>
+        <v>-54000000</v>
       </c>
       <c r="I20">
-        <v>-51000000</v>
+        <v>-81000000</v>
       </c>
       <c r="J20">
-        <v>-2000000</v>
+        <v>-133000000</v>
       </c>
       <c r="K20">
-        <v>-9000000</v>
+        <v>-413000000</v>
       </c>
       <c r="L20">
-        <v>-36000000</v>
+        <v>25000000</v>
       </c>
       <c r="M20">
-        <v>-39000000</v>
+        <v>372000000</v>
       </c>
       <c r="N20">
-        <v>-124000000</v>
+        <v>-525000000</v>
       </c>
       <c r="O20">
-        <v>-17000000</v>
+        <v>-118000000</v>
       </c>
       <c r="P20">
-        <v>-17000000</v>
+        <v>225000000</v>
       </c>
       <c r="Q20">
-        <v>-20000000</v>
+        <v>-239000000</v>
       </c>
       <c r="R20">
-        <v>-10000000</v>
+        <v>-965000000</v>
       </c>
       <c r="S20">
-        <v>-19000000</v>
+        <v>-220000000</v>
       </c>
       <c r="T20">
-        <v>-7000000</v>
+        <v>384000000</v>
       </c>
       <c r="U20">
-        <v>-98000000</v>
+        <v>-644000000</v>
       </c>
       <c r="V20">
-        <v>-21000000</v>
+        <v>-201000000</v>
       </c>
       <c r="W20">
-        <v>4000000</v>
+        <v>-608000000</v>
       </c>
       <c r="X20">
-        <v>-6000000</v>
+        <v>380000000</v>
       </c>
       <c r="Y20">
-        <v>-22000000</v>
+        <v>-430000000</v>
       </c>
       <c r="Z20">
-        <v>-4000000</v>
+        <v>-3277000000</v>
       </c>
       <c r="AA20">
-        <v>6000000</v>
+        <v>2748000000</v>
       </c>
       <c r="AB20">
-        <v>-22000000</v>
+        <v>572000000</v>
       </c>
       <c r="AC20">
-        <v>-4000000</v>
+        <v>1922000000</v>
       </c>
       <c r="AD20">
-        <v>-41000000</v>
+        <v>-236000000</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-277000000</v>
       </c>
       <c r="AF20">
-        <v>79000000</v>
+        <v>328000000</v>
       </c>
       <c r="AG20">
-        <v>-98000000</v>
+        <v>-212700000</v>
       </c>
       <c r="AH20">
-        <v>-681000000</v>
+        <v>-289300000</v>
       </c>
       <c r="AI20">
-        <v>32000000</v>
+        <v>-298900000</v>
       </c>
       <c r="AJ20">
-        <v>34000000</v>
+        <v>-45100000</v>
       </c>
       <c r="AK20">
-        <v>60000000</v>
+        <v>-118000000</v>
       </c>
       <c r="AL20">
-        <v>10000000</v>
+        <v>-391600000</v>
       </c>
       <c r="AM20">
-        <v>24000000</v>
+        <v>-163400000</v>
       </c>
       <c r="AN20">
-        <v>30000000</v>
+        <v>469000000</v>
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>-933000000</v>
+        <v>-17000000</v>
       </c>
       <c r="C21">
-        <v>-1048000000</v>
+        <v>-15000000</v>
       </c>
       <c r="D21">
-        <v>-2054000000</v>
+        <v>2000000</v>
       </c>
       <c r="E21">
-        <v>-2412000000</v>
+        <v>-7000000</v>
       </c>
       <c r="F21">
-        <v>-1299000000</v>
+        <v>-17000000</v>
       </c>
       <c r="G21">
-        <v>-1183000000</v>
+        <v>26000000</v>
       </c>
       <c r="H21">
-        <v>-1251000000</v>
+        <v>-31000000</v>
       </c>
       <c r="I21">
-        <v>-1802000000</v>
+        <v>22000000</v>
       </c>
       <c r="J21">
-        <v>-2097000000</v>
+        <v>-4000000</v>
       </c>
       <c r="K21">
-        <v>-2509000000</v>
+        <v>-14000000</v>
       </c>
       <c r="L21">
-        <v>1108000000</v>
+        <v>-78000000</v>
       </c>
       <c r="M21">
-        <v>-2451000000</v>
+        <v>18000000</v>
       </c>
       <c r="N21">
-        <v>2804000000</v>
+        <v>-32000000</v>
       </c>
       <c r="O21">
-        <v>-1735000000</v>
+        <v>1000000</v>
       </c>
       <c r="P21">
-        <v>258000000</v>
+        <v>11000000</v>
       </c>
       <c r="Q21">
-        <v>-2152000000</v>
+        <v>8000000</v>
       </c>
       <c r="R21">
-        <v>-1453000000</v>
+        <v>-9000000</v>
       </c>
       <c r="S21">
-        <v>-3142000000</v>
+        <v>-51000000</v>
       </c>
       <c r="T21">
-        <v>46000000</v>
+        <v>1000000</v>
       </c>
       <c r="U21">
-        <v>1044000000</v>
+        <v>-19000000</v>
       </c>
       <c r="V21">
-        <v>-843000000</v>
+        <v>3000000</v>
       </c>
       <c r="W21">
-        <v>-1705000000</v>
+        <v>38000000</v>
       </c>
       <c r="X21">
-        <v>-1151000000</v>
+        <v>-30000000</v>
       </c>
       <c r="Y21">
-        <v>-1846000000</v>
+        <v>-230000000</v>
       </c>
       <c r="Z21">
-        <v>-752000000</v>
+        <v>-19000000</v>
       </c>
       <c r="AA21">
-        <v>-602000000</v>
+        <v>-30000000</v>
       </c>
       <c r="AB21">
-        <v>-1426000000</v>
+        <v>-20000000</v>
       </c>
       <c r="AC21">
-        <v>-1954000000</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>-220000000</v>
+        <v>1000000</v>
       </c>
       <c r="AE21">
-        <v>-320000000</v>
+        <v>-2000000</v>
       </c>
       <c r="AF21">
-        <v>-1154000000</v>
-      </c>
-      <c r="AG21">
-        <v>-2130000000</v>
+        <v>11000000</v>
       </c>
       <c r="AH21">
-        <v>-1889000000</v>
+        <v>-1700000</v>
       </c>
       <c r="AI21">
-        <v>-1185000000</v>
+        <v>1600000</v>
       </c>
       <c r="AJ21">
-        <v>-1399000000</v>
+        <v>-4200000</v>
       </c>
       <c r="AK21">
-        <v>-1603000000</v>
+        <v>-4400000</v>
       </c>
       <c r="AL21">
-        <v>-1916000000</v>
+        <v>-4200000</v>
       </c>
       <c r="AM21">
-        <v>-1241000000</v>
+        <v>-4200000</v>
       </c>
       <c r="AN21">
-        <v>-486000000</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>-72000000</v>
+        <v>-10000000</v>
       </c>
       <c r="C22">
-        <v>-53000000</v>
+        <v>60000000</v>
       </c>
       <c r="D22">
-        <v>-11000000</v>
+        <v>-133000000</v>
       </c>
       <c r="E22">
-        <v>-22000000</v>
+        <v>-879000000</v>
       </c>
       <c r="F22">
-        <v>-3000000</v>
+        <v>872000000</v>
       </c>
       <c r="G22">
-        <v>29000000</v>
+        <v>115000000</v>
       </c>
       <c r="H22">
-        <v>-66000000</v>
+        <v>-910000000</v>
       </c>
       <c r="I22">
-        <v>59000000</v>
+        <v>598000000</v>
       </c>
       <c r="J22">
-        <v>42000000</v>
+        <v>130000000</v>
       </c>
       <c r="K22">
-        <v>-7000000</v>
+        <v>-158000000</v>
       </c>
       <c r="L22">
-        <v>-46000000</v>
+        <v>-995000000</v>
       </c>
       <c r="M22">
-        <v>34000000</v>
+        <v>1309000000</v>
       </c>
       <c r="N22">
-        <v>-34000000</v>
+        <v>-339000000</v>
       </c>
       <c r="O22">
-        <v>-6000000</v>
+        <v>164000000</v>
       </c>
       <c r="P22">
-        <v>4000000</v>
+        <v>-56000000</v>
       </c>
       <c r="Q22">
-        <v>-22000000</v>
+        <v>117000000</v>
       </c>
       <c r="R22">
-        <v>-33000000</v>
+        <v>54000000</v>
       </c>
       <c r="S22">
-        <v>-73000000</v>
+        <v>71000000</v>
       </c>
       <c r="T22">
-        <v>-32000000</v>
+        <v>27000000</v>
       </c>
       <c r="U22">
-        <v>50000000</v>
+        <v>-104000000</v>
       </c>
       <c r="V22">
-        <v>51000000</v>
+        <v>122000000</v>
       </c>
       <c r="W22">
-        <v>27000000</v>
+        <v>-24000000</v>
       </c>
       <c r="X22">
-        <v>28000000</v>
+        <v>-142000000</v>
       </c>
       <c r="Y22">
-        <v>-43000000</v>
+        <v>-2197000000</v>
       </c>
       <c r="Z22">
-        <v>7000000</v>
+        <v>-5754000000</v>
       </c>
       <c r="AA22">
+        <v>6194000000</v>
+      </c>
+      <c r="AB22">
+        <v>-19000000</v>
+      </c>
+      <c r="AC22">
+        <v>-21000000</v>
+      </c>
+      <c r="AD22">
         <v>18000000</v>
       </c>
-      <c r="AB22">
-        <v>-15000000</v>
-      </c>
-      <c r="AC22">
-        <v>15000000</v>
-      </c>
-      <c r="AD22">
-        <v>-45000000</v>
-      </c>
       <c r="AE22">
-        <v>8000000</v>
+        <v>-2000000</v>
       </c>
       <c r="AF22">
-        <v>-32000000</v>
+        <v>38000000</v>
       </c>
       <c r="AG22">
-        <v>-67000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH22">
-        <v>-19000000</v>
+        <v>34200000</v>
       </c>
       <c r="AI22">
-        <v>8000000</v>
+        <v>-20100000</v>
       </c>
       <c r="AJ22">
-        <v>-33000000</v>
+        <v>-240600000</v>
       </c>
       <c r="AK22">
-        <v>5000000</v>
+        <v>247800000</v>
       </c>
       <c r="AL22">
-        <v>125000000</v>
+        <v>-1300000</v>
       </c>
       <c r="AM22">
-        <v>-89000000</v>
+        <v>-38500000</v>
       </c>
       <c r="AN22">
-        <v>-58000000</v>
+        <v>33900000</v>
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>682000000</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>-525000000</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-1317000000</v>
+        <v>579000000</v>
       </c>
       <c r="E23">
-        <v>-314000000</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>183000000</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>59000000</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2000000</v>
+        <v>1381000000</v>
       </c>
       <c r="I23">
-        <v>513000000</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>-98000000</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>-34000000</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1900000000</v>
+        <v>1806000000</v>
       </c>
       <c r="M23">
-        <v>-5378000000</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>4882000000</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>-89000000</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>85000000</v>
+        <v>728000000</v>
       </c>
       <c r="Q23">
-        <v>-332000000</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>384000000</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>-690000000</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>438000000</v>
+        <v>459000000</v>
       </c>
       <c r="U23">
-        <v>222000000</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>177000000</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>481000000</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-225000000</v>
+        <v>607000000</v>
       </c>
       <c r="Y23">
-        <v>90000000</v>
+        <v>2159000000</v>
       </c>
       <c r="Z23">
-        <v>620000000</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>351000000</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>-461000000</v>
+        <v>224000000</v>
       </c>
       <c r="AC23">
-        <v>193000000</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>-1378000000</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>1192000000</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>-106000000</v>
+        <v>191000000</v>
       </c>
       <c r="AG23">
-        <v>-32000000</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>-196000000</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>171000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>-627000000</v>
+        <v>416000000</v>
       </c>
       <c r="AK23">
-        <v>241000000</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>-602000000</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>45000000</v>
+        <v>174100000</v>
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-10000000</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>60000000</v>
       </c>
       <c r="D24">
-        <v>4564000000</v>
+        <v>446000000</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-879000000</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>872000000</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>115000000</v>
       </c>
       <c r="H24">
-        <v>4634000000</v>
+        <v>471000000</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>598000000</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>130000000</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-158000000</v>
       </c>
       <c r="L24">
-        <v>2353000000</v>
+        <v>811000000</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1309000000</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-339000000</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>164000000</v>
       </c>
       <c r="P24">
-        <v>2853000000</v>
+        <v>672000000</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>117000000</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>54000000</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>71000000</v>
       </c>
       <c r="T24">
-        <v>3053000000</v>
+        <v>486000000</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>-104000000</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>122000000</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-24000000</v>
       </c>
       <c r="X24">
-        <v>2398000000</v>
+        <v>465000000</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>-38000000</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-5754000000</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>6194000000</v>
       </c>
       <c r="AB24">
-        <v>1798000000</v>
+        <v>205000000</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-21000000</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>-2000000</v>
       </c>
       <c r="AF24">
-        <v>1897000000</v>
+        <v>229000000</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>34200000</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>-20100000</v>
       </c>
       <c r="AJ24">
-        <v>2581000000</v>
+        <v>175400000</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>247800000</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>-1300000</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>-38500000</v>
       </c>
       <c r="AN24">
-        <v>2883000000</v>
+        <v>208000000</v>
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>682000000</v>
+        <v>-63000000</v>
       </c>
       <c r="C25">
-        <v>-525000000</v>
+        <v>-63000000</v>
       </c>
       <c r="D25">
-        <v>3247000000</v>
+        <v>-65000000</v>
       </c>
       <c r="E25">
-        <v>-314000000</v>
+        <v>-65000000</v>
       </c>
       <c r="F25">
-        <v>183000000</v>
+        <v>-65000000</v>
       </c>
       <c r="G25">
-        <v>59000000</v>
+        <v>-49000000</v>
       </c>
       <c r="H25">
-        <v>4636000000</v>
+        <v>-50000000</v>
       </c>
       <c r="I25">
-        <v>513000000</v>
+        <v>-49000000</v>
       </c>
       <c r="J25">
-        <v>-98000000</v>
+        <v>-49000000</v>
       </c>
       <c r="K25">
+        <v>-49000000</v>
+      </c>
+      <c r="L25">
+        <v>-51000000</v>
+      </c>
+      <c r="M25">
+        <v>-49000000</v>
+      </c>
+      <c r="N25">
+        <v>-50000000</v>
+      </c>
+      <c r="O25">
+        <v>-49000000</v>
+      </c>
+      <c r="P25">
         <v>-34000000</v>
       </c>
-      <c r="L25">
-        <v>4253000000</v>
-      </c>
-      <c r="M25">
-        <v>-5378000000</v>
-      </c>
-      <c r="N25">
-        <v>4882000000</v>
-      </c>
-      <c r="O25">
-        <v>-89000000</v>
-      </c>
-      <c r="P25">
-        <v>2938000000</v>
-      </c>
       <c r="Q25">
-        <v>-332000000</v>
+        <v>-33000000</v>
       </c>
       <c r="R25">
-        <v>384000000</v>
+        <v>-34000000</v>
       </c>
       <c r="S25">
-        <v>-690000000</v>
+        <v>-35000000</v>
       </c>
       <c r="T25">
-        <v>3491000000</v>
+        <v>-35000000</v>
       </c>
       <c r="U25">
-        <v>222000000</v>
+        <v>-36000000</v>
       </c>
       <c r="V25">
-        <v>177000000</v>
+        <v>-35000000</v>
       </c>
       <c r="W25">
-        <v>481000000</v>
+        <v>-35000000</v>
       </c>
       <c r="X25">
-        <v>2173000000</v>
+        <v>-23000000</v>
       </c>
       <c r="Y25">
-        <v>90000000</v>
+        <v>-23000000</v>
       </c>
       <c r="Z25">
-        <v>620000000</v>
+        <v>-23000000</v>
       </c>
       <c r="AA25">
-        <v>351000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AB25">
-        <v>1337000000</v>
+        <v>-19000000</v>
       </c>
       <c r="AC25">
-        <v>193000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AD25">
-        <v>-1378000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AE25">
-        <v>1192000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AF25">
-        <v>1791000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AG25">
-        <v>-32000000</v>
+        <v>-18200000</v>
       </c>
       <c r="AH25">
-        <v>-196000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AI25">
-        <v>171000000</v>
+        <v>-18200000</v>
       </c>
       <c r="AJ25">
-        <v>1954000000</v>
+        <v>-18600000</v>
       </c>
       <c r="AK25">
-        <v>241000000</v>
+        <v>-18400000</v>
       </c>
       <c r="AL25">
-        <v>-602000000</v>
+        <v>-18800000</v>
       </c>
       <c r="AM25">
-        <v>14000000</v>
+        <v>-18700000</v>
       </c>
       <c r="AN25">
-        <v>2928000000</v>
+        <v>-19300000</v>
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>44000000</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C26">
-        <v>47000000</v>
+        <v>0.3953</v>
       </c>
       <c r="D26">
-        <v>135000000</v>
+        <v>0.2812</v>
       </c>
       <c r="E26">
-        <v>47000000</v>
+        <v>0.2286</v>
       </c>
       <c r="F26">
-        <v>43000000</v>
+        <v>0.2412</v>
       </c>
       <c r="G26">
-        <v>53000000</v>
+        <v>0.2701</v>
       </c>
       <c r="H26">
-        <v>131000000</v>
+        <v>0.2608</v>
       </c>
       <c r="I26">
-        <v>46000000</v>
+        <v>0.2116</v>
       </c>
       <c r="J26">
-        <v>44000000</v>
+        <v>0.2556</v>
       </c>
       <c r="K26">
-        <v>52000000</v>
+        <v>0.3107</v>
       </c>
       <c r="L26">
-        <v>120000000</v>
+        <v>0.3421</v>
       </c>
       <c r="M26">
-        <v>48000000</v>
+        <v>0.2811</v>
       </c>
       <c r="N26">
-        <v>48000000</v>
+        <v>0.2696</v>
       </c>
       <c r="O26">
-        <v>52000000</v>
+        <v>0.2798</v>
       </c>
       <c r="P26">
-        <v>130000000</v>
+        <v>0.3338</v>
       </c>
       <c r="Q26">
-        <v>44000000</v>
+        <v>0.379</v>
       </c>
       <c r="R26">
-        <v>50000000</v>
+        <v>0.4037</v>
       </c>
       <c r="S26">
-        <v>49000000</v>
+        <v>0.5459000000000001</v>
       </c>
       <c r="T26">
-        <v>159000000</v>
+        <v>0.5133</v>
       </c>
       <c r="U26">
-        <v>58000000</v>
+        <v>0.4821</v>
       </c>
       <c r="V26">
-        <v>60000000</v>
+        <v>0.4831</v>
       </c>
       <c r="W26">
-        <v>59000000</v>
+        <v>0.4801</v>
       </c>
       <c r="X26">
-        <v>147000000</v>
+        <v>0.5782</v>
       </c>
       <c r="Y26">
-        <v>54000000</v>
+        <v>0.5784</v>
       </c>
       <c r="Z26">
-        <v>51000000</v>
+        <v>0.5209</v>
       </c>
       <c r="AA26">
-        <v>49000000</v>
+        <v>0.483</v>
       </c>
       <c r="AB26">
-        <v>144000000</v>
+        <v>0.5533</v>
       </c>
       <c r="AC26">
-        <v>43000000</v>
+        <v>0.4833</v>
       </c>
       <c r="AD26">
-        <v>46000000</v>
+        <v>0.3416</v>
       </c>
       <c r="AE26">
-        <v>49000000</v>
+        <v>0.3137</v>
       </c>
       <c r="AF26">
-        <v>138000000</v>
+        <v>0.3375</v>
       </c>
       <c r="AG26">
-        <v>59000000</v>
+        <v>0.3153</v>
       </c>
       <c r="AH26">
-        <v>47000000</v>
+        <v>0.3579</v>
       </c>
       <c r="AI26">
-        <v>52000000</v>
+        <v>0.3881</v>
       </c>
       <c r="AJ26">
-        <v>122000000</v>
+        <v>0.4671</v>
       </c>
       <c r="AK26">
-        <v>43000000</v>
+        <v>0.423</v>
       </c>
       <c r="AL26">
-        <v>47000000</v>
+        <v>0.5164</v>
       </c>
       <c r="AM26">
-        <v>47000000</v>
+        <v>0.5947</v>
       </c>
       <c r="AN26">
-        <v>103000000</v>
+        <v>0.5141</v>
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>-850000000</v>
+        <v>-149000000</v>
       </c>
       <c r="C27">
-        <v>-848000000</v>
+        <v>21000000</v>
       </c>
       <c r="D27">
-        <v>-852000000</v>
+        <v>-1004000000</v>
       </c>
       <c r="E27">
-        <v>-848000000</v>
+        <v>367000000</v>
       </c>
       <c r="F27">
-        <v>-856000000</v>
+        <v>248000000</v>
       </c>
       <c r="G27">
-        <v>-858000000</v>
+        <v>207000000</v>
       </c>
       <c r="H27">
-        <v>-858000000</v>
+        <v>-703000000</v>
       </c>
       <c r="I27">
-        <v>-848000000</v>
+        <v>649000000</v>
       </c>
       <c r="J27">
-        <v>-847000000</v>
+        <v>213000000</v>
       </c>
       <c r="K27">
-        <v>-846000000</v>
+        <v>96000000</v>
       </c>
       <c r="L27">
-        <v>-847000000</v>
+        <v>-1037000000</v>
       </c>
       <c r="M27">
-        <v>-828000000</v>
+        <v>655000000</v>
       </c>
       <c r="N27">
-        <v>-828000000</v>
+        <v>-8000000</v>
       </c>
       <c r="O27">
-        <v>-830000000</v>
+        <v>72000000</v>
       </c>
       <c r="P27">
-        <v>-830000000</v>
+        <v>-487000000</v>
       </c>
       <c r="Q27">
-        <v>-787000000</v>
+        <v>175000000</v>
       </c>
       <c r="R27">
-        <v>-794000000</v>
+        <v>241000000</v>
       </c>
       <c r="S27">
-        <v>-802000000</v>
+        <v>67000000</v>
       </c>
       <c r="T27">
-        <v>-810000000</v>
+        <v>-420000000</v>
       </c>
       <c r="U27">
-        <v>-699000000</v>
+        <v>422000000</v>
       </c>
       <c r="V27">
-        <v>-701000000</v>
+        <v>136000000</v>
       </c>
       <c r="W27">
-        <v>-701000000</v>
+        <v>504000000</v>
       </c>
       <c r="X27">
-        <v>-702000000</v>
+        <v>-680000000</v>
       </c>
       <c r="Y27">
-        <v>-664000000</v>
+        <v>648000000</v>
       </c>
       <c r="Z27">
-        <v>-670000000</v>
+        <v>-720000000</v>
       </c>
       <c r="AA27">
-        <v>-672000000</v>
+        <v>121000000</v>
       </c>
       <c r="AB27">
-        <v>-672000000</v>
+        <v>-561000000</v>
       </c>
       <c r="AC27">
-        <v>-628000000</v>
+        <v>139000000</v>
       </c>
       <c r="AD27">
-        <v>-635000000</v>
+        <v>140000000</v>
       </c>
       <c r="AE27">
-        <v>-646000000</v>
+        <v>159000000</v>
       </c>
       <c r="AF27">
-        <v>-652000000</v>
+        <v>-314000000</v>
       </c>
       <c r="AG27">
-        <v>-544000000</v>
+        <v>142600000</v>
       </c>
       <c r="AH27">
-        <v>-550000000</v>
+        <v>231500000</v>
       </c>
       <c r="AI27">
-        <v>-556000000</v>
+        <v>93900000</v>
       </c>
       <c r="AJ27">
-        <v>-566000000</v>
+        <v>-302000000</v>
       </c>
       <c r="AK27">
-        <v>-423000000</v>
+        <v>273000000</v>
       </c>
       <c r="AL27">
-        <v>-431000000</v>
+        <v>216500000</v>
       </c>
       <c r="AM27">
-        <v>-436000000</v>
+        <v>26600000</v>
       </c>
       <c r="AN27">
-        <v>-440000000</v>
+        <v>-450300000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>0.2057</v>
+        <v>-26000000</v>
       </c>
       <c r="C28">
-        <v>0.1912</v>
+        <v>-469000000</v>
       </c>
       <c r="D28">
-        <v>0.1665</v>
+        <v>-97000000</v>
       </c>
       <c r="E28">
-        <v>0.1318</v>
+        <v>-394000000</v>
       </c>
       <c r="F28">
-        <v>0.1306</v>
+        <v>-197000000</v>
       </c>
       <c r="G28">
-        <v>0.1105</v>
+        <v>-123000000</v>
       </c>
       <c r="H28">
-        <v>0.1167</v>
+        <v>-5000000</v>
       </c>
       <c r="I28">
-        <v>0.1363</v>
+        <v>-6000000</v>
       </c>
       <c r="J28">
-        <v>0.1625</v>
+        <v>13000000</v>
       </c>
       <c r="K28">
-        <v>0.1811</v>
+        <v>6000000</v>
       </c>
       <c r="L28">
-        <v>0.2288</v>
+        <v>-88000000</v>
       </c>
       <c r="M28">
-        <v>0.1755</v>
+        <v>-347000000</v>
       </c>
       <c r="N28">
-        <v>0.1232</v>
+        <v>-210000000</v>
       </c>
       <c r="O28">
-        <v>0.1271</v>
+        <v>-238000000</v>
       </c>
       <c r="P28">
-        <v>0.1053</v>
+        <v>-150000000</v>
       </c>
       <c r="Q28">
-        <v>0.1016</v>
+        <v>-272000000</v>
       </c>
       <c r="R28">
-        <v>0.0911</v>
+        <v>-264000000</v>
       </c>
       <c r="S28">
-        <v>0.098</v>
+        <v>-140000000</v>
       </c>
       <c r="T28">
-        <v>0.0912</v>
+        <v>-35000000</v>
       </c>
       <c r="U28">
-        <v>0.0697</v>
+        <v>9000000</v>
       </c>
       <c r="V28">
-        <v>0.0649</v>
+        <v>-96000000</v>
       </c>
       <c r="W28">
-        <v>0.0683</v>
+        <v>15000000</v>
       </c>
       <c r="X28">
-        <v>0.08210000000000001</v>
+        <v>-4000000</v>
       </c>
       <c r="Y28">
-        <v>0.0833</v>
+        <v>1000000</v>
       </c>
       <c r="Z28">
-        <v>0.091</v>
+        <v>15000000</v>
       </c>
       <c r="AA28">
-        <v>0.093</v>
+        <v>16000000</v>
       </c>
       <c r="AB28">
-        <v>0.0951</v>
+        <v>-91000000</v>
       </c>
       <c r="AC28">
-        <v>0.09420000000000001</v>
+        <v>10000000</v>
       </c>
       <c r="AD28">
-        <v>0.1079</v>
+        <v>-126000000</v>
       </c>
       <c r="AE28">
-        <v>0.0517</v>
+        <v>10000000</v>
       </c>
       <c r="AF28">
-        <v>0.036</v>
+        <v>6000000</v>
       </c>
       <c r="AG28">
-        <v>0.0326</v>
+        <v>-52200000</v>
       </c>
       <c r="AH28">
-        <v>0.0508</v>
+        <v>-69300000</v>
       </c>
       <c r="AI28">
-        <v>0.0424</v>
+        <v>-45000000</v>
       </c>
       <c r="AJ28">
-        <v>0.0419</v>
+        <v>-193500000</v>
       </c>
       <c r="AK28">
-        <v>0.0279</v>
+        <v>-130900000</v>
       </c>
       <c r="AL28">
-        <v>0.0304</v>
+        <v>-65600000</v>
       </c>
       <c r="AM28">
-        <v>0.0225</v>
+        <v>-136500000</v>
       </c>
       <c r="AN28">
-        <v>0.0214</v>
+        <v>-65800000</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>-77000000</v>
+        <v>-26000000</v>
       </c>
       <c r="C29">
-        <v>936000000</v>
+        <v>-469000000</v>
       </c>
       <c r="D29">
-        <v>-838000000</v>
+        <v>-97000000</v>
       </c>
       <c r="E29">
-        <v>112000000</v>
+        <v>-394000000</v>
       </c>
       <c r="F29">
-        <v>155000000</v>
+        <v>-197000000</v>
       </c>
       <c r="G29">
-        <v>-245000000</v>
+        <v>-123000000</v>
       </c>
       <c r="H29">
-        <v>-546000000</v>
+        <v>-5000000</v>
       </c>
       <c r="I29">
-        <v>617000000</v>
+        <v>-6000000</v>
       </c>
       <c r="J29">
-        <v>587000000</v>
+        <v>13000000</v>
       </c>
       <c r="K29">
-        <v>393000000</v>
+        <v>6000000</v>
       </c>
       <c r="L29">
-        <v>-722000000</v>
+        <v>-88000000</v>
       </c>
       <c r="M29">
-        <v>992000000</v>
+        <v>-347000000</v>
       </c>
       <c r="N29">
-        <v>102000000</v>
+        <v>-210000000</v>
       </c>
       <c r="O29">
-        <v>-106000000</v>
+        <v>-238000000</v>
       </c>
       <c r="P29">
-        <v>-312000000</v>
+        <v>-150000000</v>
       </c>
       <c r="Q29">
-        <v>456000000</v>
+        <v>-272000000</v>
       </c>
       <c r="R29">
-        <v>200000000</v>
+        <v>-264000000</v>
       </c>
       <c r="S29">
-        <v>-61000000</v>
+        <v>-140000000</v>
       </c>
       <c r="T29">
-        <v>-747000000</v>
+        <v>-35000000</v>
       </c>
       <c r="U29">
-        <v>1374000000</v>
+        <v>9000000</v>
       </c>
       <c r="V29">
-        <v>-180000000</v>
+        <v>-96000000</v>
       </c>
       <c r="W29">
-        <v>64000000</v>
+        <v>15000000</v>
       </c>
       <c r="X29">
-        <v>-643000000</v>
+        <v>-4000000</v>
       </c>
       <c r="Y29">
-        <v>569000000</v>
+        <v>1000000</v>
       </c>
       <c r="Z29">
-        <v>288000000</v>
+        <v>15000000</v>
       </c>
       <c r="AA29">
-        <v>-305000000</v>
+        <v>16000000</v>
       </c>
       <c r="AB29">
-        <v>-483000000</v>
+        <v>-91000000</v>
       </c>
       <c r="AC29">
-        <v>834000000</v>
+        <v>10000000</v>
       </c>
       <c r="AD29">
-        <v>-229000000</v>
+        <v>-126000000</v>
       </c>
       <c r="AE29">
-        <v>-636000000</v>
+        <v>10000000</v>
       </c>
       <c r="AF29">
-        <v>-584000000</v>
+        <v>6000000</v>
       </c>
       <c r="AG29">
-        <v>731000000</v>
+        <v>-52200000</v>
       </c>
       <c r="AH29">
-        <v>-10000000</v>
+        <v>-69300000</v>
       </c>
       <c r="AI29">
-        <v>-117000000</v>
+        <v>-45000000</v>
       </c>
       <c r="AJ29">
-        <v>-527000000</v>
+        <v>-193500000</v>
       </c>
       <c r="AK29">
-        <v>572000000</v>
+        <v>-130900000</v>
       </c>
       <c r="AL29">
-        <v>-301000000</v>
+        <v>-65600000</v>
       </c>
       <c r="AM29">
-        <v>91000000</v>
+        <v>-136500000</v>
       </c>
       <c r="AN29">
-        <v>-689000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>90000000</v>
-      </c>
-      <c r="C30">
-        <v>-154000000</v>
-      </c>
-      <c r="D30">
-        <v>92000000</v>
-      </c>
-      <c r="E30">
-        <v>651000000</v>
-      </c>
-      <c r="F30">
-        <v>-45000000</v>
-      </c>
-      <c r="G30">
-        <v>-292000000</v>
-      </c>
-      <c r="H30">
-        <v>-110000000</v>
-      </c>
-      <c r="I30">
-        <v>62000000</v>
-      </c>
-      <c r="J30">
-        <v>-172000000</v>
-      </c>
-      <c r="K30">
-        <v>453000000</v>
-      </c>
-      <c r="L30">
-        <v>-111000000</v>
-      </c>
-      <c r="M30">
-        <v>-540000000</v>
-      </c>
-      <c r="N30">
-        <v>88000000</v>
-      </c>
-      <c r="O30">
-        <v>402000000</v>
-      </c>
-      <c r="P30">
-        <v>-142000000</v>
-      </c>
-      <c r="Q30">
-        <v>-45000000</v>
-      </c>
-      <c r="R30">
-        <v>42000000</v>
-      </c>
-      <c r="S30">
-        <v>199000000</v>
-      </c>
-      <c r="T30">
-        <v>473000000</v>
-      </c>
-      <c r="U30">
-        <v>-488000000</v>
-      </c>
-      <c r="V30">
-        <v>-446000000</v>
-      </c>
-      <c r="W30">
-        <v>-2000000</v>
-      </c>
-      <c r="X30">
-        <v>138000000</v>
-      </c>
-      <c r="Y30">
-        <v>79000000</v>
-      </c>
-      <c r="Z30">
-        <v>-181000000</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>-61000000</v>
-      </c>
-      <c r="AC30">
-        <v>44000000</v>
-      </c>
-      <c r="AD30">
-        <v>328000000</v>
-      </c>
-      <c r="AE30">
-        <v>514000000</v>
-      </c>
-      <c r="AF30">
-        <v>414000000</v>
-      </c>
-      <c r="AG30">
-        <v>371000000</v>
-      </c>
-      <c r="AH30">
-        <v>250000000</v>
-      </c>
-      <c r="AI30">
-        <v>135000000</v>
-      </c>
-      <c r="AJ30">
-        <v>-2000000</v>
-      </c>
-      <c r="AK30">
-        <v>314000000</v>
-      </c>
-      <c r="AL30">
-        <v>365000000</v>
-      </c>
-      <c r="AM30">
-        <v>44000000</v>
-      </c>
-      <c r="AN30">
-        <v>-96000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>-72000000</v>
-      </c>
-      <c r="C31">
-        <v>63000000</v>
-      </c>
-      <c r="D31">
-        <v>-609000000</v>
-      </c>
-      <c r="E31">
-        <v>-865000000</v>
-      </c>
-      <c r="F31">
-        <v>-441000000</v>
-      </c>
-      <c r="G31">
-        <v>-316000000</v>
-      </c>
-      <c r="H31">
-        <v>62000000</v>
-      </c>
-      <c r="I31">
-        <v>102000000</v>
-      </c>
-      <c r="J31">
-        <v>89000000</v>
-      </c>
-      <c r="K31">
-        <v>86000000</v>
-      </c>
-      <c r="L31">
-        <v>-216000000</v>
-      </c>
-      <c r="M31">
-        <v>-54000000</v>
-      </c>
-      <c r="N31">
-        <v>-70000000</v>
-      </c>
-      <c r="O31">
-        <v>-250000000</v>
-      </c>
-      <c r="P31">
-        <v>-486000000</v>
-      </c>
-      <c r="Q31">
-        <v>-1185000000</v>
-      </c>
-      <c r="R31">
-        <v>-968000000</v>
-      </c>
-      <c r="S31">
-        <v>-1514000000</v>
-      </c>
-      <c r="T31">
-        <v>-718000000</v>
-      </c>
-      <c r="U31">
-        <v>-352000000</v>
-      </c>
-      <c r="V31">
-        <v>-294000000</v>
-      </c>
-      <c r="W31">
-        <v>-313000000</v>
-      </c>
-      <c r="X31">
-        <v>-375000000</v>
-      </c>
-      <c r="Y31">
-        <v>-861000000</v>
-      </c>
-      <c r="Z31">
-        <v>-645000000</v>
-      </c>
-      <c r="AA31">
-        <v>-573000000</v>
-      </c>
-      <c r="AB31">
-        <v>-870000000</v>
-      </c>
-      <c r="AC31">
-        <v>-1017000000</v>
-      </c>
-      <c r="AD31">
-        <v>-1455000000</v>
-      </c>
-      <c r="AE31">
-        <v>-1554000000</v>
-      </c>
-      <c r="AF31">
-        <v>-577000000</v>
-      </c>
-      <c r="AG31">
-        <v>-1050000000</v>
-      </c>
-      <c r="AH31">
-        <v>-1085000000</v>
-      </c>
-      <c r="AI31">
-        <v>-1108000000</v>
-      </c>
-      <c r="AJ31">
-        <v>-1441000000</v>
-      </c>
-      <c r="AK31">
-        <v>-1437000000</v>
-      </c>
-      <c r="AL31">
-        <v>-1274000000</v>
-      </c>
-      <c r="AM31">
-        <v>-825000000</v>
-      </c>
-      <c r="AN31">
-        <v>-67000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>-72000000</v>
-      </c>
-      <c r="C32">
-        <v>63000000</v>
-      </c>
-      <c r="D32">
-        <v>-609000000</v>
-      </c>
-      <c r="E32">
-        <v>-865000000</v>
-      </c>
-      <c r="F32">
-        <v>-441000000</v>
-      </c>
-      <c r="G32">
-        <v>-316000000</v>
-      </c>
-      <c r="H32">
-        <v>62000000</v>
-      </c>
-      <c r="I32">
-        <v>102000000</v>
-      </c>
-      <c r="J32">
-        <v>89000000</v>
-      </c>
-      <c r="K32">
-        <v>86000000</v>
-      </c>
-      <c r="L32">
-        <v>-216000000</v>
-      </c>
-      <c r="M32">
-        <v>-54000000</v>
-      </c>
-      <c r="N32">
-        <v>-70000000</v>
-      </c>
-      <c r="O32">
-        <v>-250000000</v>
-      </c>
-      <c r="P32">
-        <v>-486000000</v>
-      </c>
-      <c r="Q32">
-        <v>-1185000000</v>
-      </c>
-      <c r="R32">
-        <v>-968000000</v>
-      </c>
-      <c r="S32">
-        <v>-1514000000</v>
-      </c>
-      <c r="T32">
-        <v>-718000000</v>
-      </c>
-      <c r="U32">
-        <v>-352000000</v>
-      </c>
-      <c r="V32">
-        <v>-294000000</v>
-      </c>
-      <c r="W32">
-        <v>-313000000</v>
-      </c>
-      <c r="X32">
-        <v>-375000000</v>
-      </c>
-      <c r="Y32">
-        <v>-861000000</v>
-      </c>
-      <c r="Z32">
-        <v>-645000000</v>
-      </c>
-      <c r="AA32">
-        <v>-573000000</v>
-      </c>
-      <c r="AB32">
-        <v>-870000000</v>
-      </c>
-      <c r="AC32">
-        <v>-1017000000</v>
-      </c>
-      <c r="AD32">
-        <v>-1455000000</v>
-      </c>
-      <c r="AE32">
-        <v>-1554000000</v>
-      </c>
-      <c r="AF32">
-        <v>-577000000</v>
-      </c>
-      <c r="AG32">
-        <v>-1050000000</v>
-      </c>
-      <c r="AH32">
-        <v>-1085000000</v>
-      </c>
-      <c r="AI32">
-        <v>-1108000000</v>
-      </c>
-      <c r="AJ32">
-        <v>-1441000000</v>
-      </c>
-      <c r="AK32">
-        <v>-1437000000</v>
-      </c>
-      <c r="AL32">
-        <v>-1274000000</v>
-      </c>
-      <c r="AM32">
-        <v>-825000000</v>
-      </c>
-      <c r="AN32">
-        <v>-67000000</v>
+        <v>-65800000</v>
       </c>
     </row>
   </sheetData>
